--- a/Presentation/bin/Debug/net7.0-windows7.0/ExtractedData.xlsx
+++ b/Presentation/bin/Debug/net7.0-windows7.0/ExtractedData.xlsx
@@ -9,15 +9,15 @@
     <sheet name="Components" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Components!$A$1:$I$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wires!$A$1:$S$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Components!$A$1:$I$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wires!$A$1:$S$110</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="549">
   <si>
     <t>Wire</t>
   </si>
@@ -91,7 +91,7 @@
     <t>761980</t>
   </si>
   <si>
-    <t>9082+L2+L1</t>
+    <t>6987+L2+L1</t>
   </si>
   <si>
     <t>6E</t>
@@ -124,7 +124,7 @@
     <t>BR15 DH66</t>
   </si>
   <si>
-    <t>2437709 2437710 2437711 2437712 2437713 2437714 2437715 2437716 2437717 2437718 2437719 2437720 2437721 2437722 2437723 2437724 2437725 2437726 2437727 2437728 2437729 2437730 2437731 2437732 2437733 2437734 2437735 2437736 2437737 2437738 2437739 2437740 2437741 2437742 2437743 2437744 2437745 2437746 2437747 2437748 2437749 2437750 2437751 2437752</t>
+    <t>2439602 2439603</t>
   </si>
   <si>
     <t>?</t>
@@ -133,7 +133,7 @@
     <t>1117.1</t>
   </si>
   <si>
-    <t>6047+L1+L2</t>
+    <t>6637+L1+L2</t>
   </si>
   <si>
     <t>D453.A</t>
@@ -169,7 +169,7 @@
     <t>364973</t>
   </si>
   <si>
-    <t>9152+L1+L2</t>
+    <t>7017+L1+L2</t>
   </si>
   <si>
     <t>111F_plug</t>
@@ -205,7 +205,7 @@
     <t>761974</t>
   </si>
   <si>
-    <t>1432+L1</t>
+    <t>1862</t>
   </si>
   <si>
     <t>25</t>
@@ -235,7 +235,7 @@
     <t>1380.17</t>
   </si>
   <si>
-    <t>6355+L2</t>
+    <t>5645+L1+L2</t>
   </si>
   <si>
     <t>P031.D</t>
@@ -250,7 +250,7 @@
     <t>1381.3</t>
   </si>
   <si>
-    <t>1502+L1</t>
+    <t>1932</t>
   </si>
   <si>
     <t>6CD:5 to P071.T:16</t>
@@ -265,7 +265,7 @@
     <t>1381.14</t>
   </si>
   <si>
-    <t>6385+L2</t>
+    <t>6545+L1+L2</t>
   </si>
   <si>
     <t>1784459</t>
@@ -280,7 +280,7 @@
     <t>1381.19</t>
   </si>
   <si>
-    <t>5385</t>
+    <t>5395</t>
   </si>
   <si>
     <t>P071.T:4 to 116F_socket:16</t>
@@ -295,7 +295,7 @@
     <t>1381.27</t>
   </si>
   <si>
-    <t>7220+L2</t>
+    <t>7235+L1+L2</t>
   </si>
   <si>
     <t>P097</t>
@@ -310,16 +310,13 @@
     <t>DH102</t>
   </si>
   <si>
-    <t>2437709 2437710 2437711 2437712 2437713 2437714 2437715 2437716 2437717 2437718 2437719 2437721 2437723 2437725 2437727 2437729 2437731 2437733 2437735 2437737 2437739 2437741 2437743 2437745 2437747 2437749 2437751</t>
-  </si>
-  <si>
     <t>1390.1</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
-    <t>9112+L1+L2</t>
+    <t>7027+L1+L2</t>
   </si>
   <si>
     <t>108F_plug</t>
@@ -358,7 +355,7 @@
     <t>1404.9</t>
   </si>
   <si>
-    <t>9150+L2</t>
+    <t>6575+L2+L1</t>
   </si>
   <si>
     <t>9</t>
@@ -379,7 +376,7 @@
     <t>1700.1</t>
   </si>
   <si>
-    <t>5047+L1</t>
+    <t>5487</t>
   </si>
   <si>
     <t>7</t>
@@ -391,7 +388,7 @@
     <t>1713.1</t>
   </si>
   <si>
-    <t>6227+L1</t>
+    <t>6117</t>
   </si>
   <si>
     <t>P072</t>
@@ -421,7 +418,7 @@
     <t>761984</t>
   </si>
   <si>
-    <t>6450+L2</t>
+    <t>5575+L2+L1</t>
   </si>
   <si>
     <t>P071.P:15 to P031.C:5</t>
@@ -466,7 +463,7 @@
     <t>761975</t>
   </si>
   <si>
-    <t>3615</t>
+    <t>2260</t>
   </si>
   <si>
     <t>P031.D:4 to 107F_plug:5</t>
@@ -490,6 +487,9 @@
     <t>2040.3</t>
   </si>
   <si>
+    <t>5645+L2+L1</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -535,7 +535,7 @@
     <t>2247.3</t>
   </si>
   <si>
-    <t>5715</t>
+    <t>5455</t>
   </si>
   <si>
     <t>P071.P:11 to C361:1</t>
@@ -562,18 +562,6 @@
     <t>C362:1 to P071.P:10</t>
   </si>
   <si>
-    <t>2249.2</t>
-  </si>
-  <si>
-    <t>9082+L1+L2</t>
-  </si>
-  <si>
-    <t>107F_plug:16 to 5CD:8</t>
-  </si>
-  <si>
-    <t>DH68</t>
-  </si>
-  <si>
     <t>2677.1</t>
   </si>
   <si>
@@ -583,6 +571,9 @@
     <t>2679.4</t>
   </si>
   <si>
+    <t>6987+L1+L2</t>
+  </si>
+  <si>
     <t>107F_plug:9 to 6E:2</t>
   </si>
   <si>
@@ -592,7 +583,7 @@
     <t>2679.14</t>
   </si>
   <si>
-    <t>8712+L1+L2+L3</t>
+    <t>6687+L1+L2+L3</t>
   </si>
   <si>
     <t>L308.B</t>
@@ -619,7 +610,7 @@
     <t>3503</t>
   </si>
   <si>
-    <t>800</t>
+    <t>775+L2</t>
   </si>
   <si>
     <t>P031.E</t>
@@ -637,7 +628,7 @@
     <t>3558.1</t>
   </si>
   <si>
-    <t>9112+L2+L1</t>
+    <t>7027+L2+L1</t>
   </si>
   <si>
     <t>6E:8 to 108F_plug:1</t>
@@ -655,54 +646,57 @@
     <t>6E:9 to 108F_plug:2</t>
   </si>
   <si>
-    <t>3616.1</t>
+    <t>3616.3</t>
   </si>
   <si>
     <t>1852513</t>
   </si>
   <si>
-    <t>5367+L2+L1</t>
-  </si>
-  <si>
-    <t>6CD:16 to 119F_socket:13</t>
-  </si>
-  <si>
-    <t>119F_socket</t>
-  </si>
-  <si>
-    <t>DH20</t>
-  </si>
-  <si>
-    <t>3617.1</t>
-  </si>
-  <si>
-    <t>6CD:15 to 119F_socket:14</t>
-  </si>
-  <si>
-    <t>3619.5</t>
-  </si>
-  <si>
-    <t>5367+L1+L2</t>
-  </si>
-  <si>
-    <t>119F_socket:3 to 6CD:35</t>
+    <t>7357+L2+L1</t>
+  </si>
+  <si>
+    <t>6CD:16 to D380:5</t>
+  </si>
+  <si>
+    <t>D380</t>
+  </si>
+  <si>
+    <t>DH05</t>
+  </si>
+  <si>
+    <t>3617.3</t>
+  </si>
+  <si>
+    <t>6CD:15 to D380:6</t>
+  </si>
+  <si>
+    <t>3619.9</t>
+  </si>
+  <si>
+    <t>6697+L2+L1</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>DH07</t>
-  </si>
-  <si>
-    <t>3620.5</t>
-  </si>
-  <si>
-    <t>119F_socket:4 to 6CD:36</t>
+    <t>6CD:35 to D378.B:4</t>
+  </si>
+  <si>
+    <t>D378.B</t>
+  </si>
+  <si>
+    <t>DH00 DJ00</t>
+  </si>
+  <si>
+    <t>3620.9</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
+    <t>6CD:36 to D378.B:3</t>
+  </si>
+  <si>
     <t>3651.8</t>
   </si>
   <si>
@@ -727,7 +721,7 @@
     <t>3728.1</t>
   </si>
   <si>
-    <t>5777+L1</t>
+    <t>6107</t>
   </si>
   <si>
     <t>22</t>
@@ -760,28 +754,28 @@
     <t>6CD:23 to F847:3</t>
   </si>
   <si>
-    <t>3930.1</t>
-  </si>
-  <si>
-    <t>6CD:13 to 119F_socket:12</t>
-  </si>
-  <si>
-    <t>3931.1</t>
-  </si>
-  <si>
-    <t>6CD:12 to 119F_socket:11</t>
-  </si>
-  <si>
-    <t>3932.1</t>
-  </si>
-  <si>
-    <t>6CD:11 to 119F_socket:10</t>
-  </si>
-  <si>
-    <t>3933.1</t>
-  </si>
-  <si>
-    <t>6CD:10 to 119F_socket:9</t>
+    <t>3930.3</t>
+  </si>
+  <si>
+    <t>6CD:13 to D380:2</t>
+  </si>
+  <si>
+    <t>3931.3</t>
+  </si>
+  <si>
+    <t>6CD:12 to D380:3</t>
+  </si>
+  <si>
+    <t>3932.3</t>
+  </si>
+  <si>
+    <t>6CD:11 to D380:4</t>
+  </si>
+  <si>
+    <t>3933.3</t>
+  </si>
+  <si>
+    <t>6CD:10 to D380:1</t>
   </si>
   <si>
     <t>3934.1</t>
@@ -847,45 +841,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>3942.1</t>
-  </si>
-  <si>
-    <t>2745</t>
-  </si>
-  <si>
-    <t>119F_socket:5 to F514:1</t>
-  </si>
-  <si>
-    <t>F514</t>
-  </si>
-  <si>
-    <t>DH07 DH08 DH95</t>
-  </si>
-  <si>
-    <t>3943.1</t>
-  </si>
-  <si>
-    <t>119F_socket:6 to F514:3</t>
-  </si>
-  <si>
-    <t>3944.1</t>
-  </si>
-  <si>
-    <t>2725</t>
-  </si>
-  <si>
-    <t>119F_socket:7 to F515:1</t>
-  </si>
-  <si>
-    <t>F515</t>
-  </si>
-  <si>
-    <t>3945.1</t>
-  </si>
-  <si>
-    <t>119F_socket:8 to F515:3</t>
-  </si>
-  <si>
     <t>3952.61</t>
   </si>
   <si>
@@ -895,7 +850,7 @@
     <t>1381087</t>
   </si>
   <si>
-    <t>1740</t>
+    <t>1350</t>
   </si>
   <si>
     <t>1623428</t>
@@ -907,30 +862,15 @@
     <t>DH132</t>
   </si>
   <si>
-    <t>3952.69</t>
-  </si>
-  <si>
-    <t>5887+L1+L2</t>
+    <t>3952.70</t>
+  </si>
+  <si>
+    <t>2510</t>
   </si>
   <si>
     <t>G790</t>
   </si>
   <si>
-    <t>G790:5 to 6CD:8</t>
-  </si>
-  <si>
-    <t>DH142</t>
-  </si>
-  <si>
-    <t>2437720 2437722 2437724 2437726 2437728 2437730 2437732 2437734 2437736 2437738 2437740 2437742 2437744 2437746 2437748 2437750 2437752</t>
-  </si>
-  <si>
-    <t>3952.70</t>
-  </si>
-  <si>
-    <t>2935</t>
-  </si>
-  <si>
     <t>G790:5 to P097:7</t>
   </si>
   <si>
@@ -940,7 +880,7 @@
     <t>3952.71</t>
   </si>
   <si>
-    <t>6882+L2+L1</t>
+    <t>7327+L2+L1</t>
   </si>
   <si>
     <t>6CD:8 to P097:8</t>
@@ -952,7 +892,7 @@
     <t>3952.72</t>
   </si>
   <si>
-    <t>2260+L2</t>
+    <t>2300+L1+L2</t>
   </si>
   <si>
     <t>G790:2 to P072:14</t>
@@ -964,7 +904,7 @@
     <t>3952.73</t>
   </si>
   <si>
-    <t>400</t>
+    <t>600</t>
   </si>
   <si>
     <t>1811510</t>
@@ -988,15 +928,6 @@
     <t>116F_socket:2 to P072:6</t>
   </si>
   <si>
-    <t>3953.69</t>
-  </si>
-  <si>
-    <t>5887+L2+L1</t>
-  </si>
-  <si>
-    <t>6CD:9 to G790:7</t>
-  </si>
-  <si>
     <t>3953.70</t>
   </si>
   <si>
@@ -1030,7 +961,7 @@
     <t>4936</t>
   </si>
   <si>
-    <t>5587+L2+L1</t>
+    <t>5452+L1</t>
   </si>
   <si>
     <t>5CD:15 to 158F_plug:1</t>
@@ -1039,18 +970,18 @@
     <t>DH30</t>
   </si>
   <si>
-    <t>5158.5</t>
+    <t>5158.9</t>
   </si>
   <si>
     <t>1686136</t>
   </si>
   <si>
-    <t>119F_socket:2 to 6CD:34</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
+    <t>6CD:34 to D378.B:2</t>
+  </si>
+  <si>
     <t>5491.1</t>
   </si>
   <si>
@@ -1060,7 +991,7 @@
     <t>6164.2</t>
   </si>
   <si>
-    <t>8902+L2+L1</t>
+    <t>6757+L2+L1</t>
   </si>
   <si>
     <t>5CD:7 to A088:7</t>
@@ -1075,7 +1006,7 @@
     <t>6165</t>
   </si>
   <si>
-    <t>8902+L1+L2</t>
+    <t>6757+L1+L2</t>
   </si>
   <si>
     <t>A088:2 to 5CD:21</t>
@@ -1114,13 +1045,13 @@
     <t>1381089</t>
   </si>
   <si>
-    <t>6902+L1+L2</t>
+    <t>7347+L1+L2</t>
   </si>
   <si>
     <t>P097:11 to 5CD:10</t>
   </si>
   <si>
-    <t>6496.9</t>
+    <t>6496.14</t>
   </si>
   <si>
     <t>0.4</t>
@@ -1132,115 +1063,25 @@
     <t>S2</t>
   </si>
   <si>
-    <t>A_2396617</t>
-  </si>
-  <si>
-    <t>8622+L1+L2+L3+L4</t>
-  </si>
-  <si>
-    <t>L308.A(8)</t>
-  </si>
-  <si>
-    <t>L308.A(8):1 to 344C(2):1</t>
+    <t>A_2396622</t>
+  </si>
+  <si>
+    <t>6597+L1+L2+L3+L4</t>
+  </si>
+  <si>
+    <t>L308.A(13)</t>
+  </si>
+  <si>
+    <t>L308.A(13):1 to 344C(2):1</t>
   </si>
   <si>
     <t>344C(2)</t>
   </si>
   <si>
-    <t>DH155</t>
-  </si>
-  <si>
-    <t>2437711 2437723 2437724</t>
-  </si>
-  <si>
-    <t>6496.10</t>
-  </si>
-  <si>
-    <t>A_2396618</t>
-  </si>
-  <si>
-    <t>L308.A(9)</t>
-  </si>
-  <si>
-    <t>L308.A(9):1 to 344C(2):1</t>
-  </si>
-  <si>
-    <t>DH156</t>
-  </si>
-  <si>
-    <t>2437709 2437713 2437719 2437720 2437727 2437728</t>
-  </si>
-  <si>
-    <t>6496.11</t>
-  </si>
-  <si>
-    <t>A_2396619</t>
-  </si>
-  <si>
-    <t>L308.A(10)</t>
-  </si>
-  <si>
-    <t>L308.A(10):1 to 344C(2):1</t>
-  </si>
-  <si>
-    <t>DH157</t>
-  </si>
-  <si>
-    <t>2437710 2437721 2437722 2437739 2437740</t>
-  </si>
-  <si>
-    <t>6496.12</t>
-  </si>
-  <si>
-    <t>A_2396620</t>
-  </si>
-  <si>
-    <t>L308.A(11)</t>
-  </si>
-  <si>
-    <t>L308.A(11):1 to 344C(2):1</t>
-  </si>
-  <si>
-    <t>DH158</t>
-  </si>
-  <si>
-    <t>2437712 2437725 2437726</t>
-  </si>
-  <si>
-    <t>6496.13</t>
-  </si>
-  <si>
-    <t>A_2396621</t>
-  </si>
-  <si>
-    <t>L308.A(12)</t>
-  </si>
-  <si>
-    <t>L308.A(12):1 to 344C(2):1</t>
-  </si>
-  <si>
-    <t>DH159</t>
-  </si>
-  <si>
-    <t>2437714 2437729 2437730 2437741 2437742</t>
-  </si>
-  <si>
-    <t>6496.14</t>
-  </si>
-  <si>
-    <t>A_2396622</t>
-  </si>
-  <si>
-    <t>L308.A(13)</t>
-  </si>
-  <si>
-    <t>L308.A(13):1 to 344C(2):1</t>
-  </si>
-  <si>
     <t>DH160</t>
   </si>
   <si>
-    <t>2437715 2437716 2437731 2437732 2437733 2437734 2437743 2437744 2437745 2437746 2437747 2437748</t>
+    <t>2439602</t>
   </si>
   <si>
     <t>6496.15</t>
@@ -1258,13 +1099,13 @@
     <t>DH161</t>
   </si>
   <si>
-    <t>2437717 2437718 2437735 2437736 2437737 2437738 2437749 2437750 2437751 2437752</t>
+    <t>2439603</t>
   </si>
   <si>
     <t>7081</t>
   </si>
   <si>
-    <t>3615+L2</t>
+    <t>2860+L2+L1</t>
   </si>
   <si>
     <t>P072:1 to P025:2</t>
@@ -1285,6 +1126,9 @@
     <t>1657782</t>
   </si>
   <si>
+    <t>2860+L1+L2</t>
+  </si>
+  <si>
     <t>P025:4 to P072:2</t>
   </si>
   <si>
@@ -1318,7 +1162,7 @@
     <t>2290785</t>
   </si>
   <si>
-    <t>6087+L1+L2</t>
+    <t>5807+L1+L2</t>
   </si>
   <si>
     <t>P031.D:17 to 6CD:26</t>
@@ -1360,16 +1204,16 @@
     <t>761973</t>
   </si>
   <si>
-    <t>6545</t>
+    <t>6005</t>
   </si>
   <si>
     <t>P072:13 to P071.T:7</t>
   </si>
   <si>
-    <t>9026.1</t>
-  </si>
-  <si>
-    <t>6CD:14 to 119F_socket:15</t>
+    <t>9026.3</t>
+  </si>
+  <si>
+    <t>6CD:14 to D380:7</t>
   </si>
   <si>
     <t>9041.1</t>
@@ -1384,7 +1228,7 @@
     <t>364972</t>
   </si>
   <si>
-    <t>9780+L2</t>
+    <t>7215+L1+L2</t>
   </si>
   <si>
     <t>111F_plug:1 to P071.U:8</t>
@@ -1405,15 +1249,15 @@
     <t>108F_plug:5 to 6E:7</t>
   </si>
   <si>
-    <t>9129.5</t>
-  </si>
-  <si>
-    <t>119F_socket:1 to 6CD:33</t>
+    <t>9129.9</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
+    <t>6CD:33 to D378.B:1</t>
+  </si>
+  <si>
     <t>9164.1</t>
   </si>
   <si>
@@ -1423,9 +1267,6 @@
     <t>9212</t>
   </si>
   <si>
-    <t>5587+L1+L2</t>
-  </si>
-  <si>
     <t>158F_plug:2 to 5CD:14</t>
   </si>
   <si>
@@ -1471,7 +1312,7 @@
     <t>2028575</t>
   </si>
   <si>
-    <t>6730+L2</t>
+    <t>5855+L1+L2</t>
   </si>
   <si>
     <t>2032391</t>
@@ -1495,7 +1336,7 @@
     <t>MT10</t>
   </si>
   <si>
-    <t>5785</t>
+    <t>5525</t>
   </si>
   <si>
     <t>C362:2 to P071.T:10</t>
@@ -1504,7 +1345,7 @@
     <t>MT11</t>
   </si>
   <si>
-    <t>9030+L2+L3</t>
+    <t>6575+L1+L2+L3</t>
   </si>
   <si>
     <t>L308.B:3 to P071.T:11</t>
@@ -1537,7 +1378,7 @@
     <t>MU3</t>
   </si>
   <si>
-    <t>9710+L2</t>
+    <t>7195+L1+L2</t>
   </si>
   <si>
     <t>108F_plug:4 to P071.U:3</t>
@@ -1558,7 +1399,7 @@
     <t>111F_plug:2 to P071.U:7</t>
   </si>
   <si>
-    <t>S1_Video.9</t>
+    <t>S1_Video.14</t>
   </si>
   <si>
     <t>0.1</t>
@@ -1567,36 +1408,6 @@
     <t>1A</t>
   </si>
   <si>
-    <t>L308.A(8):1A to 344C(2):1A</t>
-  </si>
-  <si>
-    <t>S1_Video.10</t>
-  </si>
-  <si>
-    <t>L308.A(9):1A to 344C(2):1A</t>
-  </si>
-  <si>
-    <t>S1_Video.11</t>
-  </si>
-  <si>
-    <t>L308.A(10):1A to 344C(2):1A</t>
-  </si>
-  <si>
-    <t>S1_Video.12</t>
-  </si>
-  <si>
-    <t>L308.A(11):1A to 344C(2):1A</t>
-  </si>
-  <si>
-    <t>S1_Video.13</t>
-  </si>
-  <si>
-    <t>L308.A(12):1A to 344C(2):1A</t>
-  </si>
-  <si>
-    <t>S1_Video.14</t>
-  </si>
-  <si>
     <t>L308.A(13):1A to 344C(2):1A</t>
   </si>
   <si>
@@ -1660,9 +1471,6 @@
     <t>DH09/DH11/DH114/DH119/DH12/DH13/DH132/DH165/DH25/DH76/DH90/DH91/DH92/DH98/DQ06/DQ19</t>
   </si>
   <si>
-    <t>DH07/DH08/DH20/DH95</t>
-  </si>
-  <si>
     <t>1745605</t>
   </si>
   <si>
@@ -1744,6 +1552,24 @@
     <t>side marker right 2nd</t>
   </si>
   <si>
+    <t>1816060</t>
+  </si>
+  <si>
+    <t>DH00/DH01/DH06/DH21/DJ00/DJ01/DJ06/DJ21</t>
+  </si>
+  <si>
+    <t>modulator rear axle</t>
+  </si>
+  <si>
+    <t>1814556</t>
+  </si>
+  <si>
+    <t>DH05/DH19/DJ19</t>
+  </si>
+  <si>
+    <t>modulator trailer</t>
+  </si>
+  <si>
     <t>1982868</t>
   </si>
   <si>
@@ -1753,18 +1579,6 @@
     <t>ECAS-5</t>
   </si>
   <si>
-    <t>1859550</t>
-  </si>
-  <si>
-    <t>DH01/DH07/DH08/DH23/DH93/DH95</t>
-  </si>
-  <si>
-    <t>sensor left driven axle</t>
-  </si>
-  <si>
-    <t>sensor right driven axle</t>
-  </si>
-  <si>
     <t>DH04/DQ22/DQ24/DQ26/DQ28</t>
   </si>
   <si>
@@ -1774,36 +1588,21 @@
     <t>1877080</t>
   </si>
   <si>
-    <t>DH09/DH101/DH120/DH123/DH138/DH139/DH140/DH141/DH142/DH40/DH41/DH70/DH76</t>
+    <t>DH09/DH101/DH120/DH122/DH123/DH138/DH139/DH140/DH141/DH142/DH40/DH41/DH70/DH76</t>
   </si>
   <si>
     <t>junction connector</t>
   </si>
   <si>
-    <t>2396619</t>
+    <t>2396622</t>
   </si>
   <si>
     <t>rear view camera</t>
   </si>
   <si>
-    <t>2396620</t>
-  </si>
-  <si>
-    <t>2396621</t>
-  </si>
-  <si>
-    <t>2396622</t>
-  </si>
-  <si>
     <t>2404490</t>
   </si>
   <si>
-    <t>2396617</t>
-  </si>
-  <si>
-    <t>2396618</t>
-  </si>
-  <si>
     <t>1856635</t>
   </si>
   <si>
@@ -1819,13 +1618,13 @@
     <t>1973555</t>
   </si>
   <si>
-    <t>BR15/BR34/DH100/DH114/DH123/DH166/DH167/DH18/DH25/DH26/DH27/DH41/DH61/DH66/DH70/DH76/DH81/DQ03/DQ06/DQ18</t>
+    <t>BR15/DH100/DH114/DH123/DH166/DH167/DH18/DH25/DH26/DH27/DH41/DH61/DH66/DH70/DH76/DH81/DQ03/DQ06/DQ18</t>
   </si>
   <si>
     <t>1973554</t>
   </si>
   <si>
-    <t>DH30/DQ03/DQ10/DQ11/DQ12/DQ30/DQ41</t>
+    <t>DH30/DQ03/DQ10/DQ11/DQ12/DQ30</t>
   </si>
   <si>
     <t>1808628</t>
@@ -1911,7 +1710,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:S127"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="19" topLeftCell="T1" state="frozen" activePane="topRight"/>
@@ -1936,7 +1735,7 @@
     <col min="14" max="14" width="12.022722244262695" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="29.135534286499023" customWidth="1"/>
-    <col min="17" max="17" width="358.5287780761719" customWidth="1"/>
+    <col min="17" max="17" width="16.497610092163086" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
@@ -2522,7 +2321,7 @@
         <v>96</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>36</v>
@@ -2533,7 +2332,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>20</v>
@@ -2542,28 +2341,28 @@
         <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>27</v>
@@ -2578,7 +2377,7 @@
         <v>40</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>35</v>
@@ -2592,7 +2391,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>20</v>
@@ -2613,7 +2412,7 @@
         <v>44</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>43</v>
@@ -2622,13 +2421,13 @@
         <v>28</v>
       </c>
       <c r="K12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="L12" s="0" t="s">
-        <v>110</v>
-      </c>
       <c r="M12" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>68</v>
@@ -2637,7 +2436,7 @@
         <v>26</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="0" t="s">
         <v>35</v>
@@ -2651,7 +2450,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>20</v>
@@ -2666,37 +2465,37 @@
         <v>23</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H13" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="M13" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>52</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="0" t="s">
         <v>35</v>
@@ -2710,7 +2509,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>60</v>
@@ -2725,13 +2524,13 @@
         <v>61</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>64</v>
@@ -2740,7 +2539,7 @@
         <v>28</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>83</v>
@@ -2769,7 +2568,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>60</v>
@@ -2784,10 +2583,10 @@
         <v>61</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>125</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>52</v>
@@ -2799,22 +2598,22 @@
         <v>67</v>
       </c>
       <c r="K15" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="M15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="0" t="s">
+      <c r="O15" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="P15" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>35</v>
@@ -2828,10 +2627,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>21</v>
@@ -2840,10 +2639,10 @@
         <v>22</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>68</v>
@@ -2858,16 +2657,16 @@
         <v>31</v>
       </c>
       <c r="K16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>136</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>69</v>
@@ -2887,10 +2686,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>21</v>
@@ -2899,10 +2698,10 @@
         <v>22</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>68</v>
@@ -2917,16 +2716,16 @@
         <v>31</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>26</v>
@@ -2946,10 +2745,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>21</v>
@@ -2958,10 +2757,10 @@
         <v>22</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>68</v>
@@ -2976,16 +2775,16 @@
         <v>31</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>52</v>
@@ -3005,10 +2804,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>21</v>
@@ -3017,16 +2816,16 @@
         <v>22</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>41</v>
@@ -3035,19 +2834,19 @@
         <v>31</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>70</v>
@@ -3064,7 +2863,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>20</v>
@@ -3085,22 +2884,22 @@
         <v>93</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>79</v>
@@ -3112,7 +2911,7 @@
         <v>96</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R20" s="0" t="s">
         <v>36</v>
@@ -3123,22 +2922,22 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>73</v>
@@ -3153,10 +2952,10 @@
         <v>67</v>
       </c>
       <c r="K21" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>67</v>
@@ -3168,7 +2967,7 @@
         <v>69</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>35</v>
@@ -3182,28 +2981,28 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>73</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>66</v>
@@ -3212,10 +3011,10 @@
         <v>67</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>67</v>
@@ -3224,10 +3023,10 @@
         <v>32</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="0" t="s">
         <v>35</v>
@@ -3241,22 +3040,22 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>68</v>
@@ -3306,7 +3105,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>22</v>
@@ -3315,19 +3114,19 @@
         <v>160</v>
       </c>
       <c r="F24" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>161</v>
       </c>
       <c r="I24" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>162</v>
@@ -3342,7 +3141,7 @@
         <v>25</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P24" s="0" t="s">
         <v>163</v>
@@ -3365,7 +3164,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>22</v>
@@ -3374,19 +3173,19 @@
         <v>160</v>
       </c>
       <c r="F25" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>165</v>
@@ -3424,16 +3223,16 @@
         <v>60</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>73</v>
@@ -3460,10 +3259,10 @@
         <v>32</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="0" t="s">
         <v>35</v>
@@ -3483,13 +3282,13 @@
         <v>60</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>172</v>
@@ -3498,7 +3297,7 @@
         <v>68</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>66</v>
@@ -3542,13 +3341,13 @@
         <v>60</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>172</v>
@@ -3601,46 +3400,46 @@
         <v>60</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="G29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="L29" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O29" s="0" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>35</v>
@@ -3654,52 +3453,52 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>67</v>
       </c>
       <c r="K30" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N30" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="P30" s="0" t="s">
-        <v>152</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>35</v>
@@ -3719,46 +3518,46 @@
         <v>60</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>67</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L31" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M31" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="O31" s="0" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>35</v>
@@ -3772,52 +3571,52 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>35</v>
@@ -3831,52 +3630,52 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>35</v>
@@ -3890,52 +3689,52 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="J34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M34" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="N34" s="0" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>35</v>
@@ -3955,46 +3754,46 @@
         <v>60</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>67</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q35" s="0" t="s">
         <v>35</v>
@@ -4008,52 +3807,52 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>67</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="0" t="s">
         <v>35</v>
@@ -4067,28 +3866,28 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>43</v>
@@ -4097,22 +3896,22 @@
         <v>28</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>35</v>
@@ -4126,52 +3925,52 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>35</v>
@@ -4185,52 +3984,52 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="F39" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="N39" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="H39" s="0" t="s">
+      <c r="O39" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="I39" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K39" s="0" t="s">
+      <c r="P39" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N39" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O39" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="P39" s="0" t="s">
-        <v>224</v>
       </c>
       <c r="Q39" s="0" t="s">
         <v>35</v>
@@ -4244,52 +4043,52 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>67</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="M40" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>35</v>
@@ -4303,52 +4102,52 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="G41" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N41" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N41" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="O41" s="0" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q41" s="0" t="s">
         <v>35</v>
@@ -4368,46 +4167,46 @@
         <v>60</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>232</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q42" s="0" t="s">
         <v>35</v>
@@ -4427,46 +4226,46 @@
         <v>60</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>35</v>
@@ -4480,28 +4279,28 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>64</v>
@@ -4510,22 +4309,22 @@
         <v>28</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M44" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>35</v>
@@ -4539,28 +4338,28 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>64</v>
@@ -4569,22 +4368,22 @@
         <v>28</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M45" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>35</v>
@@ -4598,31 +4397,31 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>28</v>
@@ -4631,19 +4430,19 @@
         <v>246</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="Q46" s="0" t="s">
         <v>35</v>
@@ -4663,22 +4462,22 @@
         <v>20</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>43</v>
@@ -4690,19 +4489,19 @@
         <v>248</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q47" s="0" t="s">
         <v>35</v>
@@ -4722,22 +4521,22 @@
         <v>20</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>43</v>
@@ -4749,19 +4548,19 @@
         <v>250</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q48" s="0" t="s">
         <v>35</v>
@@ -4781,22 +4580,22 @@
         <v>20</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>43</v>
@@ -4808,19 +4607,19 @@
         <v>252</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q49" s="0" t="s">
         <v>35</v>
@@ -4837,28 +4636,28 @@
         <v>253</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>28</v>
@@ -4867,19 +4666,19 @@
         <v>254</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="Q50" s="0" t="s">
         <v>35</v>
@@ -4893,28 +4692,28 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>64</v>
@@ -4923,7 +4722,7 @@
         <v>28</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L51" s="0" t="s">
         <v>66</v>
@@ -4935,10 +4734,10 @@
         <v>89</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q51" s="0" t="s">
         <v>35</v>
@@ -4958,46 +4757,46 @@
         <v>60</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G52" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M52" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N52" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="O52" s="0" t="s">
-        <v>69</v>
+        <v>263</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q52" s="0" t="s">
         <v>35</v>
@@ -5011,28 +4810,28 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>66</v>
@@ -5041,7 +4840,7 @@
         <v>67</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L53" s="0" t="s">
         <v>64</v>
@@ -5053,10 +4852,10 @@
         <v>44</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q53" s="0" t="s">
         <v>35</v>
@@ -5070,28 +4869,28 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>66</v>
@@ -5100,7 +4899,7 @@
         <v>67</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L54" s="0" t="s">
         <v>64</v>
@@ -5112,10 +4911,10 @@
         <v>44</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q54" s="0" t="s">
         <v>35</v>
@@ -5129,28 +4928,28 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>66</v>
@@ -5159,7 +4958,7 @@
         <v>67</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L55" s="0" t="s">
         <v>64</v>
@@ -5171,10 +4970,10 @@
         <v>44</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q55" s="0" t="s">
         <v>35</v>
@@ -5188,52 +4987,52 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>275</v>
+        <v>69</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="Q56" s="0" t="s">
         <v>35</v>
@@ -5247,25 +5046,25 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>263</v>
-      </c>
       <c r="F57" s="0" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>69</v>
@@ -5274,25 +5073,25 @@
         <v>66</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L57" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>279</v>
+        <v>93</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q57" s="0" t="s">
         <v>35</v>
@@ -5306,52 +5105,52 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L58" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>279</v>
+        <v>93</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q58" s="0" t="s">
         <v>35</v>
@@ -5365,52 +5164,52 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>216</v>
-      </c>
       <c r="H59" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L59" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>286</v>
+        <v>124</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="Q59" s="0" t="s">
         <v>35</v>
@@ -5424,52 +5223,52 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="L60" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="Q60" s="0" t="s">
         <v>35</v>
@@ -5483,52 +5282,52 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L61" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="Q61" s="0" t="s">
         <v>35</v>
@@ -5542,55 +5341,55 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="R62" s="0" t="s">
         <v>36</v>
@@ -5601,55 +5400,55 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="N63" s="0" t="s">
         <v>93</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R63" s="0" t="s">
         <v>36</v>
@@ -5660,34 +5459,34 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E64" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="F64" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="F64" s="0" t="s">
-        <v>307</v>
-      </c>
       <c r="G64" s="0" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="K64" s="0" t="s">
         <v>308</v>
@@ -5696,19 +5495,19 @@
         <v>66</v>
       </c>
       <c r="M64" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="O64" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P64" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="N64" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="O64" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P64" s="0" t="s">
-        <v>309</v>
-      </c>
       <c r="Q64" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R64" s="0" t="s">
         <v>36</v>
@@ -5719,52 +5518,52 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="K65" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>312</v>
       </c>
       <c r="L65" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="Q65" s="0" t="s">
         <v>35</v>
@@ -5778,52 +5577,52 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>315</v>
+        <v>156</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>293</v>
+        <v>67</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L66" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>293</v>
+        <v>67</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>318</v>
+        <v>70</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>35</v>
@@ -5837,52 +5636,52 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>320</v>
+        <v>206</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>293</v>
+        <v>84</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="Q67" s="0" t="s">
         <v>35</v>
@@ -5896,55 +5695,55 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>324</v>
+        <v>218</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>114</v>
+        <v>319</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="R68" s="0" t="s">
         <v>36</v>
@@ -5955,55 +5754,55 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>303</v>
+        <v>119</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R69" s="0" t="s">
         <v>36</v>
@@ -6014,55 +5813,55 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>320</v>
+        <v>206</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="J70" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>309</v>
+        <v>110</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R70" s="0" t="s">
         <v>36</v>
@@ -6073,52 +5872,52 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="K71" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="K71" s="0" t="s">
+      <c r="L71" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="O71" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="L71" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M71" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="N71" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="O71" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="P71" s="0" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="Q71" s="0" t="s">
         <v>35</v>
@@ -6135,49 +5934,49 @@
         <v>332</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>320</v>
+        <v>206</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>333</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>298</v>
+        <v>127</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>318</v>
+        <v>110</v>
       </c>
       <c r="Q72" s="0" t="s">
         <v>35</v>
@@ -6197,46 +5996,46 @@
         <v>60</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>72</v>
+        <v>329</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>67</v>
+        <v>327</v>
       </c>
       <c r="K73" s="0" t="s">
         <v>335</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>121</v>
+        <v>267</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="Q73" s="0" t="s">
         <v>35</v>
@@ -6256,46 +6055,46 @@
         <v>60</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F74" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="K74" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="G74" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="I74" s="0" t="s">
+      <c r="L74" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N74" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="J74" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="L74" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="M74" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="N74" s="0" t="s">
-        <v>204</v>
-      </c>
       <c r="O74" s="0" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>339</v>
+        <v>110</v>
       </c>
       <c r="Q74" s="0" t="s">
         <v>35</v>
@@ -6309,52 +6108,52 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>341</v>
+        <v>207</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I75" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="P75" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="L75" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M75" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N75" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O75" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="P75" s="0" t="s">
-        <v>224</v>
       </c>
       <c r="Q75" s="0" t="s">
         <v>35</v>
@@ -6368,52 +6167,52 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>341</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>120</v>
+        <v>342</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="Q76" s="0" t="s">
         <v>35</v>
@@ -6427,55 +6226,55 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>209</v>
-      </c>
       <c r="D77" s="0" t="s">
-        <v>22</v>
+        <v>347</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>128</v>
+        <v>350</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>349</v>
+        <v>28</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>350</v>
+        <v>28</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>118</v>
+        <v>352</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>111</v>
+        <v>353</v>
       </c>
       <c r="Q77" s="0" t="s">
-        <v>35</v>
+        <v>354</v>
       </c>
       <c r="R77" s="0" t="s">
         <v>36</v>
@@ -6486,55 +6285,55 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>60</v>
+        <v>345</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>209</v>
+        <v>346</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>22</v>
+        <v>347</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>210</v>
+        <v>356</v>
       </c>
       <c r="F78" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N78" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="G78" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="L78" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="M78" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N78" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O78" s="0" t="s">
-        <v>354</v>
+        <v>26</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>111</v>
+        <v>359</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>35</v>
+        <v>360</v>
       </c>
       <c r="R78" s="0" t="s">
         <v>36</v>
@@ -6545,52 +6344,52 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N79" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="O79" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="O79" s="0" t="s">
-        <v>275</v>
-      </c>
       <c r="P79" s="0" t="s">
-        <v>111</v>
+        <v>365</v>
       </c>
       <c r="Q79" s="0" t="s">
         <v>35</v>
@@ -6604,52 +6403,52 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>209</v>
+        <v>367</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>210</v>
+        <v>368</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>118</v>
+        <v>364</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>349</v>
+        <v>200</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>350</v>
+        <v>84</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="N80" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="O80" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="O80" s="0" t="s">
-        <v>269</v>
-      </c>
       <c r="P80" s="0" t="s">
-        <v>111</v>
+        <v>365</v>
       </c>
       <c r="Q80" s="0" t="s">
         <v>35</v>
@@ -6663,52 +6462,52 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>210</v>
+        <v>372</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>128</v>
+        <v>364</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>111</v>
+        <v>365</v>
       </c>
       <c r="Q81" s="0" t="s">
         <v>35</v>
@@ -6722,52 +6521,52 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>209</v>
+        <v>375</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>210</v>
+        <v>376</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="L82" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N82" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M82" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N82" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O82" s="0" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="Q82" s="0" t="s">
         <v>35</v>
@@ -6781,55 +6580,55 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>209</v>
+        <v>379</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="I83" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="M83" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R83" s="0" t="s">
         <v>36</v>
@@ -6840,55 +6639,55 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>368</v>
+        <v>275</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>375</v>
+        <v>44</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>26</v>
+        <v>387</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>377</v>
+        <v>35</v>
       </c>
       <c r="R84" s="0" t="s">
         <v>36</v>
@@ -6899,55 +6698,55 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>368</v>
+        <v>60</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>369</v>
+        <v>193</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>370</v>
+        <v>22</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>379</v>
+        <v>194</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>372</v>
+        <v>119</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>380</v>
+        <v>89</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M85" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>375</v>
+        <v>44</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>382</v>
+        <v>90</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>383</v>
+        <v>35</v>
       </c>
       <c r="R85" s="0" t="s">
         <v>36</v>
@@ -6958,55 +6757,55 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>370</v>
+        <v>22</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>386</v>
+        <v>39</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>388</v>
+        <v>46</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>389</v>
+        <v>35</v>
       </c>
       <c r="R86" s="0" t="s">
         <v>36</v>
@@ -7017,55 +6816,55 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>368</v>
+        <v>60</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>370</v>
+        <v>22</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>392</v>
+        <v>124</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="O87" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>394</v>
+        <v>129</v>
       </c>
       <c r="Q87" s="0" t="s">
-        <v>395</v>
+        <v>35</v>
       </c>
       <c r="R87" s="0" t="s">
         <v>36</v>
@@ -7076,55 +6875,55 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>370</v>
+        <v>22</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>372</v>
+        <v>211</v>
       </c>
       <c r="G88" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K88" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="H88" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J88" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K88" s="0" t="s">
-        <v>399</v>
-      </c>
       <c r="L88" s="0" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>375</v>
+        <v>213</v>
       </c>
       <c r="O88" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>400</v>
+        <v>214</v>
       </c>
       <c r="Q88" s="0" t="s">
-        <v>401</v>
+        <v>35</v>
       </c>
       <c r="R88" s="0" t="s">
         <v>36</v>
@@ -7135,55 +6934,55 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>368</v>
+        <v>60</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>370</v>
+        <v>98</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>372</v>
+        <v>234</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>404</v>
+        <v>44</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>26</v>
+        <v>331</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="J89" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>375</v>
+        <v>237</v>
       </c>
       <c r="O89" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>406</v>
+        <v>238</v>
       </c>
       <c r="Q89" s="0" t="s">
-        <v>407</v>
+        <v>35</v>
       </c>
       <c r="R89" s="0" t="s">
         <v>36</v>
@@ -7194,55 +6993,55 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>368</v>
+        <v>48</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>370</v>
+        <v>22</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>410</v>
+        <v>51</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>28</v>
+        <v>405</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="O90" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q90" s="0" t="s">
-        <v>413</v>
+        <v>35</v>
       </c>
       <c r="R90" s="0" t="s">
         <v>36</v>
@@ -7253,52 +7052,52 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="D91" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F91" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>415</v>
-      </c>
       <c r="G91" s="0" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>417</v>
+        <v>25</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>418</v>
+        <v>105</v>
       </c>
       <c r="Q91" s="0" t="s">
         <v>35</v>
@@ -7312,52 +7111,52 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>420</v>
+        <v>346</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>415</v>
+        <v>218</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>417</v>
+        <v>44</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>52</v>
+        <v>411</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="P92" s="0" t="s">
-        <v>418</v>
+        <v>222</v>
       </c>
       <c r="Q92" s="0" t="s">
         <v>35</v>
@@ -7371,52 +7170,52 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>196</v>
+        <v>346</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>415</v>
+        <v>119</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>417</v>
+        <v>89</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="P93" s="0" t="s">
-        <v>418</v>
+        <v>255</v>
       </c>
       <c r="Q93" s="0" t="s">
         <v>35</v>
@@ -7430,55 +7229,55 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>427</v>
+        <v>346</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>293</v>
+        <v>84</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="L94" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N94" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M94" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N94" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O94" s="0" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="P94" s="0" t="s">
-        <v>96</v>
+        <v>316</v>
       </c>
       <c r="Q94" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R94" s="0" t="s">
         <v>36</v>
@@ -7489,52 +7288,52 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>431</v>
+        <v>346</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>433</v>
+        <v>87</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>293</v>
+        <v>67</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="O95" s="0" t="s">
-        <v>435</v>
+        <v>26</v>
       </c>
       <c r="P95" s="0" t="s">
-        <v>436</v>
+        <v>90</v>
       </c>
       <c r="Q95" s="0" t="s">
         <v>35</v>
@@ -7548,52 +7347,52 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>433</v>
+        <v>362</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>44</v>
+        <v>364</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>439</v>
+        <v>26</v>
       </c>
       <c r="P96" s="0" t="s">
-        <v>436</v>
+        <v>365</v>
       </c>
       <c r="Q96" s="0" t="s">
         <v>35</v>
@@ -7607,28 +7406,28 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>196</v>
+        <v>346</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>66</v>
@@ -7637,22 +7436,22 @@
         <v>67</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="P97" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q97" s="0" t="s">
         <v>35</v>
@@ -7666,52 +7465,52 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="O98" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P98" s="0" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="Q98" s="0" t="s">
         <v>35</v>
@@ -7725,28 +7524,28 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>66</v>
@@ -7755,22 +7554,22 @@
         <v>67</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="O99" s="0" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="P99" s="0" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="Q99" s="0" t="s">
         <v>35</v>
@@ -7784,52 +7583,52 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>20</v>
+        <v>429</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>214</v>
+        <v>431</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>43</v>
+        <v>432</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>41</v>
+        <v>434</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
       <c r="O100" s="0" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="P100" s="0" t="s">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="Q100" s="0" t="s">
         <v>35</v>
@@ -7843,52 +7642,52 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>60</v>
+        <v>429</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>236</v>
+        <v>431</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>354</v>
+        <v>33</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>64</v>
+        <v>432</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>203</v>
+        <v>434</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>239</v>
+        <v>435</v>
       </c>
       <c r="O101" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="Q101" s="0" t="s">
         <v>35</v>
@@ -7902,52 +7701,52 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>454</v>
+        <v>394</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>457</v>
+        <v>66</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="O102" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>459</v>
+        <v>177</v>
       </c>
       <c r="Q102" s="0" t="s">
         <v>35</v>
@@ -7961,52 +7760,52 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E103" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K103" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="F103" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G103" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H103" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I103" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="J103" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K103" s="0" t="s">
-        <v>461</v>
-      </c>
       <c r="L103" s="0" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="O103" s="0" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="P103" s="0" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="Q103" s="0" t="s">
         <v>35</v>
@@ -8020,52 +7819,52 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>221</v>
+        <v>439</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="O104" s="0" t="s">
-        <v>464</v>
+        <v>267</v>
       </c>
       <c r="P104" s="0" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="Q104" s="0" t="s">
         <v>35</v>
@@ -8079,52 +7878,52 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>120</v>
+        <v>403</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>43</v>
+        <v>448</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>28</v>
+        <v>449</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="L105" s="0" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="M105" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="O105" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P105" s="0" t="s">
-        <v>257</v>
+        <v>451</v>
       </c>
       <c r="Q105" s="0" t="s">
         <v>35</v>
@@ -8138,52 +7937,52 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="L106" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>128</v>
+        <v>406</v>
       </c>
       <c r="O106" s="0" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="P106" s="0" t="s">
-        <v>339</v>
+        <v>455</v>
       </c>
       <c r="Q106" s="0" t="s">
         <v>35</v>
@@ -8197,52 +7996,52 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>87</v>
+        <v>453</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="L107" s="0" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="O107" s="0" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="P107" s="0" t="s">
-        <v>90</v>
+        <v>455</v>
       </c>
       <c r="Q107" s="0" t="s">
         <v>35</v>
@@ -8256,52 +8055,52 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>290</v>
+        <v>48</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>473</v>
+        <v>402</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>293</v>
+        <v>54</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>203</v>
+        <v>405</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="N108" s="0" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="O108" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="P108" s="0" t="s">
-        <v>418</v>
+        <v>151</v>
       </c>
       <c r="Q108" s="0" t="s">
         <v>35</v>
@@ -8315,55 +8114,55 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>60</v>
+        <v>461</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>369</v>
+        <v>206</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>22</v>
+        <v>347</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>92</v>
+        <v>349</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>93</v>
+        <v>350</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>52</v>
+        <v>462</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N109" s="0" t="s">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="O109" s="0" t="s">
-        <v>33</v>
+        <v>462</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>96</v>
+        <v>353</v>
       </c>
       <c r="Q109" s="0" t="s">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="R109" s="0" t="s">
         <v>36</v>
@@ -8374,55 +8173,55 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>290</v>
+        <v>461</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>369</v>
+        <v>206</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>22</v>
+        <v>347</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>473</v>
+        <v>356</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>93</v>
+        <v>357</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>40</v>
+        <v>462</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="L110" s="0" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="M110" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="O110" s="0" t="s">
-        <v>166</v>
+        <v>462</v>
       </c>
       <c r="P110" s="0" t="s">
-        <v>96</v>
+        <v>359</v>
       </c>
       <c r="Q110" s="0" t="s">
-        <v>97</v>
+        <v>360</v>
       </c>
       <c r="R110" s="0" t="s">
         <v>36</v>
@@ -8431,1011 +8230,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="F111" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="G111" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="H111" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J111" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K111" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="L111" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="M111" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="N111" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="O111" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="P111" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q111" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R111" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S111" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="F112" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="G112" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="H112" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="I112" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="J112" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K112" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="L112" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="M112" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="N112" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="O112" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="P112" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q112" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R112" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S112" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="F113" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="G113" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="H113" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I113" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="J113" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K113" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="L113" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="M113" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="N113" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="O113" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P113" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q113" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R113" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S113" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="F114" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="G114" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="H114" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="J114" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="K114" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="L114" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M114" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N114" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="O114" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P114" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q114" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R114" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S114" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="F115" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="G115" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H115" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J115" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K115" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="L115" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M115" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N115" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="O115" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="P115" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q115" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R115" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S115" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="F116" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="G116" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="H116" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="J116" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="K116" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="L116" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M116" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N116" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="O116" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="P116" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q116" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R116" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S116" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="G117" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H117" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I117" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="J117" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="K117" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="L117" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="M117" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N117" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="O117" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="P117" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q117" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R117" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S117" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H118" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="J118" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K118" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="L118" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="M118" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N118" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="O118" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="P118" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q118" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R118" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S118" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H119" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="J119" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K119" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="L119" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="M119" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N119" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="O119" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="P119" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q119" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R119" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S119" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H120" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J120" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K120" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="L120" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="M120" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="N120" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="O120" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="P120" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q120" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R120" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S120" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G121" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="H121" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J121" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K121" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="L121" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M121" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N121" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O121" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="P121" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q121" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="R121" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S121" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="H122" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K122" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="L122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N122" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O122" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="P122" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q122" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="R122" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S122" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H123" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="I123" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J123" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K123" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="L123" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M123" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N123" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O123" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="P123" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q123" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="R123" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S123" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G124" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="H124" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="I124" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J124" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K124" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="L124" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M124" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N124" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O124" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="P124" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q124" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="R124" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S124" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="H125" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J125" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K125" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="L125" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M125" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N125" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O125" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="P125" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q125" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="R125" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S125" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="H126" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="I126" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J126" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K126" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="L126" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M126" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N126" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O126" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="P126" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q126" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="R126" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S126" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G127" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="H127" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="I127" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J127" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K127" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="L127" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M127" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N127" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O127" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="P127" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q127" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="R127" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S127" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:S127"/>
+  <autoFilter ref="A1:S110"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -9443,7 +8239,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" state="frozen" activePane="topRight"/>
@@ -9457,7 +8253,7 @@
     <col min="3" max="3" width="16.497610092163086" customWidth="1"/>
     <col min="4" max="4" width="10.230311393737793" customWidth="1"/>
     <col min="5" max="5" width="364.38580322265625" customWidth="1"/>
-    <col min="6" max="6" width="358.5287780761719" customWidth="1"/>
+    <col min="6" max="6" width="16.497610092163086" customWidth="1"/>
     <col min="7" max="7" width="10.727521896362305" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="22.947011947631836" customWidth="1"/>
@@ -9465,16 +8261,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>529</v>
+        <v>466</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>530</v>
+        <v>467</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>531</v>
+        <v>468</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>532</v>
+        <v>469</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>15</v>
@@ -9483,13 +8279,13 @@
         <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>533</v>
+        <v>470</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>534</v>
+        <v>471</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>535</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2">
@@ -9497,7 +8293,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>536</v>
+        <v>473</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>28</v>
@@ -9506,7 +8302,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>537</v>
+        <v>474</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>35</v>
@@ -9518,15 +8314,15 @@
         <v>28</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>538</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>539</v>
+        <v>476</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>28</v>
@@ -9535,7 +8331,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>540</v>
+        <v>477</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>35</v>
@@ -9547,7 +8343,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>541</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4">
@@ -9555,7 +8351,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>28</v>
@@ -9564,7 +8360,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>543</v>
+        <v>480</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>35</v>
@@ -9576,7 +8372,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>544</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5">
@@ -9584,7 +8380,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>545</v>
+        <v>482</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>28</v>
@@ -9593,7 +8389,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>546</v>
+        <v>483</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>35</v>
@@ -9605,15 +8401,15 @@
         <v>28</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>538</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>545</v>
+        <v>484</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>28</v>
@@ -9622,7 +8418,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>35</v>
@@ -9634,24 +8430,24 @@
         <v>28</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>538</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>204</v>
+        <v>352</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>548</v>
+        <v>487</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>28</v>
+        <v>488</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>35</v>
@@ -9663,24 +8459,24 @@
         <v>28</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>375</v>
+        <v>127</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>551</v>
+        <v>491</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>552</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>553</v>
+        <v>492</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>35</v>
@@ -9692,15 +8488,15 @@
         <v>28</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>554</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>555</v>
+        <v>494</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>28</v>
@@ -9709,7 +8505,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>556</v>
+        <v>495</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>35</v>
@@ -9721,15 +8517,15 @@
         <v>28</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>557</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>558</v>
+        <v>497</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>28</v>
@@ -9738,7 +8534,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>559</v>
+        <v>498</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>35</v>
@@ -9750,15 +8546,15 @@
         <v>28</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>560</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>561</v>
+        <v>500</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>28</v>
@@ -9767,7 +8563,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>562</v>
+        <v>501</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>35</v>
@@ -9779,24 +8575,24 @@
         <v>28</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>563</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>564</v>
+        <v>503</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>28</v>
+        <v>504</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>565</v>
+        <v>110</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>35</v>
@@ -9808,24 +8604,24 @@
         <v>28</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>566</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>567</v>
+        <v>506</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>568</v>
+        <v>28</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>111</v>
+        <v>507</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>35</v>
@@ -9837,15 +8633,15 @@
         <v>28</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>569</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>570</v>
+        <v>506</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>28</v>
@@ -9854,7 +8650,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>571</v>
+        <v>509</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>35</v>
@@ -9866,15 +8662,15 @@
         <v>28</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>572</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>28</v>
@@ -9883,7 +8679,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>573</v>
+        <v>512</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>35</v>
@@ -9895,15 +8691,15 @@
         <v>28</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>574</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>575</v>
+        <v>514</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>28</v>
@@ -9912,7 +8708,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>576</v>
+        <v>515</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>35</v>
@@ -9924,15 +8720,15 @@
         <v>28</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>577</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>578</v>
+        <v>517</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>28</v>
@@ -9941,7 +8737,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>579</v>
+        <v>518</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>35</v>
@@ -9953,15 +8749,15 @@
         <v>28</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>580</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>578</v>
+        <v>484</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>28</v>
@@ -9970,7 +8766,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>579</v>
+        <v>520</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>35</v>
@@ -9982,15 +8778,15 @@
         <v>28</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>581</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>28</v>
@@ -9999,7 +8795,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>35</v>
@@ -10011,27 +8807,27 @@
         <v>28</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>583</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>584</v>
+        <v>525</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>28</v>
+        <v>488</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>585</v>
+        <v>353</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>35</v>
+        <v>354</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>28</v>
@@ -10040,27 +8836,27 @@
         <v>28</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>586</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>587</v>
+        <v>527</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>552</v>
+        <v>488</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>28</v>
@@ -10069,27 +8865,27 @@
         <v>28</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>588</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>552</v>
+        <v>28</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>395</v>
+        <v>35</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>28</v>
@@ -10098,27 +8894,27 @@
         <v>28</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>588</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>590</v>
+        <v>484</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>552</v>
+        <v>28</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>401</v>
+        <v>35</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>28</v>
@@ -10127,27 +8923,27 @@
         <v>28</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>588</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>404</v>
+        <v>136</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>591</v>
+        <v>530</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>552</v>
+        <v>28</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>406</v>
+        <v>70</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>407</v>
+        <v>35</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>28</v>
@@ -10156,27 +8952,27 @@
         <v>28</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>410</v>
+        <v>73</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>592</v>
+        <v>532</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>552</v>
+        <v>28</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>412</v>
+        <v>533</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>413</v>
+        <v>35</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>28</v>
@@ -10185,27 +8981,27 @@
         <v>28</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>373</v>
+        <v>198</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>593</v>
+        <v>534</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>552</v>
+        <v>28</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>376</v>
+        <v>535</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>377</v>
+        <v>35</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>28</v>
@@ -10214,27 +9010,27 @@
         <v>28</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>380</v>
+        <v>68</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>594</v>
+        <v>536</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>552</v>
+        <v>28</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>382</v>
+        <v>537</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>383</v>
+        <v>35</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>28</v>
@@ -10243,15 +9039,15 @@
         <v>28</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>588</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>595</v>
+        <v>534</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>28</v>
@@ -10260,7 +9056,7 @@
         <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>194</v>
+        <v>539</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>35</v>
@@ -10272,15 +9068,15 @@
         <v>28</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>588</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>28</v>
@@ -10289,7 +9085,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>418</v>
+        <v>541</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>35</v>
@@ -10301,15 +9097,15 @@
         <v>28</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>596</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>137</v>
+        <v>435</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>28</v>
@@ -10330,15 +9126,15 @@
         <v>28</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>28</v>
@@ -10347,7 +9143,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>35</v>
@@ -10359,15 +9155,15 @@
         <v>28</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>598</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>601</v>
+        <v>546</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>28</v>
@@ -10376,7 +9172,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>602</v>
+        <v>547</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>35</v>
@@ -10388,185 +9184,11 @@
         <v>28</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>615</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I38"/>
+  <autoFilter ref="A1:I32"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Presentation/bin/Debug/net7.0-windows7.0/ExtractedData.xlsx
+++ b/Presentation/bin/Debug/net7.0-windows7.0/ExtractedData.xlsx
@@ -9,15 +9,15 @@
     <sheet name="Components" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Components!$A$1:$I$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wires!$A$1:$S$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Components!$A$1:$I$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wires!$A$1:$S$127</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
   <si>
     <t>Wire</t>
   </si>
@@ -91,7 +91,7 @@
     <t>761980</t>
   </si>
   <si>
-    <t>6987+L2+L1</t>
+    <t>9082+L2+L1</t>
   </si>
   <si>
     <t>6E</t>
@@ -124,7 +124,7 @@
     <t>BR15 DH66</t>
   </si>
   <si>
-    <t>2439602 2439603</t>
+    <t>2437643 2437644 2437645 2437646 2437647 2437648 2437649 2437650 2437651 2437652 2437653 2437654 2437655 2437656 2437657 2437658 2437659 2437660 2437661 2437662 2437663 2437664 2437665 2437666 2437667 2437668 2437669 2437670 2437671 2437672 2437673 2437674 2437675 2437676 2437677 2437678 2437679 2437680 2437781 2437782 2437783 2437784 2437785 2437786</t>
   </si>
   <si>
     <t>?</t>
@@ -133,7 +133,7 @@
     <t>1117.1</t>
   </si>
   <si>
-    <t>6637+L1+L2</t>
+    <t>6047+L1+L2</t>
   </si>
   <si>
     <t>D453.A</t>
@@ -169,7 +169,7 @@
     <t>364973</t>
   </si>
   <si>
-    <t>7017+L1+L2</t>
+    <t>9152+L1+L2</t>
   </si>
   <si>
     <t>111F_plug</t>
@@ -205,7 +205,7 @@
     <t>761974</t>
   </si>
   <si>
-    <t>1862</t>
+    <t>1432+L1</t>
   </si>
   <si>
     <t>25</t>
@@ -235,7 +235,7 @@
     <t>1380.17</t>
   </si>
   <si>
-    <t>5645+L1+L2</t>
+    <t>6355+L2</t>
   </si>
   <si>
     <t>P031.D</t>
@@ -250,7 +250,7 @@
     <t>1381.3</t>
   </si>
   <si>
-    <t>1932</t>
+    <t>1502+L1</t>
   </si>
   <si>
     <t>6CD:5 to P071.T:16</t>
@@ -265,7 +265,7 @@
     <t>1381.14</t>
   </si>
   <si>
-    <t>6545+L1+L2</t>
+    <t>6385+L2</t>
   </si>
   <si>
     <t>1784459</t>
@@ -280,7 +280,7 @@
     <t>1381.19</t>
   </si>
   <si>
-    <t>5395</t>
+    <t>5385</t>
   </si>
   <si>
     <t>P071.T:4 to 116F_socket:16</t>
@@ -295,7 +295,7 @@
     <t>1381.27</t>
   </si>
   <si>
-    <t>7235+L1+L2</t>
+    <t>7220+L2</t>
   </si>
   <si>
     <t>P097</t>
@@ -310,13 +310,16 @@
     <t>DH102</t>
   </si>
   <si>
+    <t>2437643 2437644 2437645 2437646 2437647 2437648 2437649 2437650 2437651 2437653 2437655 2437657 2437659 2437661 2437663 2437665 2437667 2437669 2437671 2437673 2437675 2437677 2437679 2437781 2437782 2437783 2437786</t>
+  </si>
+  <si>
     <t>1390.1</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
-    <t>7027+L1+L2</t>
+    <t>9112+L1+L2</t>
   </si>
   <si>
     <t>108F_plug</t>
@@ -355,7 +358,7 @@
     <t>1404.9</t>
   </si>
   <si>
-    <t>6575+L2+L1</t>
+    <t>9150+L2</t>
   </si>
   <si>
     <t>9</t>
@@ -376,7 +379,7 @@
     <t>1700.1</t>
   </si>
   <si>
-    <t>5487</t>
+    <t>5047+L1</t>
   </si>
   <si>
     <t>7</t>
@@ -388,7 +391,7 @@
     <t>1713.1</t>
   </si>
   <si>
-    <t>6117</t>
+    <t>6227+L1</t>
   </si>
   <si>
     <t>P072</t>
@@ -418,7 +421,7 @@
     <t>761984</t>
   </si>
   <si>
-    <t>5575+L2+L1</t>
+    <t>6450+L2</t>
   </si>
   <si>
     <t>P071.P:15 to P031.C:5</t>
@@ -463,7 +466,7 @@
     <t>761975</t>
   </si>
   <si>
-    <t>2260</t>
+    <t>3615</t>
   </si>
   <si>
     <t>P031.D:4 to 107F_plug:5</t>
@@ -487,9 +490,6 @@
     <t>2040.3</t>
   </si>
   <si>
-    <t>5645+L2+L1</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -535,7 +535,7 @@
     <t>2247.3</t>
   </si>
   <si>
-    <t>5455</t>
+    <t>5715</t>
   </si>
   <si>
     <t>P071.P:11 to C361:1</t>
@@ -562,6 +562,18 @@
     <t>C362:1 to P071.P:10</t>
   </si>
   <si>
+    <t>2249.2</t>
+  </si>
+  <si>
+    <t>9082+L1+L2</t>
+  </si>
+  <si>
+    <t>107F_plug:16 to 5CD:8</t>
+  </si>
+  <si>
+    <t>DH68</t>
+  </si>
+  <si>
     <t>2677.1</t>
   </si>
   <si>
@@ -571,9 +583,6 @@
     <t>2679.4</t>
   </si>
   <si>
-    <t>6987+L1+L2</t>
-  </si>
-  <si>
     <t>107F_plug:9 to 6E:2</t>
   </si>
   <si>
@@ -583,7 +592,7 @@
     <t>2679.14</t>
   </si>
   <si>
-    <t>6687+L1+L2+L3</t>
+    <t>8712+L1+L2+L3</t>
   </si>
   <si>
     <t>L308.B</t>
@@ -610,7 +619,7 @@
     <t>3503</t>
   </si>
   <si>
-    <t>775+L2</t>
+    <t>800</t>
   </si>
   <si>
     <t>P031.E</t>
@@ -628,7 +637,7 @@
     <t>3558.1</t>
   </si>
   <si>
-    <t>7027+L2+L1</t>
+    <t>9112+L2+L1</t>
   </si>
   <si>
     <t>6E:8 to 108F_plug:1</t>
@@ -646,57 +655,54 @@
     <t>6E:9 to 108F_plug:2</t>
   </si>
   <si>
-    <t>3616.3</t>
+    <t>3616.1</t>
   </si>
   <si>
     <t>1852513</t>
   </si>
   <si>
-    <t>7357+L2+L1</t>
-  </si>
-  <si>
-    <t>6CD:16 to D380:5</t>
-  </si>
-  <si>
-    <t>D380</t>
-  </si>
-  <si>
-    <t>DH05</t>
-  </si>
-  <si>
-    <t>3617.3</t>
-  </si>
-  <si>
-    <t>6CD:15 to D380:6</t>
-  </si>
-  <si>
-    <t>3619.9</t>
-  </si>
-  <si>
-    <t>6697+L2+L1</t>
+    <t>5367+L2+L1</t>
+  </si>
+  <si>
+    <t>6CD:16 to 119F_socket:13</t>
+  </si>
+  <si>
+    <t>119F_socket</t>
+  </si>
+  <si>
+    <t>DH20</t>
+  </si>
+  <si>
+    <t>3617.1</t>
+  </si>
+  <si>
+    <t>6CD:15 to 119F_socket:14</t>
+  </si>
+  <si>
+    <t>3619.5</t>
+  </si>
+  <si>
+    <t>5367+L1+L2</t>
+  </si>
+  <si>
+    <t>119F_socket:3 to 6CD:35</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>6CD:35 to D378.B:4</t>
-  </si>
-  <si>
-    <t>D378.B</t>
-  </si>
-  <si>
-    <t>DH00 DJ00</t>
-  </si>
-  <si>
-    <t>3620.9</t>
+    <t>DH07</t>
+  </si>
+  <si>
+    <t>3620.5</t>
+  </si>
+  <si>
+    <t>119F_socket:4 to 6CD:36</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>6CD:36 to D378.B:3</t>
-  </si>
-  <si>
     <t>3651.8</t>
   </si>
   <si>
@@ -721,7 +727,7 @@
     <t>3728.1</t>
   </si>
   <si>
-    <t>6107</t>
+    <t>5777+L1</t>
   </si>
   <si>
     <t>22</t>
@@ -754,28 +760,28 @@
     <t>6CD:23 to F847:3</t>
   </si>
   <si>
-    <t>3930.3</t>
-  </si>
-  <si>
-    <t>6CD:13 to D380:2</t>
-  </si>
-  <si>
-    <t>3931.3</t>
-  </si>
-  <si>
-    <t>6CD:12 to D380:3</t>
-  </si>
-  <si>
-    <t>3932.3</t>
-  </si>
-  <si>
-    <t>6CD:11 to D380:4</t>
-  </si>
-  <si>
-    <t>3933.3</t>
-  </si>
-  <si>
-    <t>6CD:10 to D380:1</t>
+    <t>3930.1</t>
+  </si>
+  <si>
+    <t>6CD:13 to 119F_socket:12</t>
+  </si>
+  <si>
+    <t>3931.1</t>
+  </si>
+  <si>
+    <t>6CD:12 to 119F_socket:11</t>
+  </si>
+  <si>
+    <t>3932.1</t>
+  </si>
+  <si>
+    <t>6CD:11 to 119F_socket:10</t>
+  </si>
+  <si>
+    <t>3933.1</t>
+  </si>
+  <si>
+    <t>6CD:10 to 119F_socket:9</t>
   </si>
   <si>
     <t>3934.1</t>
@@ -841,6 +847,45 @@
     <t>20</t>
   </si>
   <si>
+    <t>3942.1</t>
+  </si>
+  <si>
+    <t>2745</t>
+  </si>
+  <si>
+    <t>119F_socket:5 to F514:1</t>
+  </si>
+  <si>
+    <t>F514</t>
+  </si>
+  <si>
+    <t>DH07 DH08 DH95</t>
+  </si>
+  <si>
+    <t>3943.1</t>
+  </si>
+  <si>
+    <t>119F_socket:6 to F514:3</t>
+  </si>
+  <si>
+    <t>3944.1</t>
+  </si>
+  <si>
+    <t>2725</t>
+  </si>
+  <si>
+    <t>119F_socket:7 to F515:1</t>
+  </si>
+  <si>
+    <t>F515</t>
+  </si>
+  <si>
+    <t>3945.1</t>
+  </si>
+  <si>
+    <t>119F_socket:8 to F515:3</t>
+  </si>
+  <si>
     <t>3952.61</t>
   </si>
   <si>
@@ -850,7 +895,7 @@
     <t>1381087</t>
   </si>
   <si>
-    <t>1350</t>
+    <t>1740</t>
   </si>
   <si>
     <t>1623428</t>
@@ -862,13 +907,28 @@
     <t>DH132</t>
   </si>
   <si>
+    <t>3952.69</t>
+  </si>
+  <si>
+    <t>5887+L1+L2</t>
+  </si>
+  <si>
+    <t>G790</t>
+  </si>
+  <si>
+    <t>G790:5 to 6CD:8</t>
+  </si>
+  <si>
+    <t>DH142</t>
+  </si>
+  <si>
+    <t>2437652 2437654 2437656 2437658 2437660 2437662 2437664 2437666 2437668 2437670 2437672 2437674 2437676 2437678 2437680 2437784 2437785</t>
+  </si>
+  <si>
     <t>3952.70</t>
   </si>
   <si>
-    <t>2510</t>
-  </si>
-  <si>
-    <t>G790</t>
+    <t>2935</t>
   </si>
   <si>
     <t>G790:5 to P097:7</t>
@@ -880,7 +940,7 @@
     <t>3952.71</t>
   </si>
   <si>
-    <t>7327+L2+L1</t>
+    <t>6882+L2+L1</t>
   </si>
   <si>
     <t>6CD:8 to P097:8</t>
@@ -892,7 +952,7 @@
     <t>3952.72</t>
   </si>
   <si>
-    <t>2300+L1+L2</t>
+    <t>2260+L2</t>
   </si>
   <si>
     <t>G790:2 to P072:14</t>
@@ -904,7 +964,7 @@
     <t>3952.73</t>
   </si>
   <si>
-    <t>600</t>
+    <t>400</t>
   </si>
   <si>
     <t>1811510</t>
@@ -928,6 +988,15 @@
     <t>116F_socket:2 to P072:6</t>
   </si>
   <si>
+    <t>3953.69</t>
+  </si>
+  <si>
+    <t>5887+L2+L1</t>
+  </si>
+  <si>
+    <t>6CD:9 to G790:7</t>
+  </si>
+  <si>
     <t>3953.70</t>
   </si>
   <si>
@@ -961,7 +1030,7 @@
     <t>4936</t>
   </si>
   <si>
-    <t>5452+L1</t>
+    <t>5587+L2+L1</t>
   </si>
   <si>
     <t>5CD:15 to 158F_plug:1</t>
@@ -970,18 +1039,18 @@
     <t>DH30</t>
   </si>
   <si>
-    <t>5158.9</t>
+    <t>5158.5</t>
   </si>
   <si>
     <t>1686136</t>
   </si>
   <si>
+    <t>119F_socket:2 to 6CD:34</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>6CD:34 to D378.B:2</t>
-  </si>
-  <si>
     <t>5491.1</t>
   </si>
   <si>
@@ -991,7 +1060,7 @@
     <t>6164.2</t>
   </si>
   <si>
-    <t>6757+L2+L1</t>
+    <t>8902+L2+L1</t>
   </si>
   <si>
     <t>5CD:7 to A088:7</t>
@@ -1006,7 +1075,7 @@
     <t>6165</t>
   </si>
   <si>
-    <t>6757+L1+L2</t>
+    <t>8902+L1+L2</t>
   </si>
   <si>
     <t>A088:2 to 5CD:21</t>
@@ -1045,43 +1114,133 @@
     <t>1381089</t>
   </si>
   <si>
-    <t>7347+L1+L2</t>
+    <t>6902+L1+L2</t>
   </si>
   <si>
     <t>P097:11 to 5CD:10</t>
   </si>
   <si>
+    <t>6496.9</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>A_2396617</t>
+  </si>
+  <si>
+    <t>8622+L1+L2+L3+L4</t>
+  </si>
+  <si>
+    <t>L308.A(8)</t>
+  </si>
+  <si>
+    <t>L308.A(8):1 to 344C(2):1</t>
+  </si>
+  <si>
+    <t>344C(2)</t>
+  </si>
+  <si>
+    <t>DH155</t>
+  </si>
+  <si>
+    <t>2437782 2437785 2437786</t>
+  </si>
+  <si>
+    <t>6496.10</t>
+  </si>
+  <si>
+    <t>A_2396618</t>
+  </si>
+  <si>
+    <t>L308.A(9)</t>
+  </si>
+  <si>
+    <t>L308.A(9):1 to 344C(2):1</t>
+  </si>
+  <si>
+    <t>DH156</t>
+  </si>
+  <si>
+    <t>2437643 2437651 2437652 2437781 2437783 2437784</t>
+  </si>
+  <si>
+    <t>6496.11</t>
+  </si>
+  <si>
+    <t>A_2396619</t>
+  </si>
+  <si>
+    <t>L308.A(10)</t>
+  </si>
+  <si>
+    <t>L308.A(10):1 to 344C(2):1</t>
+  </si>
+  <si>
+    <t>DH157</t>
+  </si>
+  <si>
+    <t>2437644 2437653 2437654 2437667 2437668</t>
+  </si>
+  <si>
+    <t>6496.12</t>
+  </si>
+  <si>
+    <t>A_2396620</t>
+  </si>
+  <si>
+    <t>L308.A(11)</t>
+  </si>
+  <si>
+    <t>L308.A(11):1 to 344C(2):1</t>
+  </si>
+  <si>
+    <t>DH158</t>
+  </si>
+  <si>
+    <t>2437645 2437655 2437656</t>
+  </si>
+  <si>
+    <t>6496.13</t>
+  </si>
+  <si>
+    <t>A_2396621</t>
+  </si>
+  <si>
+    <t>L308.A(12)</t>
+  </si>
+  <si>
+    <t>L308.A(12):1 to 344C(2):1</t>
+  </si>
+  <si>
+    <t>DH159</t>
+  </si>
+  <si>
+    <t>2437646 2437657 2437658 2437669 2437670</t>
+  </si>
+  <si>
     <t>6496.14</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
     <t>A_2396622</t>
   </si>
   <si>
-    <t>6597+L1+L2+L3+L4</t>
-  </si>
-  <si>
     <t>L308.A(13)</t>
   </si>
   <si>
     <t>L308.A(13):1 to 344C(2):1</t>
   </si>
   <si>
-    <t>344C(2)</t>
-  </si>
-  <si>
     <t>DH160</t>
   </si>
   <si>
-    <t>2439602</t>
+    <t>2437647 2437648 2437659 2437660 2437661 2437662 2437671 2437672 2437673 2437674 2437675 2437676</t>
   </si>
   <si>
     <t>6496.15</t>
@@ -1099,13 +1258,13 @@
     <t>DH161</t>
   </si>
   <si>
-    <t>2439603</t>
+    <t>2437649 2437650 2437663 2437664 2437665 2437666 2437677 2437678 2437679 2437680</t>
   </si>
   <si>
     <t>7081</t>
   </si>
   <si>
-    <t>2860+L2+L1</t>
+    <t>3615+L2</t>
   </si>
   <si>
     <t>P072:1 to P025:2</t>
@@ -1126,9 +1285,6 @@
     <t>1657782</t>
   </si>
   <si>
-    <t>2860+L1+L2</t>
-  </si>
-  <si>
     <t>P025:4 to P072:2</t>
   </si>
   <si>
@@ -1162,7 +1318,7 @@
     <t>2290785</t>
   </si>
   <si>
-    <t>5807+L1+L2</t>
+    <t>6087+L1+L2</t>
   </si>
   <si>
     <t>P031.D:17 to 6CD:26</t>
@@ -1204,16 +1360,16 @@
     <t>761973</t>
   </si>
   <si>
-    <t>6005</t>
+    <t>6545</t>
   </si>
   <si>
     <t>P072:13 to P071.T:7</t>
   </si>
   <si>
-    <t>9026.3</t>
-  </si>
-  <si>
-    <t>6CD:14 to D380:7</t>
+    <t>9026.1</t>
+  </si>
+  <si>
+    <t>6CD:14 to 119F_socket:15</t>
   </si>
   <si>
     <t>9041.1</t>
@@ -1228,7 +1384,7 @@
     <t>364972</t>
   </si>
   <si>
-    <t>7215+L1+L2</t>
+    <t>9780+L2</t>
   </si>
   <si>
     <t>111F_plug:1 to P071.U:8</t>
@@ -1249,15 +1405,15 @@
     <t>108F_plug:5 to 6E:7</t>
   </si>
   <si>
-    <t>9129.9</t>
+    <t>9129.5</t>
+  </si>
+  <si>
+    <t>119F_socket:1 to 6CD:33</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>6CD:33 to D378.B:1</t>
-  </si>
-  <si>
     <t>9164.1</t>
   </si>
   <si>
@@ -1267,6 +1423,9 @@
     <t>9212</t>
   </si>
   <si>
+    <t>5587+L1+L2</t>
+  </si>
+  <si>
     <t>158F_plug:2 to 5CD:14</t>
   </si>
   <si>
@@ -1312,7 +1471,7 @@
     <t>2028575</t>
   </si>
   <si>
-    <t>5855+L1+L2</t>
+    <t>6730+L2</t>
   </si>
   <si>
     <t>2032391</t>
@@ -1336,7 +1495,7 @@
     <t>MT10</t>
   </si>
   <si>
-    <t>5525</t>
+    <t>5785</t>
   </si>
   <si>
     <t>C362:2 to P071.T:10</t>
@@ -1345,7 +1504,7 @@
     <t>MT11</t>
   </si>
   <si>
-    <t>6575+L1+L2+L3</t>
+    <t>9030+L2+L3</t>
   </si>
   <si>
     <t>L308.B:3 to P071.T:11</t>
@@ -1378,7 +1537,7 @@
     <t>MU3</t>
   </si>
   <si>
-    <t>7195+L1+L2</t>
+    <t>9710+L2</t>
   </si>
   <si>
     <t>108F_plug:4 to P071.U:3</t>
@@ -1399,15 +1558,45 @@
     <t>111F_plug:2 to P071.U:7</t>
   </si>
   <si>
+    <t>S1_Video.9</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>L308.A(8):1A to 344C(2):1A</t>
+  </si>
+  <si>
+    <t>S1_Video.10</t>
+  </si>
+  <si>
+    <t>L308.A(9):1A to 344C(2):1A</t>
+  </si>
+  <si>
+    <t>S1_Video.11</t>
+  </si>
+  <si>
+    <t>L308.A(10):1A to 344C(2):1A</t>
+  </si>
+  <si>
+    <t>S1_Video.12</t>
+  </si>
+  <si>
+    <t>L308.A(11):1A to 344C(2):1A</t>
+  </si>
+  <si>
+    <t>S1_Video.13</t>
+  </si>
+  <si>
+    <t>L308.A(12):1A to 344C(2):1A</t>
+  </si>
+  <si>
     <t>S1_Video.14</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
     <t>L308.A(13):1A to 344C(2):1A</t>
   </si>
   <si>
@@ -1471,6 +1660,9 @@
     <t>DH09/DH11/DH114/DH119/DH12/DH13/DH132/DH165/DH25/DH76/DH90/DH91/DH92/DH98/DQ06/DQ19</t>
   </si>
   <si>
+    <t>DH07/DH08/DH20/DH95</t>
+  </si>
+  <si>
     <t>1745605</t>
   </si>
   <si>
@@ -1552,24 +1744,6 @@
     <t>side marker right 2nd</t>
   </si>
   <si>
-    <t>1816060</t>
-  </si>
-  <si>
-    <t>DH00/DH01/DH06/DH21/DJ00/DJ01/DJ06/DJ21</t>
-  </si>
-  <si>
-    <t>modulator rear axle</t>
-  </si>
-  <si>
-    <t>1814556</t>
-  </si>
-  <si>
-    <t>DH05/DH19/DJ19</t>
-  </si>
-  <si>
-    <t>modulator trailer</t>
-  </si>
-  <si>
     <t>1982868</t>
   </si>
   <si>
@@ -1579,6 +1753,18 @@
     <t>ECAS-5</t>
   </si>
   <si>
+    <t>1859550</t>
+  </si>
+  <si>
+    <t>DH01/DH07/DH08/DH23/DH93/DH95</t>
+  </si>
+  <si>
+    <t>sensor left driven axle</t>
+  </si>
+  <si>
+    <t>sensor right driven axle</t>
+  </si>
+  <si>
     <t>DH04/DQ22/DQ24/DQ26/DQ28</t>
   </si>
   <si>
@@ -1588,21 +1774,36 @@
     <t>1877080</t>
   </si>
   <si>
-    <t>DH09/DH101/DH120/DH122/DH123/DH138/DH139/DH140/DH141/DH142/DH40/DH41/DH70/DH76</t>
+    <t>DH09/DH101/DH120/DH123/DH138/DH139/DH140/DH141/DH142/DH40/DH41/DH70/DH76</t>
   </si>
   <si>
     <t>junction connector</t>
   </si>
   <si>
+    <t>2396619</t>
+  </si>
+  <si>
+    <t>rear view camera</t>
+  </si>
+  <si>
+    <t>2396620</t>
+  </si>
+  <si>
+    <t>2396621</t>
+  </si>
+  <si>
     <t>2396622</t>
   </si>
   <si>
-    <t>rear view camera</t>
-  </si>
-  <si>
     <t>2404490</t>
   </si>
   <si>
+    <t>2396617</t>
+  </si>
+  <si>
+    <t>2396618</t>
+  </si>
+  <si>
     <t>1856635</t>
   </si>
   <si>
@@ -1618,13 +1819,13 @@
     <t>1973555</t>
   </si>
   <si>
-    <t>BR15/DH100/DH114/DH123/DH166/DH167/DH18/DH25/DH26/DH27/DH41/DH61/DH66/DH70/DH76/DH81/DQ03/DQ06/DQ18</t>
+    <t>BR15/BR34/DH100/DH114/DH123/DH166/DH167/DH18/DH25/DH26/DH27/DH41/DH61/DH66/DH70/DH76/DH81/DQ03/DQ06/DQ18</t>
   </si>
   <si>
     <t>1973554</t>
   </si>
   <si>
-    <t>DH30/DQ03/DQ10/DQ11/DQ12/DQ30</t>
+    <t>DH30/DQ03/DQ10/DQ11/DQ12/DQ30/DQ41</t>
   </si>
   <si>
     <t>1808628</t>
@@ -1710,7 +1911,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:S110"/>
+  <dimension ref="A1:S127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="19" topLeftCell="T1" state="frozen" activePane="topRight"/>
@@ -1735,7 +1936,7 @@
     <col min="14" max="14" width="12.022722244262695" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="29.135534286499023" customWidth="1"/>
-    <col min="17" max="17" width="16.497610092163086" customWidth="1"/>
+    <col min="17" max="17" width="358.5287780761719" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
@@ -2321,7 +2522,7 @@
         <v>96</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>36</v>
@@ -2332,7 +2533,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>20</v>
@@ -2341,28 +2542,28 @@
         <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>27</v>
@@ -2377,7 +2578,7 @@
         <v>40</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>35</v>
@@ -2391,7 +2592,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>20</v>
@@ -2412,7 +2613,7 @@
         <v>44</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>43</v>
@@ -2421,13 +2622,13 @@
         <v>28</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>68</v>
@@ -2436,7 +2637,7 @@
         <v>26</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q12" s="0" t="s">
         <v>35</v>
@@ -2450,7 +2651,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>20</v>
@@ -2465,37 +2666,37 @@
         <v>23</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>52</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="0" t="s">
         <v>35</v>
@@ -2509,7 +2710,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>60</v>
@@ -2524,13 +2725,13 @@
         <v>61</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>64</v>
@@ -2539,7 +2740,7 @@
         <v>28</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>83</v>
@@ -2568,7 +2769,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>60</v>
@@ -2583,10 +2784,10 @@
         <v>61</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>52</v>
@@ -2598,22 +2799,22 @@
         <v>67</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>35</v>
@@ -2627,10 +2828,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>21</v>
@@ -2639,10 +2840,10 @@
         <v>22</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>68</v>
@@ -2657,16 +2858,16 @@
         <v>31</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>69</v>
@@ -2686,10 +2887,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>21</v>
@@ -2698,10 +2899,10 @@
         <v>22</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>68</v>
@@ -2716,16 +2917,16 @@
         <v>31</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>26</v>
@@ -2745,10 +2946,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>21</v>
@@ -2757,10 +2958,10 @@
         <v>22</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>68</v>
@@ -2775,16 +2976,16 @@
         <v>31</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>52</v>
@@ -2804,10 +3005,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>21</v>
@@ -2816,16 +3017,16 @@
         <v>22</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>41</v>
@@ -2834,19 +3035,19 @@
         <v>31</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>70</v>
@@ -2863,7 +3064,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>20</v>
@@ -2884,22 +3085,22 @@
         <v>93</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>79</v>
@@ -2911,7 +3112,7 @@
         <v>96</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="R20" s="0" t="s">
         <v>36</v>
@@ -2922,22 +3123,22 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>73</v>
@@ -2952,10 +3153,10 @@
         <v>67</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>67</v>
@@ -2967,7 +3168,7 @@
         <v>69</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>35</v>
@@ -2981,28 +3182,28 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>73</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>66</v>
@@ -3011,10 +3212,10 @@
         <v>67</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>67</v>
@@ -3023,10 +3224,10 @@
         <v>32</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="0" t="s">
         <v>35</v>
@@ -3040,22 +3241,22 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>68</v>
@@ -3105,7 +3306,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>22</v>
@@ -3114,19 +3315,19 @@
         <v>160</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>161</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>162</v>
@@ -3141,7 +3342,7 @@
         <v>25</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P24" s="0" t="s">
         <v>163</v>
@@ -3164,7 +3365,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>22</v>
@@ -3173,19 +3374,19 @@
         <v>160</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>165</v>
@@ -3223,16 +3424,16 @@
         <v>60</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>73</v>
@@ -3259,10 +3460,10 @@
         <v>32</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="0" t="s">
         <v>35</v>
@@ -3282,13 +3483,13 @@
         <v>60</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>172</v>
@@ -3297,7 +3498,7 @@
         <v>68</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>66</v>
@@ -3341,13 +3542,13 @@
         <v>60</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>172</v>
@@ -3400,46 +3601,46 @@
         <v>60</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>35</v>
@@ -3453,52 +3654,52 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>67</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>35</v>
@@ -3518,46 +3719,46 @@
         <v>60</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>67</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>35</v>
@@ -3571,52 +3772,52 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="N32" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="P32" s="0" t="s">
-        <v>186</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>35</v>
@@ -3630,52 +3831,52 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>199</v>
-      </c>
       <c r="L33" s="0" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>35</v>
@@ -3689,52 +3890,52 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="L34" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="0" t="s">
+      <c r="M34" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="N34" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="L34" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N34" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="O34" s="0" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>35</v>
@@ -3754,46 +3955,46 @@
         <v>60</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>206</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>203</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>67</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q35" s="0" t="s">
         <v>35</v>
@@ -3807,52 +4008,52 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>193</v>
-      </c>
       <c r="D36" s="0" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F36" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>212</v>
-      </c>
       <c r="L36" s="0" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>67</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="Q36" s="0" t="s">
         <v>35</v>
@@ -3866,28 +4067,28 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>43</v>
@@ -3896,22 +4097,22 @@
         <v>28</v>
       </c>
       <c r="K37" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="N37" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="L37" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N37" s="0" t="s">
-        <v>213</v>
-      </c>
       <c r="O37" s="0" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>35</v>
@@ -3925,52 +4126,52 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H38" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="I38" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>220</v>
-      </c>
       <c r="L38" s="0" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>35</v>
@@ -3984,52 +4185,52 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G39" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="O39" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="P39" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="N39" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="O39" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="P39" s="0" t="s">
-        <v>222</v>
       </c>
       <c r="Q39" s="0" t="s">
         <v>35</v>
@@ -4043,52 +4244,52 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>67</v>
       </c>
       <c r="K40" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="L40" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N40" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="P40" s="0" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>35</v>
@@ -4102,52 +4303,52 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="G41" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="0" t="s">
+      <c r="O41" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="P41" s="0" t="s">
         <v>230</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N41" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="P41" s="0" t="s">
-        <v>228</v>
       </c>
       <c r="Q41" s="0" t="s">
         <v>35</v>
@@ -4167,46 +4368,46 @@
         <v>60</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>232</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q42" s="0" t="s">
         <v>35</v>
@@ -4226,46 +4427,46 @@
         <v>60</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F43" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K43" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="G43" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>236</v>
-      </c>
       <c r="L43" s="0" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>35</v>
@@ -4279,28 +4480,28 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>64</v>
@@ -4309,22 +4510,22 @@
         <v>28</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M44" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>35</v>
@@ -4338,28 +4539,28 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>64</v>
@@ -4368,22 +4569,22 @@
         <v>28</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M45" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>35</v>
@@ -4397,31 +4598,31 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>210</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>157</v>
+        <v>245</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>28</v>
@@ -4430,19 +4631,19 @@
         <v>246</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="Q46" s="0" t="s">
         <v>35</v>
@@ -4462,22 +4663,22 @@
         <v>20</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>43</v>
@@ -4489,19 +4690,19 @@
         <v>248</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q47" s="0" t="s">
         <v>35</v>
@@ -4521,22 +4722,22 @@
         <v>20</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>43</v>
@@ -4548,19 +4749,19 @@
         <v>250</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q48" s="0" t="s">
         <v>35</v>
@@ -4580,22 +4781,22 @@
         <v>20</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>43</v>
@@ -4607,19 +4808,19 @@
         <v>252</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q49" s="0" t="s">
         <v>35</v>
@@ -4636,28 +4837,28 @@
         <v>253</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>28</v>
@@ -4666,19 +4867,19 @@
         <v>254</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="Q50" s="0" t="s">
         <v>35</v>
@@ -4692,28 +4893,28 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>64</v>
@@ -4722,7 +4923,7 @@
         <v>28</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L51" s="0" t="s">
         <v>66</v>
@@ -4734,10 +4935,10 @@
         <v>89</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q51" s="0" t="s">
         <v>35</v>
@@ -4757,46 +4958,46 @@
         <v>60</v>
       </c>
       <c r="C52" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G52" s="0" t="s">
+      <c r="L52" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N52" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M52" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N52" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="O52" s="0" t="s">
-        <v>263</v>
+        <v>69</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Q52" s="0" t="s">
         <v>35</v>
@@ -4810,28 +5011,28 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>66</v>
@@ -4840,7 +5041,7 @@
         <v>67</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L53" s="0" t="s">
         <v>64</v>
@@ -4852,10 +5053,10 @@
         <v>44</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q53" s="0" t="s">
         <v>35</v>
@@ -4869,28 +5070,28 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>66</v>
@@ -4899,7 +5100,7 @@
         <v>67</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L54" s="0" t="s">
         <v>64</v>
@@ -4911,10 +5112,10 @@
         <v>44</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q54" s="0" t="s">
         <v>35</v>
@@ -4928,28 +5129,28 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>66</v>
@@ -4958,7 +5159,7 @@
         <v>67</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L55" s="0" t="s">
         <v>64</v>
@@ -4970,10 +5171,10 @@
         <v>44</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q55" s="0" t="s">
         <v>35</v>
@@ -4987,52 +5188,52 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="Q56" s="0" t="s">
         <v>35</v>
@@ -5046,25 +5247,25 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>69</v>
@@ -5073,25 +5274,25 @@
         <v>66</v>
       </c>
       <c r="J57" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57" s="0" t="s">
         <v>278</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>284</v>
       </c>
       <c r="L57" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>93</v>
+        <v>279</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q57" s="0" t="s">
         <v>35</v>
@@ -5105,52 +5306,52 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L58" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>93</v>
+        <v>279</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="Q58" s="0" t="s">
         <v>35</v>
@@ -5164,52 +5365,52 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L59" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="Q59" s="0" t="s">
         <v>35</v>
@@ -5223,52 +5424,52 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>296</v>
+        <v>83</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L60" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="Q60" s="0" t="s">
         <v>35</v>
@@ -5282,52 +5483,52 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>300</v>
+        <v>147</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L61" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="Q61" s="0" t="s">
         <v>35</v>
@@ -5341,55 +5542,55 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>300</v>
+        <v>147</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>35</v>
+        <v>301</v>
       </c>
       <c r="R62" s="0" t="s">
         <v>36</v>
@@ -5400,55 +5601,55 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>300</v>
+        <v>147</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="N63" s="0" t="s">
         <v>93</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="R63" s="0" t="s">
         <v>36</v>
@@ -5459,34 +5660,34 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F64" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>291</v>
-      </c>
       <c r="G64" s="0" t="s">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="K64" s="0" t="s">
         <v>308</v>
@@ -5495,19 +5696,19 @@
         <v>66</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="R64" s="0" t="s">
         <v>36</v>
@@ -5518,52 +5719,52 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>300</v>
+        <v>147</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>296</v>
+        <v>66</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L65" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="Q65" s="0" t="s">
         <v>35</v>
@@ -5577,52 +5778,52 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>156</v>
+        <v>315</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>66</v>
+        <v>316</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L66" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>70</v>
+        <v>318</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>35</v>
@@ -5636,52 +5837,52 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>206</v>
+        <v>320</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="Q67" s="0" t="s">
         <v>35</v>
@@ -5695,55 +5896,55 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>218</v>
+        <v>324</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>319</v>
+        <v>114</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>35</v>
+        <v>301</v>
       </c>
       <c r="R68" s="0" t="s">
         <v>36</v>
@@ -5754,55 +5955,55 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E69" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>318</v>
-      </c>
       <c r="F69" s="0" t="s">
-        <v>119</v>
+        <v>303</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="R69" s="0" t="s">
         <v>36</v>
@@ -5813,55 +6014,55 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>206</v>
+        <v>320</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="J70" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>326</v>
+        <v>66</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>110</v>
+        <v>309</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="R70" s="0" t="s">
         <v>36</v>
@@ -5872,52 +6073,52 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>206</v>
+        <v>320</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>117</v>
+        <v>298</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>326</v>
+        <v>66</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="Q71" s="0" t="s">
         <v>35</v>
@@ -5934,49 +6135,49 @@
         <v>332</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>206</v>
+        <v>320</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>333</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>127</v>
+        <v>298</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>273</v>
+        <v>161</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>110</v>
+        <v>318</v>
       </c>
       <c r="Q72" s="0" t="s">
         <v>35</v>
@@ -5996,46 +6197,46 @@
         <v>60</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>329</v>
+        <v>72</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>326</v>
+        <v>66</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>327</v>
+        <v>67</v>
       </c>
       <c r="K73" s="0" t="s">
         <v>335</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="Q73" s="0" t="s">
         <v>35</v>
@@ -6055,46 +6256,46 @@
         <v>60</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>326</v>
+        <v>127</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>327</v>
+        <v>28</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>270</v>
+        <v>26</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>110</v>
+        <v>339</v>
       </c>
       <c r="Q74" s="0" t="s">
         <v>35</v>
@@ -6108,52 +6309,52 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>207</v>
+        <v>341</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>329</v>
+        <v>221</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>326</v>
+        <v>110</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="M75" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>101</v>
+        <v>343</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="Q75" s="0" t="s">
         <v>35</v>
@@ -6167,52 +6368,52 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>341</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>342</v>
+        <v>120</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c r="Q76" s="0" t="s">
         <v>35</v>
@@ -6226,55 +6427,55 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>346</v>
+        <v>209</v>
       </c>
       <c r="D77" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="G77" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="L77" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="M77" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="H77" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="L77" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M77" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="N77" s="0" t="s">
-        <v>352</v>
+        <v>118</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>353</v>
+        <v>111</v>
       </c>
       <c r="Q77" s="0" t="s">
-        <v>354</v>
+        <v>35</v>
       </c>
       <c r="R77" s="0" t="s">
         <v>36</v>
@@ -6285,55 +6486,55 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>346</v>
+        <v>209</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>347</v>
+        <v>22</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>356</v>
+        <v>210</v>
       </c>
       <c r="F78" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="I78" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="G78" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="J78" s="0" t="s">
-        <v>28</v>
+        <v>350</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="M78" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>26</v>
+        <v>354</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>359</v>
+        <v>111</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>360</v>
+        <v>35</v>
       </c>
       <c r="R78" s="0" t="s">
         <v>36</v>
@@ -6344,52 +6545,52 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B79" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="O79" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="K79" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="L79" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="M79" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="N79" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="O79" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="P79" s="0" t="s">
-        <v>365</v>
+        <v>111</v>
       </c>
       <c r="Q79" s="0" t="s">
         <v>35</v>
@@ -6403,52 +6604,52 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>368</v>
+        <v>210</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>364</v>
+        <v>118</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>200</v>
+        <v>349</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>365</v>
+        <v>111</v>
       </c>
       <c r="Q80" s="0" t="s">
         <v>35</v>
@@ -6462,52 +6663,52 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>372</v>
+        <v>210</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>66</v>
+        <v>349</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>364</v>
+        <v>128</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>365</v>
+        <v>111</v>
       </c>
       <c r="Q81" s="0" t="s">
         <v>35</v>
@@ -6521,52 +6722,52 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>375</v>
+        <v>209</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>376</v>
+        <v>210</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>66</v>
+        <v>349</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O82" s="0" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="Q82" s="0" t="s">
         <v>35</v>
@@ -6580,55 +6781,55 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>379</v>
+        <v>209</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="I83" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="M83" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>383</v>
+        <v>40</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>384</v>
+        <v>96</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="R83" s="0" t="s">
         <v>36</v>
@@ -6639,55 +6840,55 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>44</v>
+        <v>375</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>387</v>
+        <v>26</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="R84" s="0" t="s">
         <v>36</v>
@@ -6698,55 +6899,55 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>60</v>
+        <v>368</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>193</v>
+        <v>369</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>194</v>
+        <v>379</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>119</v>
+        <v>372</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>89</v>
+        <v>380</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M85" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>44</v>
+        <v>375</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>90</v>
+        <v>382</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>35</v>
+        <v>383</v>
       </c>
       <c r="R85" s="0" t="s">
         <v>36</v>
@@ -6757,55 +6958,55 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>39</v>
+        <v>386</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>35</v>
+        <v>389</v>
       </c>
       <c r="R86" s="0" t="s">
         <v>36</v>
@@ -6816,55 +7017,55 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="0" t="s">
+      <c r="L87" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="O87" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P87" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="Q87" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J87" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K87" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="L87" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M87" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N87" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="O87" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="P87" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q87" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="R87" s="0" t="s">
         <v>36</v>
@@ -6875,55 +7076,55 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E88" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>391</v>
-      </c>
       <c r="F88" s="0" t="s">
-        <v>211</v>
+        <v>372</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>44</v>
+        <v>398</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J88" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>213</v>
+        <v>375</v>
       </c>
       <c r="O88" s="0" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>214</v>
+        <v>400</v>
       </c>
       <c r="Q88" s="0" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
       <c r="R88" s="0" t="s">
         <v>36</v>
@@ -6934,55 +7135,55 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>60</v>
+        <v>368</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>98</v>
+        <v>370</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>331</v>
+        <v>26</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J89" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>237</v>
+        <v>375</v>
       </c>
       <c r="O89" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>238</v>
+        <v>406</v>
       </c>
       <c r="Q89" s="0" t="s">
-        <v>35</v>
+        <v>407</v>
       </c>
       <c r="R89" s="0" t="s">
         <v>36</v>
@@ -6993,55 +7194,55 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>48</v>
+        <v>368</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>405</v>
+        <v>28</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="O90" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q90" s="0" t="s">
-        <v>35</v>
+        <v>413</v>
       </c>
       <c r="R90" s="0" t="s">
         <v>36</v>
@@ -7052,52 +7253,52 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>346</v>
+        <v>147</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>99</v>
+        <v>415</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>25</v>
+        <v>417</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>105</v>
+        <v>418</v>
       </c>
       <c r="Q91" s="0" t="s">
         <v>35</v>
@@ -7111,52 +7312,52 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>218</v>
+        <v>415</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>44</v>
+        <v>417</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>411</v>
+        <v>52</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="P92" s="0" t="s">
-        <v>222</v>
+        <v>418</v>
       </c>
       <c r="Q92" s="0" t="s">
         <v>35</v>
@@ -7170,52 +7371,52 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>346</v>
+        <v>196</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>119</v>
+        <v>415</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>89</v>
+        <v>417</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="P93" s="0" t="s">
-        <v>255</v>
+        <v>418</v>
       </c>
       <c r="Q93" s="0" t="s">
         <v>35</v>
@@ -7229,55 +7430,55 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>346</v>
+        <v>427</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="H94" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N94" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="I94" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="J94" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="K94" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="L94" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="M94" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N94" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="O94" s="0" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="P94" s="0" t="s">
-        <v>316</v>
+        <v>96</v>
       </c>
       <c r="Q94" s="0" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="R94" s="0" t="s">
         <v>36</v>
@@ -7288,52 +7489,52 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>87</v>
+        <v>433</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="O95" s="0" t="s">
-        <v>26</v>
+        <v>435</v>
       </c>
       <c r="P95" s="0" t="s">
-        <v>90</v>
+        <v>436</v>
       </c>
       <c r="Q95" s="0" t="s">
         <v>35</v>
@@ -7347,52 +7548,52 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>362</v>
+        <v>433</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>364</v>
+        <v>44</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>26</v>
+        <v>439</v>
       </c>
       <c r="P96" s="0" t="s">
-        <v>365</v>
+        <v>436</v>
       </c>
       <c r="Q96" s="0" t="s">
         <v>35</v>
@@ -7406,28 +7607,28 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>346</v>
+        <v>196</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>394</v>
+        <v>197</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>66</v>
@@ -7436,22 +7637,22 @@
         <v>67</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="P97" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q97" s="0" t="s">
         <v>35</v>
@@ -7465,52 +7666,52 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="O98" s="0" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P98" s="0" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="Q98" s="0" t="s">
         <v>35</v>
@@ -7524,28 +7725,28 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>66</v>
@@ -7554,22 +7755,22 @@
         <v>67</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="O99" s="0" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P99" s="0" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="Q99" s="0" t="s">
         <v>35</v>
@@ -7583,52 +7784,52 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>429</v>
+        <v>20</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>431</v>
+        <v>214</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>432</v>
+        <v>43</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>434</v>
+        <v>41</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>435</v>
+        <v>216</v>
       </c>
       <c r="O100" s="0" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="P100" s="0" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="Q100" s="0" t="s">
         <v>35</v>
@@ -7642,52 +7843,52 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>429</v>
+        <v>60</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>431</v>
+        <v>236</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>432</v>
+        <v>64</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>434</v>
+        <v>203</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>435</v>
+        <v>239</v>
       </c>
       <c r="O101" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="Q101" s="0" t="s">
         <v>35</v>
@@ -7701,52 +7902,52 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>66</v>
+        <v>457</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="O102" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>177</v>
+        <v>459</v>
       </c>
       <c r="Q102" s="0" t="s">
         <v>35</v>
@@ -7760,52 +7961,52 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>442</v>
+        <v>100</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="L103" s="0" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="O103" s="0" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="P103" s="0" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="Q103" s="0" t="s">
         <v>35</v>
@@ -7819,52 +8020,52 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>439</v>
+        <v>221</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="O104" s="0" t="s">
-        <v>267</v>
+        <v>464</v>
       </c>
       <c r="P104" s="0" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="Q104" s="0" t="s">
         <v>35</v>
@@ -7878,52 +8079,52 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>403</v>
+        <v>120</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>448</v>
+        <v>43</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>449</v>
+        <v>28</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="L105" s="0" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="M105" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>406</v>
+        <v>89</v>
       </c>
       <c r="O105" s="0" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P105" s="0" t="s">
-        <v>451</v>
+        <v>257</v>
       </c>
       <c r="Q105" s="0" t="s">
         <v>35</v>
@@ -7937,52 +8138,52 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="L106" s="0" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>406</v>
+        <v>128</v>
       </c>
       <c r="O106" s="0" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="P106" s="0" t="s">
-        <v>455</v>
+        <v>339</v>
       </c>
       <c r="Q106" s="0" t="s">
         <v>35</v>
@@ -7996,52 +8197,52 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>453</v>
+        <v>87</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="L107" s="0" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>406</v>
+        <v>89</v>
       </c>
       <c r="O107" s="0" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="P107" s="0" t="s">
-        <v>455</v>
+        <v>90</v>
       </c>
       <c r="Q107" s="0" t="s">
         <v>35</v>
@@ -8055,52 +8256,52 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>402</v>
+        <v>473</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>54</v>
+        <v>293</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>405</v>
+        <v>203</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="N108" s="0" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="O108" s="0" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="P108" s="0" t="s">
-        <v>151</v>
+        <v>418</v>
       </c>
       <c r="Q108" s="0" t="s">
         <v>35</v>
@@ -8114,55 +8315,55 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>461</v>
+        <v>60</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>206</v>
+        <v>369</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>347</v>
+        <v>22</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>349</v>
+        <v>92</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>462</v>
+        <v>52</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N109" s="0" t="s">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="O109" s="0" t="s">
-        <v>462</v>
+        <v>33</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="Q109" s="0" t="s">
-        <v>354</v>
+        <v>97</v>
       </c>
       <c r="R109" s="0" t="s">
         <v>36</v>
@@ -8173,55 +8374,55 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>461</v>
+        <v>290</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>206</v>
+        <v>369</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>347</v>
+        <v>22</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>356</v>
+        <v>473</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>357</v>
+        <v>93</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>462</v>
+        <v>40</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="L110" s="0" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="M110" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="O110" s="0" t="s">
-        <v>462</v>
+        <v>166</v>
       </c>
       <c r="P110" s="0" t="s">
-        <v>359</v>
+        <v>96</v>
       </c>
       <c r="Q110" s="0" t="s">
-        <v>360</v>
+        <v>97</v>
       </c>
       <c r="R110" s="0" t="s">
         <v>36</v>
@@ -8230,8 +8431,1011 @@
         <v>36</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="L111" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="M111" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="N111" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="O111" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="P111" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q111" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R111" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S111" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="L112" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="M112" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N112" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="O112" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="P112" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q112" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R112" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S112" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="L113" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="M113" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N113" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="O113" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P113" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q113" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R113" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S113" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="L114" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M114" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N114" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O114" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P114" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q114" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R114" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S114" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="L115" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M115" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N115" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O115" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="P115" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q115" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R115" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S115" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="L116" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M116" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N116" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O116" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="P116" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q116" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R116" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S116" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="L117" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M117" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N117" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="O117" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="P117" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q117" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R117" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S117" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K118" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="L118" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M118" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N118" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="O118" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="P118" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q118" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R118" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S118" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="L119" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M119" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N119" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="O119" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P119" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q119" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R119" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S119" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K120" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="L120" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="M120" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N120" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="O120" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="P120" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q120" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R120" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S120" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="L121" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M121" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N121" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="O121" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="P121" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q121" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="R121" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S121" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="L122" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M122" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N122" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="O122" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="P122" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q122" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="R122" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S122" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="L123" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M123" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N123" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="O123" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="P123" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q123" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="R123" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S123" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="L124" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M124" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N124" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="O124" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="P124" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q124" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="R124" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S124" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J125" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="L125" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M125" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N125" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="O125" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="P125" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q125" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="R125" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S125" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="L126" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M126" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N126" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="O126" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="P126" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q126" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="R126" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S126" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="L127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N127" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="O127" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="P127" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q127" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="R127" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S127" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S110"/>
+  <autoFilter ref="A1:S127"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -8239,7 +9443,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" state="frozen" activePane="topRight"/>
@@ -8253,7 +9457,7 @@
     <col min="3" max="3" width="16.497610092163086" customWidth="1"/>
     <col min="4" max="4" width="10.230311393737793" customWidth="1"/>
     <col min="5" max="5" width="364.38580322265625" customWidth="1"/>
-    <col min="6" max="6" width="16.497610092163086" customWidth="1"/>
+    <col min="6" max="6" width="358.5287780761719" customWidth="1"/>
     <col min="7" max="7" width="10.727521896362305" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="22.947011947631836" customWidth="1"/>
@@ -8261,16 +9465,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>467</v>
+        <v>530</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>15</v>
@@ -8279,13 +9483,13 @@
         <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2">
@@ -8293,7 +9497,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>28</v>
@@ -8302,7 +9506,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>35</v>
@@ -8314,15 +9518,15 @@
         <v>28</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>28</v>
@@ -8331,7 +9535,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>35</v>
@@ -8343,7 +9547,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4">
@@ -8351,7 +9555,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>28</v>
@@ -8360,7 +9564,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>35</v>
@@ -8372,7 +9576,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5">
@@ -8380,7 +9584,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>28</v>
@@ -8389,7 +9593,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>35</v>
@@ -8401,15 +9605,15 @@
         <v>28</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>28</v>
@@ -8418,7 +9622,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>35</v>
@@ -8430,24 +9634,24 @@
         <v>28</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>352</v>
+        <v>204</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>488</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>35</v>
@@ -8459,24 +9663,24 @@
         <v>28</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>127</v>
+        <v>375</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>552</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>35</v>
@@ -8488,15 +9692,15 @@
         <v>28</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>28</v>
@@ -8505,7 +9709,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>35</v>
@@ -8517,15 +9721,15 @@
         <v>28</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>28</v>
@@ -8534,7 +9738,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>35</v>
@@ -8546,15 +9750,15 @@
         <v>28</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>28</v>
@@ -8563,7 +9767,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>35</v>
@@ -8575,24 +9779,24 @@
         <v>28</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>504</v>
+        <v>28</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>110</v>
+        <v>565</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>35</v>
@@ -8604,24 +9808,24 @@
         <v>28</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>568</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>507</v>
+        <v>111</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>35</v>
@@ -8633,15 +9837,15 @@
         <v>28</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>28</v>
@@ -8650,7 +9854,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>35</v>
@@ -8662,15 +9866,15 @@
         <v>28</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>28</v>
@@ -8679,7 +9883,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>35</v>
@@ -8691,15 +9895,15 @@
         <v>28</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>28</v>
@@ -8708,7 +9912,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>35</v>
@@ -8720,15 +9924,15 @@
         <v>28</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>28</v>
@@ -8737,7 +9941,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>35</v>
@@ -8749,15 +9953,15 @@
         <v>28</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>484</v>
+        <v>578</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>28</v>
@@ -8766,7 +9970,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>35</v>
@@ -8778,15 +9982,15 @@
         <v>28</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>28</v>
@@ -8795,7 +9999,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>35</v>
@@ -8807,27 +10011,27 @@
         <v>28</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>488</v>
+        <v>28</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>353</v>
+        <v>585</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>354</v>
+        <v>35</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>28</v>
@@ -8836,27 +10040,27 @@
         <v>28</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>28</v>
@@ -8865,27 +10069,27 @@
         <v>28</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>189</v>
+        <v>392</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>28</v>
+        <v>552</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>191</v>
+        <v>394</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>35</v>
+        <v>395</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>28</v>
@@ -8894,27 +10098,27 @@
         <v>28</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>484</v>
+        <v>590</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>28</v>
+        <v>552</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>28</v>
@@ -8923,27 +10127,27 @@
         <v>28</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>136</v>
+        <v>404</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>28</v>
+        <v>552</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>70</v>
+        <v>406</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>35</v>
+        <v>407</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>28</v>
@@ -8952,27 +10156,27 @@
         <v>28</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>73</v>
+        <v>410</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>28</v>
+        <v>552</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>533</v>
+        <v>412</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>35</v>
+        <v>413</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>28</v>
@@ -8981,27 +10185,27 @@
         <v>28</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>198</v>
+        <v>373</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>28</v>
+        <v>552</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>535</v>
+        <v>376</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>28</v>
@@ -9010,27 +10214,27 @@
         <v>28</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>68</v>
+        <v>380</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>28</v>
+        <v>552</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>537</v>
+        <v>382</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>35</v>
+        <v>383</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>28</v>
@@ -9039,15 +10243,15 @@
         <v>28</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>538</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>28</v>
@@ -9056,7 +10260,7 @@
         <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>539</v>
+        <v>194</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>35</v>
@@ -9068,15 +10272,15 @@
         <v>28</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>538</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>28</v>
@@ -9085,7 +10289,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>541</v>
+        <v>418</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>35</v>
@@ -9097,15 +10301,15 @@
         <v>28</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>435</v>
+        <v>137</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>28</v>
@@ -9126,15 +10330,15 @@
         <v>28</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>543</v>
+        <v>599</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>28</v>
@@ -9143,7 +10347,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>544</v>
+        <v>600</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>35</v>
@@ -9155,40 +10359,214 @@
         <v>28</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>545</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>548</v>
+      <c r="B38" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I32"/>
+  <autoFilter ref="A1:I38"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Presentation/bin/Debug/net7.0-windows7.0/ExtractedData.xlsx
+++ b/Presentation/bin/Debug/net7.0-windows7.0/ExtractedData.xlsx
@@ -9,15 +9,15 @@
     <sheet name="Components" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Components!$A$1:$I$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wires!$A$1:$S$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Components!$A$1:$I$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wires!$A$1:$S$131</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="631">
   <si>
     <t>Wire</t>
   </si>
@@ -91,7 +91,7 @@
     <t>761980</t>
   </si>
   <si>
-    <t>9082+L2+L1</t>
+    <t>7612+L3+L2+L1</t>
   </si>
   <si>
     <t>6E</t>
@@ -124,7 +124,7 @@
     <t>BR15 DH66</t>
   </si>
   <si>
-    <t>2437643 2437644 2437645 2437646 2437647 2437648 2437649 2437650 2437651 2437652 2437653 2437654 2437655 2437656 2437657 2437658 2437659 2437660 2437661 2437662 2437663 2437664 2437665 2437666 2437667 2437668 2437669 2437670 2437671 2437672 2437673 2437674 2437675 2437676 2437677 2437678 2437679 2437680 2437781 2437782 2437783 2437784 2437785 2437786</t>
+    <t>2437753 2437754 2437755 2437756 2437757 2437758 2437759 2437760 2437761 2437762 2437763 2437764 2437765 2437766 2437767 2437768 2437769 2437770 2437771 2437772 2437773 2437774 2437775 2437776 2437777 2437778 2437779 2437780</t>
   </si>
   <si>
     <t>?</t>
@@ -169,7 +169,7 @@
     <t>364973</t>
   </si>
   <si>
-    <t>9152+L1+L2</t>
+    <t>7682+L1+L2+L3</t>
   </si>
   <si>
     <t>111F_plug</t>
@@ -310,16 +310,13 @@
     <t>DH102</t>
   </si>
   <si>
-    <t>2437643 2437644 2437645 2437646 2437647 2437648 2437649 2437650 2437651 2437653 2437655 2437657 2437659 2437661 2437663 2437665 2437667 2437669 2437671 2437673 2437675 2437677 2437679 2437781 2437782 2437783 2437786</t>
-  </si>
-  <si>
     <t>1390.1</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
-    <t>9112+L1+L2</t>
+    <t>7642+L1+L2+L3</t>
   </si>
   <si>
     <t>108F_plug</t>
@@ -358,7 +355,7 @@
     <t>1404.9</t>
   </si>
   <si>
-    <t>9150+L2</t>
+    <t>7680+L3+L2</t>
   </si>
   <si>
     <t>9</t>
@@ -466,7 +463,7 @@
     <t>761975</t>
   </si>
   <si>
-    <t>3615</t>
+    <t>2145+L3</t>
   </si>
   <si>
     <t>P031.D:4 to 107F_plug:5</t>
@@ -565,7 +562,7 @@
     <t>2249.2</t>
   </si>
   <si>
-    <t>9082+L1+L2</t>
+    <t>7612+L1+L2+L3</t>
   </si>
   <si>
     <t>107F_plug:16 to 5CD:8</t>
@@ -592,7 +589,7 @@
     <t>2679.14</t>
   </si>
   <si>
-    <t>8712+L1+L2+L3</t>
+    <t>7242+L1+L2+L3+L4</t>
   </si>
   <si>
     <t>L308.B</t>
@@ -637,7 +634,7 @@
     <t>3558.1</t>
   </si>
   <si>
-    <t>9112+L2+L1</t>
+    <t>7642+L3+L2+L1</t>
   </si>
   <si>
     <t>6E:8 to 108F_plug:1</t>
@@ -679,30 +676,54 @@
     <t>6CD:15 to 119F_socket:14</t>
   </si>
   <si>
-    <t>3619.5</t>
-  </si>
-  <si>
-    <t>5367+L1+L2</t>
-  </si>
-  <si>
-    <t>119F_socket:3 to 6CD:35</t>
+    <t>3619.3</t>
+  </si>
+  <si>
+    <t>7382+L1+L2</t>
+  </si>
+  <si>
+    <t>D379.B</t>
+  </si>
+  <si>
+    <t>D379.B:4 to 6CD:35</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>DH07</t>
-  </si>
-  <si>
-    <t>3620.5</t>
-  </si>
-  <si>
-    <t>119F_socket:4 to 6CD:36</t>
+    <t>DH01 DH08 DH81 DH95 DJ01</t>
+  </si>
+  <si>
+    <t>3619.6</t>
+  </si>
+  <si>
+    <t>2355</t>
+  </si>
+  <si>
+    <t>D379.C</t>
+  </si>
+  <si>
+    <t>D379.C:4 to 119F_socket:3</t>
+  </si>
+  <si>
+    <t>DH08 DH95</t>
+  </si>
+  <si>
+    <t>3620.3</t>
+  </si>
+  <si>
+    <t>D379.B:3 to 6CD:36</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
+    <t>3620.6</t>
+  </si>
+  <si>
+    <t>D379.C:3 to 119F_socket:4</t>
+  </si>
+  <si>
     <t>3651.8</t>
   </si>
   <si>
@@ -907,30 +928,15 @@
     <t>DH132</t>
   </si>
   <si>
-    <t>3952.69</t>
-  </si>
-  <si>
-    <t>5887+L1+L2</t>
+    <t>3952.70</t>
+  </si>
+  <si>
+    <t>2935</t>
   </si>
   <si>
     <t>G790</t>
   </si>
   <si>
-    <t>G790:5 to 6CD:8</t>
-  </si>
-  <si>
-    <t>DH142</t>
-  </si>
-  <si>
-    <t>2437652 2437654 2437656 2437658 2437660 2437662 2437664 2437666 2437668 2437670 2437672 2437674 2437676 2437678 2437680 2437784 2437785</t>
-  </si>
-  <si>
-    <t>3952.70</t>
-  </si>
-  <si>
-    <t>2935</t>
-  </si>
-  <si>
     <t>G790:5 to P097:7</t>
   </si>
   <si>
@@ -988,15 +994,6 @@
     <t>116F_socket:2 to P072:6</t>
   </si>
   <si>
-    <t>3953.69</t>
-  </si>
-  <si>
-    <t>5887+L2+L1</t>
-  </si>
-  <si>
-    <t>6CD:9 to G790:7</t>
-  </si>
-  <si>
     <t>3953.70</t>
   </si>
   <si>
@@ -1039,18 +1036,24 @@
     <t>DH30</t>
   </si>
   <si>
-    <t>5158.5</t>
+    <t>5158.3</t>
   </si>
   <si>
     <t>1686136</t>
   </si>
   <si>
-    <t>119F_socket:2 to 6CD:34</t>
+    <t>D379.B:2 to 6CD:34</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
+    <t>5158.6</t>
+  </si>
+  <si>
+    <t>D379.C:2 to 119F_socket:2</t>
+  </si>
+  <si>
     <t>5491.1</t>
   </si>
   <si>
@@ -1060,7 +1063,7 @@
     <t>6164.2</t>
   </si>
   <si>
-    <t>8902+L2+L1</t>
+    <t>7432+L3+L2+L1</t>
   </si>
   <si>
     <t>5CD:7 to A088:7</t>
@@ -1075,7 +1078,7 @@
     <t>6165</t>
   </si>
   <si>
-    <t>8902+L1+L2</t>
+    <t>7432+L1+L2+L3</t>
   </si>
   <si>
     <t>A088:2 to 5CD:21</t>
@@ -1120,37 +1123,55 @@
     <t>P097:11 to 5CD:10</t>
   </si>
   <si>
+    <t>6496.8</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>A_2396616</t>
+  </si>
+  <si>
+    <t>7152+L1+L2+L3+L4+L5</t>
+  </si>
+  <si>
+    <t>L308.A(7)</t>
+  </si>
+  <si>
+    <t>L308.A(7):1 to 344C(2):1</t>
+  </si>
+  <si>
+    <t>344C(2)</t>
+  </si>
+  <si>
+    <t>DH154</t>
+  </si>
+  <si>
+    <t>2437754 2437756 2437758 2437764 2437766</t>
+  </si>
+  <si>
     <t>6496.9</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
     <t>A_2396617</t>
   </si>
   <si>
-    <t>8622+L1+L2+L3+L4</t>
-  </si>
-  <si>
     <t>L308.A(8)</t>
   </si>
   <si>
     <t>L308.A(8):1 to 344C(2):1</t>
   </si>
   <si>
-    <t>344C(2)</t>
-  </si>
-  <si>
     <t>DH155</t>
   </si>
   <si>
-    <t>2437782 2437785 2437786</t>
+    <t>2437768 2437774 2437776</t>
   </si>
   <si>
     <t>6496.10</t>
@@ -1168,7 +1189,7 @@
     <t>DH156</t>
   </si>
   <si>
-    <t>2437643 2437651 2437652 2437781 2437783 2437784</t>
+    <t>2437753 2437763</t>
   </si>
   <si>
     <t>6496.11</t>
@@ -1186,7 +1207,7 @@
     <t>DH157</t>
   </si>
   <si>
-    <t>2437644 2437653 2437654 2437667 2437668</t>
+    <t>2437755 2437765</t>
   </si>
   <si>
     <t>6496.12</t>
@@ -1204,7 +1225,7 @@
     <t>DH158</t>
   </si>
   <si>
-    <t>2437645 2437655 2437656</t>
+    <t>2437757 2437773</t>
   </si>
   <si>
     <t>6496.13</t>
@@ -1222,7 +1243,7 @@
     <t>DH159</t>
   </si>
   <si>
-    <t>2437646 2437657 2437658 2437669 2437670</t>
+    <t>2437759 2437767 2437769 2437775</t>
   </si>
   <si>
     <t>6496.14</t>
@@ -1240,7 +1261,7 @@
     <t>DH160</t>
   </si>
   <si>
-    <t>2437647 2437648 2437659 2437660 2437661 2437662 2437671 2437672 2437673 2437674 2437675 2437676</t>
+    <t>2437760 2437761 2437770 2437771 2437777 2437778 2437779</t>
   </si>
   <si>
     <t>6496.15</t>
@@ -1258,7 +1279,7 @@
     <t>DH161</t>
   </si>
   <si>
-    <t>2437649 2437650 2437663 2437664 2437665 2437666 2437677 2437678 2437679 2437680</t>
+    <t>2437762 2437772 2437780</t>
   </si>
   <si>
     <t>7081</t>
@@ -1384,7 +1405,7 @@
     <t>364972</t>
   </si>
   <si>
-    <t>9780+L2</t>
+    <t>8310+L2+L3</t>
   </si>
   <si>
     <t>111F_plug:1 to P071.U:8</t>
@@ -1405,15 +1426,21 @@
     <t>108F_plug:5 to 6E:7</t>
   </si>
   <si>
-    <t>9129.5</t>
-  </si>
-  <si>
-    <t>119F_socket:1 to 6CD:33</t>
+    <t>9129.3</t>
+  </si>
+  <si>
+    <t>D379.B:1 to 6CD:33</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
+    <t>9129.6</t>
+  </si>
+  <si>
+    <t>119F_socket:1 to D379.C:1</t>
+  </si>
+  <si>
     <t>9164.1</t>
   </si>
   <si>
@@ -1504,7 +1531,7 @@
     <t>MT11</t>
   </si>
   <si>
-    <t>9030+L2+L3</t>
+    <t>7560+L2+L3+L4</t>
   </si>
   <si>
     <t>L308.B:3 to P071.T:11</t>
@@ -1537,7 +1564,7 @@
     <t>MU3</t>
   </si>
   <si>
-    <t>9710+L2</t>
+    <t>8240+L2+L3</t>
   </si>
   <si>
     <t>108F_plug:4 to P071.U:3</t>
@@ -1558,15 +1585,21 @@
     <t>111F_plug:2 to P071.U:7</t>
   </si>
   <si>
+    <t>S1_Video.8</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>L308.A(7):1A to 344C(2):1A</t>
+  </si>
+  <si>
     <t>S1_Video.9</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
     <t>L308.A(8):1A to 344C(2):1A</t>
   </si>
   <si>
@@ -1744,6 +1777,15 @@
     <t>side marker right 2nd</t>
   </si>
   <si>
+    <t>1816060</t>
+  </si>
+  <si>
+    <t>DH01/DH08/DH21/DH95/DJ01/DJ21</t>
+  </si>
+  <si>
+    <t>modulator additional axle</t>
+  </si>
+  <si>
     <t>1982868</t>
   </si>
   <si>
@@ -1796,6 +1838,9 @@
   </si>
   <si>
     <t>2404490</t>
+  </si>
+  <si>
+    <t>2396616</t>
   </si>
   <si>
     <t>2396617</t>
@@ -1911,7 +1956,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:S127"/>
+  <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="19" topLeftCell="T1" state="frozen" activePane="topRight"/>
@@ -1925,7 +1970,7 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="10.678414344787598" customWidth="1"/>
-    <col min="6" max="6" width="17.378469467163086" customWidth="1"/>
+    <col min="6" max="6" width="20.4548282623291" customWidth="1"/>
     <col min="7" max="7" width="12.022722244262695" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
@@ -1936,7 +1981,7 @@
     <col min="14" max="14" width="12.022722244262695" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="29.135534286499023" customWidth="1"/>
-    <col min="17" max="17" width="358.5287780761719" customWidth="1"/>
+    <col min="17" max="17" width="228.23118591308594" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
@@ -2522,7 +2567,7 @@
         <v>96</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>36</v>
@@ -2533,7 +2578,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>20</v>
@@ -2542,28 +2587,28 @@
         <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>27</v>
@@ -2578,7 +2623,7 @@
         <v>40</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>35</v>
@@ -2592,7 +2637,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>20</v>
@@ -2613,7 +2658,7 @@
         <v>44</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>43</v>
@@ -2622,13 +2667,13 @@
         <v>28</v>
       </c>
       <c r="K12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="L12" s="0" t="s">
-        <v>110</v>
-      </c>
       <c r="M12" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>68</v>
@@ -2637,7 +2682,7 @@
         <v>26</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="0" t="s">
         <v>35</v>
@@ -2651,7 +2696,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>20</v>
@@ -2666,37 +2711,37 @@
         <v>23</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H13" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="M13" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>52</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="0" t="s">
         <v>35</v>
@@ -2710,7 +2755,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>60</v>
@@ -2725,13 +2770,13 @@
         <v>61</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>64</v>
@@ -2740,7 +2785,7 @@
         <v>28</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>83</v>
@@ -2769,7 +2814,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>60</v>
@@ -2784,10 +2829,10 @@
         <v>61</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>125</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>52</v>
@@ -2799,22 +2844,22 @@
         <v>67</v>
       </c>
       <c r="K15" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="M15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="0" t="s">
+      <c r="O15" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="P15" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>35</v>
@@ -2828,10 +2873,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>21</v>
@@ -2840,10 +2885,10 @@
         <v>22</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>68</v>
@@ -2858,16 +2903,16 @@
         <v>31</v>
       </c>
       <c r="K16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>136</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>69</v>
@@ -2887,10 +2932,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>21</v>
@@ -2899,10 +2944,10 @@
         <v>22</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>68</v>
@@ -2917,16 +2962,16 @@
         <v>31</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>26</v>
@@ -2946,10 +2991,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>21</v>
@@ -2958,10 +3003,10 @@
         <v>22</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>68</v>
@@ -2976,16 +3021,16 @@
         <v>31</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>52</v>
@@ -3005,10 +3050,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>21</v>
@@ -3017,16 +3062,16 @@
         <v>22</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>41</v>
@@ -3035,19 +3080,19 @@
         <v>31</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>70</v>
@@ -3064,7 +3109,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>20</v>
@@ -3085,22 +3130,22 @@
         <v>93</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>79</v>
@@ -3112,7 +3157,7 @@
         <v>96</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R20" s="0" t="s">
         <v>36</v>
@@ -3123,22 +3168,22 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>73</v>
@@ -3153,10 +3198,10 @@
         <v>67</v>
       </c>
       <c r="K21" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>67</v>
@@ -3168,7 +3213,7 @@
         <v>69</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>35</v>
@@ -3182,28 +3227,28 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>73</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>66</v>
@@ -3212,10 +3257,10 @@
         <v>67</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>67</v>
@@ -3224,10 +3269,10 @@
         <v>32</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="0" t="s">
         <v>35</v>
@@ -3241,19 +3286,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>72</v>
@@ -3262,7 +3307,7 @@
         <v>68</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>66</v>
@@ -3271,7 +3316,7 @@
         <v>67</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>66</v>
@@ -3300,37 +3345,37 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="0" t="s">
+      <c r="I24" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>162</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>27</v>
@@ -3342,10 +3387,10 @@
         <v>25</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="0" t="s">
         <v>35</v>
@@ -3359,37 +3404,37 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F25" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="K25" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>27</v>
@@ -3401,10 +3446,10 @@
         <v>25</v>
       </c>
       <c r="O25" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="P25" s="0" t="s">
-        <v>167</v>
       </c>
       <c r="Q25" s="0" t="s">
         <v>35</v>
@@ -3418,28 +3463,28 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>73</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>66</v>
@@ -3448,10 +3493,10 @@
         <v>67</v>
       </c>
       <c r="K26" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>84</v>
@@ -3460,10 +3505,10 @@
         <v>32</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="0" t="s">
         <v>35</v>
@@ -3477,28 +3522,28 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>66</v>
@@ -3507,22 +3552,22 @@
         <v>67</v>
       </c>
       <c r="K27" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="L27" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="M27" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="0" t="s">
+      <c r="N27" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>35</v>
@@ -3536,37 +3581,37 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I28" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="J28" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="K28" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>66</v>
@@ -3581,7 +3626,7 @@
         <v>40</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>35</v>
@@ -3595,22 +3640,22 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>32</v>
@@ -3619,28 +3664,28 @@
         <v>80</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>84</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L29" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>33</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>35</v>
@@ -3654,22 +3699,22 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>73</v>
@@ -3684,10 +3729,10 @@
         <v>67</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>67</v>
@@ -3699,7 +3744,7 @@
         <v>52</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>35</v>
@@ -3713,40 +3758,40 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>32</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>67</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>28</v>
@@ -3755,10 +3800,10 @@
         <v>25</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>35</v>
@@ -3772,25 +3817,25 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>26</v>
@@ -3802,22 +3847,22 @@
         <v>67</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L32" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N32" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>35</v>
@@ -3831,19 +3876,19 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>24</v>
@@ -3852,19 +3897,19 @@
         <v>25</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>84</v>
@@ -3876,7 +3921,7 @@
         <v>74</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>35</v>
@@ -3890,25 +3935,25 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>201</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>52</v>
@@ -3920,16 +3965,16 @@
         <v>67</v>
       </c>
       <c r="K34" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="L34" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>203</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>52</v>
@@ -3949,22 +3994,22 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="F35" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>25</v>
@@ -3973,28 +4018,28 @@
         <v>33</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>67</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q35" s="0" t="s">
         <v>35</v>
@@ -4008,52 +4053,52 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>210</v>
-      </c>
       <c r="F36" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>67</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q36" s="0" t="s">
         <v>35</v>
@@ -4067,22 +4112,22 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>44</v>
@@ -4097,22 +4142,22 @@
         <v>28</v>
       </c>
       <c r="K37" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="N37" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="L37" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="N37" s="0" t="s">
+      <c r="O37" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="P37" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="O37" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="P37" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>35</v>
@@ -4126,22 +4171,22 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>44</v>
@@ -4156,22 +4201,22 @@
         <v>28</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>95</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>35</v>
@@ -4185,34 +4230,34 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="F39" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>216</v>
-      </c>
       <c r="H39" s="0" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>222</v>
@@ -4250,46 +4295,46 @@
         <v>60</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>52</v>
       </c>
       <c r="I40" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="L40" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="M40" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="K40" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="N40" s="0" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>35</v>
@@ -4303,52 +4348,52 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="M41" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q41" s="0" t="s">
         <v>35</v>
@@ -4362,52 +4407,52 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="M42" s="0" t="s">
         <v>67</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q42" s="0" t="s">
         <v>35</v>
@@ -4421,40 +4466,40 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>32</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>67</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M43" s="0" t="s">
         <v>28</v>
@@ -4463,10 +4508,10 @@
         <v>25</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>35</v>
@@ -4480,52 +4525,52 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>197</v>
-      </c>
       <c r="F44" s="0" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H44" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="P44" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="M44" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="N44" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="O44" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="P44" s="0" t="s">
-        <v>240</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>35</v>
@@ -4539,52 +4584,52 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>35</v>
@@ -4598,28 +4643,28 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>64</v>
@@ -4628,22 +4673,22 @@
         <v>28</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M46" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q46" s="0" t="s">
         <v>35</v>
@@ -4657,52 +4702,52 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="Q47" s="0" t="s">
         <v>35</v>
@@ -4716,52 +4761,52 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="Q48" s="0" t="s">
         <v>35</v>
@@ -4775,28 +4820,28 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>43</v>
@@ -4805,22 +4850,22 @@
         <v>28</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N49" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="P49" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="O49" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P49" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="Q49" s="0" t="s">
         <v>35</v>
@@ -4834,28 +4879,28 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E50" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>43</v>
@@ -4864,22 +4909,22 @@
         <v>28</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N50" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="P50" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="P50" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="Q50" s="0" t="s">
         <v>35</v>
@@ -4893,52 +4938,52 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="Q51" s="0" t="s">
         <v>35</v>
@@ -4952,52 +4997,52 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="Q52" s="0" t="s">
         <v>35</v>
@@ -5011,52 +5056,52 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="E53" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="F53" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="G53" s="0" t="s">
+      <c r="L53" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N53" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="H53" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K53" s="0" t="s">
+      <c r="O53" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="P53" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N53" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="P53" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="Q53" s="0" t="s">
         <v>35</v>
@@ -5070,52 +5115,52 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>210</v>
-      </c>
       <c r="F54" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>52</v>
       </c>
       <c r="I54" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="L54" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="J54" s="0" t="s">
+      <c r="M54" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="K54" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M54" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="N54" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q54" s="0" t="s">
         <v>35</v>
@@ -5129,28 +5174,28 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>66</v>
@@ -5174,7 +5219,7 @@
         <v>272</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q55" s="0" t="s">
         <v>35</v>
@@ -5188,28 +5233,28 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>210</v>
-      </c>
       <c r="F56" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>66</v>
@@ -5218,7 +5263,7 @@
         <v>67</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L56" s="0" t="s">
         <v>64</v>
@@ -5230,10 +5275,10 @@
         <v>44</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q56" s="0" t="s">
         <v>35</v>
@@ -5247,28 +5292,28 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>66</v>
@@ -5280,19 +5325,19 @@
         <v>278</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N57" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="O57" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="O57" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="P57" s="0" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q57" s="0" t="s">
         <v>35</v>
@@ -5306,28 +5351,28 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>210</v>
-      </c>
       <c r="F58" s="0" t="s">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>66</v>
@@ -5336,22 +5381,22 @@
         <v>67</v>
       </c>
       <c r="K58" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="O58" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="L58" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M58" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N58" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="O58" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="P58" s="0" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q58" s="0" t="s">
         <v>35</v>
@@ -5371,28 +5416,28 @@
         <v>60</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>284</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>285</v>
@@ -5410,7 +5455,7 @@
         <v>26</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q59" s="0" t="s">
         <v>35</v>
@@ -5424,37 +5469,37 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>210</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>284</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L60" s="0" t="s">
         <v>66</v>
@@ -5466,10 +5511,10 @@
         <v>286</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q60" s="0" t="s">
         <v>35</v>
@@ -5483,52 +5528,52 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E61" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="G61" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K61" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>294</v>
       </c>
       <c r="L61" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M61" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N61" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="N61" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="O61" s="0" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q61" s="0" t="s">
         <v>35</v>
@@ -5542,55 +5587,55 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E62" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="F62" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="F62" s="0" t="s">
-        <v>297</v>
-      </c>
       <c r="G62" s="0" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="I62" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="L62" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="J62" s="0" t="s">
+      <c r="M62" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N62" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="K62" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="L62" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M62" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N62" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="O62" s="0" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="R62" s="0" t="s">
         <v>36</v>
@@ -5601,55 +5646,55 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>298</v>
+        <v>89</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R63" s="0" t="s">
         <v>36</v>
@@ -5660,55 +5705,55 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K64" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>308</v>
       </c>
       <c r="L64" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N64" s="0" t="s">
         <v>93</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R64" s="0" t="s">
         <v>36</v>
@@ -5719,52 +5764,52 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>312</v>
       </c>
       <c r="L65" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q65" s="0" t="s">
         <v>35</v>
@@ -5778,52 +5823,52 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K66" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="L66" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>298</v>
+        <v>124</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>35</v>
@@ -5837,52 +5882,52 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K67" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>322</v>
       </c>
       <c r="L67" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>125</v>
+        <v>305</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="Q67" s="0" t="s">
         <v>35</v>
@@ -5896,55 +5941,55 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>321</v>
-      </c>
       <c r="F68" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K68" s="0" t="s">
         <v>324</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>325</v>
       </c>
       <c r="L68" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>298</v>
+        <v>124</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="R68" s="0" t="s">
         <v>36</v>
@@ -5955,43 +6000,43 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I69" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L69" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N69" s="0" t="s">
         <v>93</v>
@@ -6000,10 +6045,10 @@
         <v>26</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R69" s="0" t="s">
         <v>36</v>
@@ -6014,28 +6059,28 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>64</v>
@@ -6044,25 +6089,25 @@
         <v>28</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L70" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N70" s="0" t="s">
         <v>93</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R70" s="0" t="s">
         <v>36</v>
@@ -6073,25 +6118,25 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>52</v>
@@ -6100,25 +6145,25 @@
         <v>66</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L71" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O71" s="0" t="s">
         <v>74</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q71" s="0" t="s">
         <v>35</v>
@@ -6132,52 +6177,52 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>39</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L72" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q72" s="0" t="s">
         <v>35</v>
@@ -6191,19 +6236,19 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>72</v>
@@ -6221,7 +6266,7 @@
         <v>67</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L73" s="0" t="s">
         <v>66</v>
@@ -6233,7 +6278,7 @@
         <v>73</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P73" s="0" t="s">
         <v>70</v>
@@ -6250,52 +6295,52 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>74</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J74" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M74" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O74" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q74" s="0" t="s">
         <v>35</v>
@@ -6309,37 +6354,37 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E75" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" s="0" t="s">
         <v>341</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>342</v>
       </c>
       <c r="L75" s="0" t="s">
         <v>43</v>
@@ -6351,7 +6396,7 @@
         <v>44</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P75" s="0" t="s">
         <v>224</v>
@@ -6368,52 +6413,52 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="Q76" s="0" t="s">
         <v>35</v>
@@ -6427,52 +6472,52 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>348</v>
-      </c>
       <c r="L77" s="0" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>350</v>
+        <v>31</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="Q77" s="0" t="s">
         <v>35</v>
@@ -6486,52 +6531,52 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I78" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="J78" s="0" t="s">
+      <c r="L78" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="K78" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="L78" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="M78" s="0" t="s">
-        <v>28</v>
+        <v>351</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>354</v>
+        <v>120</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q78" s="0" t="s">
         <v>35</v>
@@ -6545,52 +6590,52 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L79" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N79" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M79" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N79" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O79" s="0" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q79" s="0" t="s">
         <v>35</v>
@@ -6604,52 +6649,52 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L80" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N80" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M80" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N80" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O80" s="0" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q80" s="0" t="s">
         <v>35</v>
@@ -6663,52 +6708,52 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L81" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N81" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M81" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N81" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O81" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q81" s="0" t="s">
         <v>35</v>
@@ -6722,52 +6767,52 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L82" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N82" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M82" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N82" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O82" s="0" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q82" s="0" t="s">
         <v>35</v>
@@ -6781,55 +6826,55 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>66</v>
+        <v>350</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L83" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N83" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M83" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N83" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O83" s="0" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R83" s="0" t="s">
         <v>36</v>
@@ -6840,55 +6885,55 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K84" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K84" s="0" t="s">
-        <v>374</v>
-      </c>
       <c r="L84" s="0" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>375</v>
+        <v>127</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>376</v>
+        <v>96</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>377</v>
+        <v>35</v>
       </c>
       <c r="R84" s="0" t="s">
         <v>36</v>
@@ -6899,25 +6944,25 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>26</v>
@@ -6929,7 +6974,7 @@
         <v>28</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L85" s="0" t="s">
         <v>28</v>
@@ -6938,16 +6983,16 @@
         <v>28</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O85" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="R85" s="0" t="s">
         <v>36</v>
@@ -6958,25 +7003,25 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>26</v>
@@ -6988,7 +7033,7 @@
         <v>28</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L86" s="0" t="s">
         <v>28</v>
@@ -6997,16 +7042,16 @@
         <v>28</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O86" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="R86" s="0" t="s">
         <v>36</v>
@@ -7017,25 +7062,25 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>26</v>
@@ -7047,7 +7092,7 @@
         <v>28</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L87" s="0" t="s">
         <v>28</v>
@@ -7056,16 +7101,16 @@
         <v>28</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O87" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Q87" s="0" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="R87" s="0" t="s">
         <v>36</v>
@@ -7076,25 +7121,25 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>26</v>
@@ -7106,7 +7151,7 @@
         <v>28</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L88" s="0" t="s">
         <v>28</v>
@@ -7115,16 +7160,16 @@
         <v>28</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O88" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Q88" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="R88" s="0" t="s">
         <v>36</v>
@@ -7135,25 +7180,25 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>26</v>
@@ -7165,7 +7210,7 @@
         <v>28</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L89" s="0" t="s">
         <v>28</v>
@@ -7174,16 +7219,16 @@
         <v>28</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O89" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="Q89" s="0" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="R89" s="0" t="s">
         <v>36</v>
@@ -7194,25 +7239,25 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>26</v>
@@ -7224,7 +7269,7 @@
         <v>28</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L90" s="0" t="s">
         <v>28</v>
@@ -7233,16 +7278,16 @@
         <v>28</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O90" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q90" s="0" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="R90" s="0" t="s">
         <v>36</v>
@@ -7253,55 +7298,55 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>147</v>
+        <v>370</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>291</v>
+        <v>410</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>125</v>
+        <v>411</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="Q91" s="0" t="s">
-        <v>35</v>
+        <v>414</v>
       </c>
       <c r="R91" s="0" t="s">
         <v>36</v>
@@ -7312,55 +7357,55 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>417</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>125</v>
+        <v>376</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="P92" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q92" s="0" t="s">
-        <v>35</v>
+        <v>420</v>
       </c>
       <c r="R92" s="0" t="s">
         <v>36</v>
@@ -7371,52 +7416,52 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>424</v>
+        <v>298</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I93" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M93" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="P93" s="0" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="Q93" s="0" t="s">
         <v>35</v>
@@ -7433,52 +7478,52 @@
         <v>426</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>427</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>428</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>93</v>
+        <v>424</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>293</v>
+        <v>84</v>
       </c>
       <c r="K94" s="0" t="s">
         <v>429</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="N94" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="O94" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="O94" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="P94" s="0" t="s">
-        <v>96</v>
+        <v>425</v>
       </c>
       <c r="Q94" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R94" s="0" t="s">
         <v>36</v>
@@ -7492,49 +7537,49 @@
         <v>430</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C95" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>432</v>
-      </c>
       <c r="F95" s="0" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="O95" s="0" t="s">
-        <v>435</v>
+        <v>160</v>
       </c>
       <c r="P95" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="Q95" s="0" t="s">
         <v>35</v>
@@ -7548,52 +7593,52 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>320</v>
+        <v>434</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>321</v>
+        <v>435</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="M96" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>439</v>
+        <v>153</v>
       </c>
       <c r="P96" s="0" t="s">
-        <v>436</v>
+        <v>96</v>
       </c>
       <c r="Q96" s="0" t="s">
         <v>35</v>
@@ -7607,34 +7652,34 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="F97" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="G97" s="0" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>154</v>
+        <v>272</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="K97" s="0" t="s">
         <v>441</v>
@@ -7649,10 +7694,10 @@
         <v>44</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>102</v>
+        <v>442</v>
       </c>
       <c r="P97" s="0" t="s">
-        <v>90</v>
+        <v>443</v>
       </c>
       <c r="Q97" s="0" t="s">
         <v>35</v>
@@ -7666,52 +7711,52 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="E98" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="L98" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N98" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="O98" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="P98" s="0" t="s">
         <v>443</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G98" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H98" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J98" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="K98" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="L98" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="M98" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="N98" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="O98" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="P98" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="Q98" s="0" t="s">
         <v>35</v>
@@ -7725,28 +7770,28 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>369</v>
+        <v>195</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>447</v>
+        <v>119</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>66</v>
@@ -7758,19 +7803,19 @@
         <v>448</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="O99" s="0" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="P99" s="0" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="Q99" s="0" t="s">
         <v>35</v>
@@ -7790,46 +7835,46 @@
         <v>20</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="O100" s="0" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="P100" s="0" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="Q100" s="0" t="s">
         <v>35</v>
@@ -7843,52 +7888,52 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>236</v>
+        <v>454</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>354</v>
+        <v>156</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="Q101" s="0" t="s">
         <v>35</v>
@@ -7902,52 +7947,52 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>455</v>
+        <v>213</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>457</v>
+        <v>41</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>458</v>
+        <v>215</v>
       </c>
       <c r="O102" s="0" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>459</v>
+        <v>216</v>
       </c>
       <c r="Q102" s="0" t="s">
         <v>35</v>
@@ -7961,52 +8006,52 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>69</v>
+        <v>355</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L103" s="0" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c r="O103" s="0" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="P103" s="0" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="Q103" s="0" t="s">
         <v>35</v>
@@ -8020,52 +8065,52 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="F104" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>221</v>
-      </c>
       <c r="G104" s="0" t="s">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="K104" s="0" t="s">
         <v>463</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>43</v>
+        <v>464</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>44</v>
+        <v>465</v>
       </c>
       <c r="O104" s="0" t="s">
-        <v>464</v>
+        <v>33</v>
       </c>
       <c r="P104" s="0" t="s">
-        <v>224</v>
+        <v>466</v>
       </c>
       <c r="Q104" s="0" t="s">
         <v>35</v>
@@ -8079,52 +8124,52 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D105" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="F105" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="E105" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="F105" s="0" t="s">
+      <c r="G105" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O105" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="G105" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H105" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J105" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K105" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="L105" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="M105" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N105" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="O105" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="P105" s="0" t="s">
-        <v>257</v>
+        <v>105</v>
       </c>
       <c r="Q105" s="0" t="s">
         <v>35</v>
@@ -8138,52 +8183,52 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>468</v>
+        <v>220</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L106" s="0" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="M106" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="O106" s="0" t="s">
-        <v>95</v>
+        <v>471</v>
       </c>
       <c r="P106" s="0" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="Q106" s="0" t="s">
         <v>35</v>
@@ -8197,52 +8242,52 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L107" s="0" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="O107" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P107" s="0" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="Q107" s="0" t="s">
         <v>35</v>
@@ -8256,52 +8301,52 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>415</v>
+        <v>119</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="N108" s="0" t="s">
-        <v>417</v>
+        <v>89</v>
       </c>
       <c r="O108" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="P108" s="0" t="s">
-        <v>418</v>
+        <v>264</v>
       </c>
       <c r="Q108" s="0" t="s">
         <v>35</v>
@@ -8315,55 +8360,55 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>92</v>
+        <v>477</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N109" s="0" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="O109" s="0" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="Q109" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R109" s="0" t="s">
         <v>36</v>
@@ -8374,55 +8419,55 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>365</v>
+        <v>87</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="I110" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>293</v>
+        <v>67</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L110" s="0" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="O110" s="0" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="P110" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q110" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R110" s="0" t="s">
         <v>36</v>
@@ -8433,52 +8478,52 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>60</v>
+        <v>297</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I111" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L111" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M111" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>204</v>
+        <v>424</v>
       </c>
       <c r="O111" s="0" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="P111" s="0" t="s">
-        <v>70</v>
+        <v>425</v>
       </c>
       <c r="Q111" s="0" t="s">
         <v>35</v>
@@ -8492,52 +8537,52 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>482</v>
+        <v>60</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>484</v>
+        <v>92</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="I112" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K112" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="J112" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K112" s="0" t="s">
-        <v>486</v>
-      </c>
       <c r="L112" s="0" t="s">
-        <v>487</v>
+        <v>66</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="N112" s="0" t="s">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="O112" s="0" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="P112" s="0" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="Q112" s="0" t="s">
         <v>35</v>
@@ -8551,52 +8596,52 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>482</v>
+        <v>297</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>484</v>
+        <v>366</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>485</v>
+        <v>66</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>487</v>
+        <v>126</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="N113" s="0" t="s">
-        <v>488</v>
+        <v>127</v>
       </c>
       <c r="O113" s="0" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="P113" s="0" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="Q113" s="0" t="s">
         <v>35</v>
@@ -8610,52 +8655,52 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>492</v>
+        <v>199</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="K114" s="0" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L114" s="0" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="N114" s="0" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="O114" s="0" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="P114" s="0" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="Q114" s="0" t="s">
         <v>35</v>
@@ -8669,52 +8714,52 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>60</v>
+        <v>491</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="F115" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K115" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="G115" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H115" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J115" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K115" s="0" t="s">
+      <c r="L115" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="L115" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="M115" s="0" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N115" s="0" t="s">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="O115" s="0" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="P115" s="0" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="Q115" s="0" t="s">
         <v>35</v>
@@ -8728,52 +8773,52 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>60</v>
+        <v>491</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>174</v>
+        <v>494</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="K116" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L116" s="0" t="s">
-        <v>66</v>
+        <v>496</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="O116" s="0" t="s">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="P116" s="0" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="Q116" s="0" t="s">
         <v>35</v>
@@ -8787,52 +8832,52 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>501</v>
+        <v>173</v>
       </c>
       <c r="J117" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="K117" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="K117" s="0" t="s">
-        <v>503</v>
-      </c>
       <c r="L117" s="0" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N117" s="0" t="s">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="O117" s="0" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="P117" s="0" t="s">
-        <v>504</v>
+        <v>176</v>
       </c>
       <c r="Q117" s="0" t="s">
         <v>35</v>
@@ -8846,52 +8891,52 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K118" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N118" s="0" t="s">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="O118" s="0" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="P118" s="0" t="s">
-        <v>508</v>
+        <v>193</v>
       </c>
       <c r="Q118" s="0" t="s">
         <v>35</v>
@@ -8905,52 +8950,52 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="O119" s="0" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
       <c r="P119" s="0" t="s">
-        <v>508</v>
+        <v>176</v>
       </c>
       <c r="Q119" s="0" t="s">
         <v>35</v>
@@ -8964,52 +9009,52 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>51</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>53</v>
+        <v>510</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>54</v>
+        <v>511</v>
       </c>
       <c r="K120" s="0" t="s">
         <v>512</v>
       </c>
       <c r="L120" s="0" t="s">
-        <v>457</v>
+        <v>135</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="O120" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P120" s="0" t="s">
-        <v>152</v>
+        <v>513</v>
       </c>
       <c r="Q120" s="0" t="s">
         <v>35</v>
@@ -9023,55 +9068,55 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>514</v>
+        <v>20</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>209</v>
+        <v>370</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>370</v>
+        <v>22</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>372</v>
+        <v>515</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>373</v>
+        <v>100</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="K121" s="0" t="s">
         <v>516</v>
       </c>
       <c r="L121" s="0" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>375</v>
+        <v>465</v>
       </c>
       <c r="O121" s="0" t="s">
-        <v>515</v>
+        <v>160</v>
       </c>
       <c r="P121" s="0" t="s">
-        <v>376</v>
+        <v>517</v>
       </c>
       <c r="Q121" s="0" t="s">
-        <v>377</v>
+        <v>35</v>
       </c>
       <c r="R121" s="0" t="s">
         <v>36</v>
@@ -9082,55 +9127,55 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="L122" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M122" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N122" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="O122" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="P122" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="H122" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K122" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="L122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N122" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O122" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="P122" s="0" t="s">
-        <v>382</v>
-      </c>
       <c r="Q122" s="0" t="s">
-        <v>383</v>
+        <v>35</v>
       </c>
       <c r="R122" s="0" t="s">
         <v>36</v>
@@ -9141,55 +9186,55 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>514</v>
+        <v>48</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>370</v>
+        <v>22</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>209</v>
+        <v>461</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>372</v>
+        <v>462</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>386</v>
+        <v>51</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>515</v>
+        <v>128</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="K123" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>28</v>
+        <v>464</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>375</v>
+        <v>465</v>
       </c>
       <c r="O123" s="0" t="s">
-        <v>515</v>
+        <v>120</v>
       </c>
       <c r="P123" s="0" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
       <c r="Q123" s="0" t="s">
-        <v>389</v>
+        <v>35</v>
       </c>
       <c r="R123" s="0" t="s">
         <v>36</v>
@@ -9200,28 +9245,28 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="I124" s="0" t="s">
         <v>28</v>
@@ -9230,7 +9275,7 @@
         <v>28</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L124" s="0" t="s">
         <v>28</v>
@@ -9239,16 +9284,16 @@
         <v>28</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O124" s="0" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="P124" s="0" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="Q124" s="0" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="R124" s="0" t="s">
         <v>36</v>
@@ -9259,28 +9304,28 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B125" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>514</v>
-      </c>
       <c r="C125" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>28</v>
@@ -9289,25 +9334,25 @@
         <v>28</v>
       </c>
       <c r="K125" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="L125" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M125" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N125" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O125" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="L125" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M125" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N125" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O125" s="0" t="s">
-        <v>515</v>
-      </c>
       <c r="P125" s="0" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="Q125" s="0" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="R125" s="0" t="s">
         <v>36</v>
@@ -9318,28 +9363,28 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="I126" s="0" t="s">
         <v>28</v>
@@ -9348,7 +9393,7 @@
         <v>28</v>
       </c>
       <c r="K126" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L126" s="0" t="s">
         <v>28</v>
@@ -9357,16 +9402,16 @@
         <v>28</v>
       </c>
       <c r="N126" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O126" s="0" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="P126" s="0" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="Q126" s="0" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="R126" s="0" t="s">
         <v>36</v>
@@ -9377,65 +9422,301 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>409</v>
+        <v>208</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G127" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="L127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N127" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O127" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="P127" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q127" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="R127" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S127" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J128" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="L128" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M128" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N128" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O128" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="P128" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q128" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="R128" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S128" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="L129" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M129" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N129" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O129" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="P129" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q129" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="R129" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S129" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E130" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="H127" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="I127" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J127" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K127" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="L127" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M127" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N127" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O127" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="P127" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q127" s="0" t="s">
+      <c r="F130" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="I130" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J130" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="L130" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M130" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N130" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O130" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="P130" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="R127" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S127" s="0" t="s">
+      <c r="Q130" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="R130" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S130" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="L131" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M131" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N131" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O131" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="P131" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q131" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="R131" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S131" s="0" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S127"/>
+  <autoFilter ref="A1:S131"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -9443,7 +9724,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" state="frozen" activePane="topRight"/>
@@ -9457,24 +9738,24 @@
     <col min="3" max="3" width="16.497610092163086" customWidth="1"/>
     <col min="4" max="4" width="10.230311393737793" customWidth="1"/>
     <col min="5" max="5" width="364.38580322265625" customWidth="1"/>
-    <col min="6" max="6" width="358.5287780761719" customWidth="1"/>
+    <col min="6" max="6" width="228.23118591308594" customWidth="1"/>
     <col min="7" max="7" width="10.727521896362305" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.947011947631836" customWidth="1"/>
+    <col min="9" max="9" width="23.295879364013672" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>15</v>
@@ -9483,13 +9764,13 @@
         <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2">
@@ -9497,7 +9778,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>28</v>
@@ -9506,7 +9787,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>35</v>
@@ -9518,15 +9799,15 @@
         <v>28</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>28</v>
@@ -9535,7 +9816,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>35</v>
@@ -9547,7 +9828,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4">
@@ -9555,7 +9836,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>28</v>
@@ -9564,7 +9845,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>35</v>
@@ -9576,7 +9857,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5">
@@ -9584,7 +9865,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>28</v>
@@ -9593,7 +9874,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>35</v>
@@ -9605,15 +9886,15 @@
         <v>28</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>28</v>
@@ -9622,7 +9903,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>35</v>
@@ -9634,15 +9915,15 @@
         <v>28</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>28</v>
@@ -9651,7 +9932,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>35</v>
@@ -9663,24 +9944,24 @@
         <v>28</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>35</v>
@@ -9692,15 +9973,15 @@
         <v>28</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>28</v>
@@ -9709,7 +9990,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>35</v>
@@ -9721,7 +10002,7 @@
         <v>28</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10">
@@ -9729,7 +10010,7 @@
         <v>57</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>28</v>
@@ -9738,7 +10019,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>35</v>
@@ -9750,7 +10031,7 @@
         <v>28</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11">
@@ -9758,7 +10039,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>28</v>
@@ -9767,7 +10048,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>35</v>
@@ -9779,7 +10060,7 @@
         <v>28</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12">
@@ -9787,7 +10068,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>28</v>
@@ -9796,7 +10077,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>35</v>
@@ -9808,24 +10089,24 @@
         <v>28</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>35</v>
@@ -9837,15 +10118,15 @@
         <v>28</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>28</v>
@@ -9854,7 +10135,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>35</v>
@@ -9866,15 +10147,15 @@
         <v>28</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>28</v>
@@ -9883,7 +10164,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>35</v>
@@ -9895,15 +10176,15 @@
         <v>28</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>28</v>
@@ -9912,7 +10193,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>35</v>
@@ -9924,15 +10205,15 @@
         <v>28</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>28</v>
@@ -9941,7 +10222,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>35</v>
@@ -9953,15 +10234,15 @@
         <v>28</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>28</v>
@@ -9970,7 +10251,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>35</v>
@@ -9982,15 +10263,15 @@
         <v>28</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>28</v>
@@ -9999,7 +10280,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>35</v>
@@ -10011,15 +10292,15 @@
         <v>28</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>28</v>
@@ -10028,7 +10309,7 @@
         <v>28</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>35</v>
@@ -10040,27 +10321,27 @@
         <v>28</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>386</v>
+        <v>246</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>552</v>
+        <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>388</v>
+        <v>596</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>389</v>
+        <v>35</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>28</v>
@@ -10069,27 +10350,27 @@
         <v>28</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>392</v>
+        <v>305</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>552</v>
+        <v>28</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>394</v>
+        <v>599</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>395</v>
+        <v>35</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>28</v>
@@ -10098,27 +10379,27 @@
         <v>28</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>28</v>
@@ -10127,27 +10408,27 @@
         <v>28</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>28</v>
@@ -10156,27 +10437,27 @@
         <v>28</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>28</v>
@@ -10185,27 +10466,27 @@
         <v>28</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>28</v>
@@ -10214,27 +10495,27 @@
         <v>28</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>28</v>
@@ -10243,27 +10524,27 @@
         <v>28</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>192</v>
+        <v>374</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>28</v>
+        <v>563</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>194</v>
+        <v>377</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>28</v>
@@ -10272,27 +10553,27 @@
         <v>28</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>548</v>
+        <v>608</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>28</v>
+        <v>563</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>35</v>
+        <v>384</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>28</v>
@@ -10301,27 +10582,27 @@
         <v>28</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>28</v>
+        <v>563</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>70</v>
+        <v>389</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>35</v>
+        <v>390</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>28</v>
@@ -10330,15 +10611,15 @@
         <v>28</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>28</v>
@@ -10347,7 +10628,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>600</v>
+        <v>193</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>35</v>
@@ -10359,15 +10640,15 @@
         <v>28</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>201</v>
+        <v>424</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>601</v>
+        <v>559</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>28</v>
@@ -10376,7 +10657,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>602</v>
+        <v>425</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>35</v>
@@ -10388,15 +10669,15 @@
         <v>28</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>28</v>
@@ -10405,7 +10686,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>604</v>
+        <v>70</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>35</v>
@@ -10417,15 +10698,15 @@
         <v>28</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>28</v>
@@ -10434,7 +10715,7 @@
         <v>28</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>35</v>
@@ -10446,15 +10727,15 @@
         <v>28</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>458</v>
+        <v>200</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>28</v>
@@ -10463,7 +10744,7 @@
         <v>28</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>35</v>
@@ -10475,15 +10756,15 @@
         <v>28</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>488</v>
+        <v>68</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>28</v>
@@ -10492,7 +10773,7 @@
         <v>28</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>70</v>
+        <v>619</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>35</v>
@@ -10504,15 +10785,15 @@
         <v>28</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>28</v>
@@ -10521,7 +10802,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>35</v>
@@ -10533,40 +10814,127 @@
         <v>28</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>615</v>
+      <c r="B41" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I38"/>
+  <autoFilter ref="A1:I41"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Presentation/bin/Debug/net7.0-windows7.0/ExtractedData.xlsx
+++ b/Presentation/bin/Debug/net7.0-windows7.0/ExtractedData.xlsx
@@ -9,15 +9,15 @@
     <sheet name="Components" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Components!$A$1:$I$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wires!$A$1:$S$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Components!$A$1:$I$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wires!$A$1:$S$131</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="631">
   <si>
     <t>Wire</t>
   </si>
@@ -91,7 +91,7 @@
     <t>761980</t>
   </si>
   <si>
-    <t>9082+L2+L1</t>
+    <t>7612+L3+L2+L1</t>
   </si>
   <si>
     <t>6E</t>
@@ -124,7 +124,7 @@
     <t>BR15 DH66</t>
   </si>
   <si>
-    <t>2437643 2437644 2437645 2437646 2437647 2437648 2437649 2437650 2437651 2437652 2437653 2437654 2437655 2437656 2437657 2437658 2437659 2437660 2437661 2437662 2437663 2437664 2437665 2437666 2437667 2437668 2437669 2437670 2437671 2437672 2437673 2437674 2437675 2437676 2437677 2437678 2437679 2437680 2437781 2437782 2437783 2437784 2437785 2437786</t>
+    <t>2437681 2437682 2437683 2437684 2437685 2437686 2437687 2437688 2437689 2437690 2437691 2437692 2437693 2437694 2437695 2437696 2437697 2437698 2437699 2437700 2437701 2437702 2437703 2437704 2437705 2437706 2437707 2437708</t>
   </si>
   <si>
     <t>?</t>
@@ -169,7 +169,7 @@
     <t>364973</t>
   </si>
   <si>
-    <t>9152+L1+L2</t>
+    <t>7682+L1+L2+L3</t>
   </si>
   <si>
     <t>111F_plug</t>
@@ -310,16 +310,13 @@
     <t>DH102</t>
   </si>
   <si>
-    <t>2437643 2437644 2437645 2437646 2437647 2437648 2437649 2437650 2437651 2437653 2437655 2437657 2437659 2437661 2437663 2437665 2437667 2437669 2437671 2437673 2437675 2437677 2437679 2437781 2437782 2437783 2437786</t>
-  </si>
-  <si>
     <t>1390.1</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
-    <t>9112+L1+L2</t>
+    <t>7642+L1+L2+L3</t>
   </si>
   <si>
     <t>108F_plug</t>
@@ -358,7 +355,7 @@
     <t>1404.9</t>
   </si>
   <si>
-    <t>9150+L2</t>
+    <t>7680+L3+L2</t>
   </si>
   <si>
     <t>9</t>
@@ -466,7 +463,7 @@
     <t>761975</t>
   </si>
   <si>
-    <t>3615</t>
+    <t>2145+L3</t>
   </si>
   <si>
     <t>P031.D:4 to 107F_plug:5</t>
@@ -565,7 +562,7 @@
     <t>2249.2</t>
   </si>
   <si>
-    <t>9082+L1+L2</t>
+    <t>7612+L1+L2+L3</t>
   </si>
   <si>
     <t>107F_plug:16 to 5CD:8</t>
@@ -592,7 +589,7 @@
     <t>2679.14</t>
   </si>
   <si>
-    <t>8712+L1+L2+L3</t>
+    <t>7242+L1+L2+L3+L4</t>
   </si>
   <si>
     <t>L308.B</t>
@@ -637,7 +634,7 @@
     <t>3558.1</t>
   </si>
   <si>
-    <t>9112+L2+L1</t>
+    <t>7642+L3+L2+L1</t>
   </si>
   <si>
     <t>6E:8 to 108F_plug:1</t>
@@ -679,30 +676,54 @@
     <t>6CD:15 to 119F_socket:14</t>
   </si>
   <si>
-    <t>3619.5</t>
-  </si>
-  <si>
-    <t>5367+L1+L2</t>
-  </si>
-  <si>
-    <t>119F_socket:3 to 6CD:35</t>
+    <t>3619.3</t>
+  </si>
+  <si>
+    <t>7382+L1+L2</t>
+  </si>
+  <si>
+    <t>D379.B</t>
+  </si>
+  <si>
+    <t>D379.B:4 to 6CD:35</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>DH07</t>
-  </si>
-  <si>
-    <t>3620.5</t>
-  </si>
-  <si>
-    <t>119F_socket:4 to 6CD:36</t>
+    <t>DH01 DH08 DH81 DH95 DJ01</t>
+  </si>
+  <si>
+    <t>3619.6</t>
+  </si>
+  <si>
+    <t>2355</t>
+  </si>
+  <si>
+    <t>D379.C</t>
+  </si>
+  <si>
+    <t>D379.C:4 to 119F_socket:3</t>
+  </si>
+  <si>
+    <t>DH08 DH95</t>
+  </si>
+  <si>
+    <t>3620.3</t>
+  </si>
+  <si>
+    <t>D379.B:3 to 6CD:36</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
+    <t>3620.6</t>
+  </si>
+  <si>
+    <t>D379.C:3 to 119F_socket:4</t>
+  </si>
+  <si>
     <t>3651.8</t>
   </si>
   <si>
@@ -907,30 +928,15 @@
     <t>DH132</t>
   </si>
   <si>
-    <t>3952.69</t>
-  </si>
-  <si>
-    <t>5887+L1+L2</t>
+    <t>3952.70</t>
+  </si>
+  <si>
+    <t>2935</t>
   </si>
   <si>
     <t>G790</t>
   </si>
   <si>
-    <t>G790:5 to 6CD:8</t>
-  </si>
-  <si>
-    <t>DH142</t>
-  </si>
-  <si>
-    <t>2437652 2437654 2437656 2437658 2437660 2437662 2437664 2437666 2437668 2437670 2437672 2437674 2437676 2437678 2437680 2437784 2437785</t>
-  </si>
-  <si>
-    <t>3952.70</t>
-  </si>
-  <si>
-    <t>2935</t>
-  </si>
-  <si>
     <t>G790:5 to P097:7</t>
   </si>
   <si>
@@ -988,15 +994,6 @@
     <t>116F_socket:2 to P072:6</t>
   </si>
   <si>
-    <t>3953.69</t>
-  </si>
-  <si>
-    <t>5887+L2+L1</t>
-  </si>
-  <si>
-    <t>6CD:9 to G790:7</t>
-  </si>
-  <si>
     <t>3953.70</t>
   </si>
   <si>
@@ -1039,18 +1036,24 @@
     <t>DH30</t>
   </si>
   <si>
-    <t>5158.5</t>
+    <t>5158.3</t>
   </si>
   <si>
     <t>1686136</t>
   </si>
   <si>
-    <t>119F_socket:2 to 6CD:34</t>
+    <t>D379.B:2 to 6CD:34</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
+    <t>5158.6</t>
+  </si>
+  <si>
+    <t>D379.C:2 to 119F_socket:2</t>
+  </si>
+  <si>
     <t>5491.1</t>
   </si>
   <si>
@@ -1060,7 +1063,7 @@
     <t>6164.2</t>
   </si>
   <si>
-    <t>8902+L2+L1</t>
+    <t>7432+L3+L2+L1</t>
   </si>
   <si>
     <t>5CD:7 to A088:7</t>
@@ -1075,7 +1078,7 @@
     <t>6165</t>
   </si>
   <si>
-    <t>8902+L1+L2</t>
+    <t>7432+L1+L2+L3</t>
   </si>
   <si>
     <t>A088:2 to 5CD:21</t>
@@ -1120,37 +1123,55 @@
     <t>P097:11 to 5CD:10</t>
   </si>
   <si>
+    <t>6496.8</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>A_2396616</t>
+  </si>
+  <si>
+    <t>7152+L1+L2+L3+L4+L5</t>
+  </si>
+  <si>
+    <t>L308.A(7)</t>
+  </si>
+  <si>
+    <t>L308.A(7):1 to 344C(2):1</t>
+  </si>
+  <si>
+    <t>344C(2)</t>
+  </si>
+  <si>
+    <t>DH154</t>
+  </si>
+  <si>
+    <t>2437682 2437684 2437686 2437692 2437694</t>
+  </si>
+  <si>
     <t>6496.9</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
     <t>A_2396617</t>
   </si>
   <si>
-    <t>8622+L1+L2+L3+L4</t>
-  </si>
-  <si>
     <t>L308.A(8)</t>
   </si>
   <si>
     <t>L308.A(8):1 to 344C(2):1</t>
   </si>
   <si>
-    <t>344C(2)</t>
-  </si>
-  <si>
     <t>DH155</t>
   </si>
   <si>
-    <t>2437782 2437785 2437786</t>
+    <t>2437696 2437702 2437704</t>
   </si>
   <si>
     <t>6496.10</t>
@@ -1168,7 +1189,7 @@
     <t>DH156</t>
   </si>
   <si>
-    <t>2437643 2437651 2437652 2437781 2437783 2437784</t>
+    <t>2437681 2437691</t>
   </si>
   <si>
     <t>6496.11</t>
@@ -1186,7 +1207,7 @@
     <t>DH157</t>
   </si>
   <si>
-    <t>2437644 2437653 2437654 2437667 2437668</t>
+    <t>2437683 2437693</t>
   </si>
   <si>
     <t>6496.12</t>
@@ -1204,7 +1225,7 @@
     <t>DH158</t>
   </si>
   <si>
-    <t>2437645 2437655 2437656</t>
+    <t>2437685 2437701</t>
   </si>
   <si>
     <t>6496.13</t>
@@ -1222,7 +1243,7 @@
     <t>DH159</t>
   </si>
   <si>
-    <t>2437646 2437657 2437658 2437669 2437670</t>
+    <t>2437687 2437695 2437697 2437703</t>
   </si>
   <si>
     <t>6496.14</t>
@@ -1240,7 +1261,7 @@
     <t>DH160</t>
   </si>
   <si>
-    <t>2437647 2437648 2437659 2437660 2437661 2437662 2437671 2437672 2437673 2437674 2437675 2437676</t>
+    <t>2437688 2437689 2437698 2437699 2437705 2437706 2437707</t>
   </si>
   <si>
     <t>6496.15</t>
@@ -1258,7 +1279,7 @@
     <t>DH161</t>
   </si>
   <si>
-    <t>2437649 2437650 2437663 2437664 2437665 2437666 2437677 2437678 2437679 2437680</t>
+    <t>2437690 2437700 2437708</t>
   </si>
   <si>
     <t>7081</t>
@@ -1384,7 +1405,7 @@
     <t>364972</t>
   </si>
   <si>
-    <t>9780+L2</t>
+    <t>8310+L2+L3</t>
   </si>
   <si>
     <t>111F_plug:1 to P071.U:8</t>
@@ -1405,15 +1426,21 @@
     <t>108F_plug:5 to 6E:7</t>
   </si>
   <si>
-    <t>9129.5</t>
-  </si>
-  <si>
-    <t>119F_socket:1 to 6CD:33</t>
+    <t>9129.3</t>
+  </si>
+  <si>
+    <t>D379.B:1 to 6CD:33</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
+    <t>9129.6</t>
+  </si>
+  <si>
+    <t>119F_socket:1 to D379.C:1</t>
+  </si>
+  <si>
     <t>9164.1</t>
   </si>
   <si>
@@ -1504,7 +1531,7 @@
     <t>MT11</t>
   </si>
   <si>
-    <t>9030+L2+L3</t>
+    <t>7560+L2+L3+L4</t>
   </si>
   <si>
     <t>L308.B:3 to P071.T:11</t>
@@ -1537,7 +1564,7 @@
     <t>MU3</t>
   </si>
   <si>
-    <t>9710+L2</t>
+    <t>8240+L2+L3</t>
   </si>
   <si>
     <t>108F_plug:4 to P071.U:3</t>
@@ -1558,15 +1585,21 @@
     <t>111F_plug:2 to P071.U:7</t>
   </si>
   <si>
+    <t>S1_Video.8</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>L308.A(7):1A to 344C(2):1A</t>
+  </si>
+  <si>
     <t>S1_Video.9</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
     <t>L308.A(8):1A to 344C(2):1A</t>
   </si>
   <si>
@@ -1744,6 +1777,15 @@
     <t>side marker right 2nd</t>
   </si>
   <si>
+    <t>1816060</t>
+  </si>
+  <si>
+    <t>DH01/DH08/DH21/DH95/DJ01/DJ21</t>
+  </si>
+  <si>
+    <t>modulator additional axle</t>
+  </si>
+  <si>
     <t>1982868</t>
   </si>
   <si>
@@ -1796,6 +1838,9 @@
   </si>
   <si>
     <t>2404490</t>
+  </si>
+  <si>
+    <t>2396616</t>
   </si>
   <si>
     <t>2396617</t>
@@ -1911,11 +1956,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:S127"/>
+  <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="19" topLeftCell="T1" state="frozen" activePane="topRight"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <pane xSplit="19" ySplit="1" topLeftCell="T2" state="frozen" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1925,7 +1972,7 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="10.678414344787598" customWidth="1"/>
-    <col min="6" max="6" width="17.378469467163086" customWidth="1"/>
+    <col min="6" max="6" width="20.4548282623291" customWidth="1"/>
     <col min="7" max="7" width="12.022722244262695" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
@@ -1936,7 +1983,7 @@
     <col min="14" max="14" width="12.022722244262695" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="29.135534286499023" customWidth="1"/>
-    <col min="17" max="17" width="358.5287780761719" customWidth="1"/>
+    <col min="17" max="17" width="228.23118591308594" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
@@ -2522,7 +2569,7 @@
         <v>96</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>36</v>
@@ -2533,7 +2580,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>20</v>
@@ -2542,28 +2589,28 @@
         <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>27</v>
@@ -2578,7 +2625,7 @@
         <v>40</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>35</v>
@@ -2592,7 +2639,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>20</v>
@@ -2613,7 +2660,7 @@
         <v>44</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>43</v>
@@ -2622,13 +2669,13 @@
         <v>28</v>
       </c>
       <c r="K12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="L12" s="0" t="s">
-        <v>110</v>
-      </c>
       <c r="M12" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>68</v>
@@ -2637,7 +2684,7 @@
         <v>26</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="0" t="s">
         <v>35</v>
@@ -2651,7 +2698,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>20</v>
@@ -2666,37 +2713,37 @@
         <v>23</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H13" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="M13" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>52</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="0" t="s">
         <v>35</v>
@@ -2710,7 +2757,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>60</v>
@@ -2725,13 +2772,13 @@
         <v>61</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>64</v>
@@ -2740,7 +2787,7 @@
         <v>28</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>83</v>
@@ -2769,7 +2816,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>60</v>
@@ -2784,10 +2831,10 @@
         <v>61</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>125</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>52</v>
@@ -2799,22 +2846,22 @@
         <v>67</v>
       </c>
       <c r="K15" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="M15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="0" t="s">
+      <c r="O15" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="P15" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>35</v>
@@ -2828,10 +2875,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>21</v>
@@ -2840,10 +2887,10 @@
         <v>22</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>68</v>
@@ -2858,16 +2905,16 @@
         <v>31</v>
       </c>
       <c r="K16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>136</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>69</v>
@@ -2887,10 +2934,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>21</v>
@@ -2899,10 +2946,10 @@
         <v>22</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>68</v>
@@ -2917,16 +2964,16 @@
         <v>31</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>26</v>
@@ -2946,10 +2993,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>21</v>
@@ -2958,10 +3005,10 @@
         <v>22</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>68</v>
@@ -2976,16 +3023,16 @@
         <v>31</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>52</v>
@@ -3005,10 +3052,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>21</v>
@@ -3017,16 +3064,16 @@
         <v>22</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>41</v>
@@ -3035,19 +3082,19 @@
         <v>31</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>70</v>
@@ -3064,7 +3111,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>20</v>
@@ -3085,22 +3132,22 @@
         <v>93</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>79</v>
@@ -3112,7 +3159,7 @@
         <v>96</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R20" s="0" t="s">
         <v>36</v>
@@ -3123,22 +3170,22 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>73</v>
@@ -3153,10 +3200,10 @@
         <v>67</v>
       </c>
       <c r="K21" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>67</v>
@@ -3168,7 +3215,7 @@
         <v>69</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>35</v>
@@ -3182,28 +3229,28 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>73</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>66</v>
@@ -3212,10 +3259,10 @@
         <v>67</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>67</v>
@@ -3224,10 +3271,10 @@
         <v>32</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="0" t="s">
         <v>35</v>
@@ -3241,19 +3288,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>72</v>
@@ -3262,7 +3309,7 @@
         <v>68</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>66</v>
@@ -3271,7 +3318,7 @@
         <v>67</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>66</v>
@@ -3300,37 +3347,37 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="0" t="s">
+      <c r="I24" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>162</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>27</v>
@@ -3342,10 +3389,10 @@
         <v>25</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="0" t="s">
         <v>35</v>
@@ -3359,37 +3406,37 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F25" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="K25" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>27</v>
@@ -3401,10 +3448,10 @@
         <v>25</v>
       </c>
       <c r="O25" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="P25" s="0" t="s">
-        <v>167</v>
       </c>
       <c r="Q25" s="0" t="s">
         <v>35</v>
@@ -3418,28 +3465,28 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>73</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>66</v>
@@ -3448,10 +3495,10 @@
         <v>67</v>
       </c>
       <c r="K26" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>84</v>
@@ -3460,10 +3507,10 @@
         <v>32</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="0" t="s">
         <v>35</v>
@@ -3477,28 +3524,28 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>66</v>
@@ -3507,22 +3554,22 @@
         <v>67</v>
       </c>
       <c r="K27" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="L27" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="M27" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="0" t="s">
+      <c r="N27" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>35</v>
@@ -3536,37 +3583,37 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I28" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="J28" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="K28" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>66</v>
@@ -3581,7 +3628,7 @@
         <v>40</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>35</v>
@@ -3595,22 +3642,22 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>32</v>
@@ -3619,28 +3666,28 @@
         <v>80</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>84</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L29" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>33</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>35</v>
@@ -3654,22 +3701,22 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>73</v>
@@ -3684,10 +3731,10 @@
         <v>67</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>67</v>
@@ -3699,7 +3746,7 @@
         <v>52</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>35</v>
@@ -3713,40 +3760,40 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>32</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>67</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>28</v>
@@ -3755,10 +3802,10 @@
         <v>25</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>35</v>
@@ -3772,25 +3819,25 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>26</v>
@@ -3802,22 +3849,22 @@
         <v>67</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L32" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N32" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>35</v>
@@ -3831,19 +3878,19 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>24</v>
@@ -3852,19 +3899,19 @@
         <v>25</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>84</v>
@@ -3876,7 +3923,7 @@
         <v>74</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>35</v>
@@ -3890,25 +3937,25 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>201</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>52</v>
@@ -3920,16 +3967,16 @@
         <v>67</v>
       </c>
       <c r="K34" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="L34" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>203</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>52</v>
@@ -3949,22 +3996,22 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="F35" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>25</v>
@@ -3973,28 +4020,28 @@
         <v>33</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>67</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q35" s="0" t="s">
         <v>35</v>
@@ -4008,52 +4055,52 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>210</v>
-      </c>
       <c r="F36" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>67</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q36" s="0" t="s">
         <v>35</v>
@@ -4067,22 +4114,22 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>44</v>
@@ -4097,22 +4144,22 @@
         <v>28</v>
       </c>
       <c r="K37" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="N37" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="L37" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="N37" s="0" t="s">
+      <c r="O37" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="P37" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="O37" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="P37" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>35</v>
@@ -4126,22 +4173,22 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>44</v>
@@ -4156,22 +4203,22 @@
         <v>28</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>95</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>35</v>
@@ -4185,34 +4232,34 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="F39" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>216</v>
-      </c>
       <c r="H39" s="0" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>222</v>
@@ -4250,46 +4297,46 @@
         <v>60</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>52</v>
       </c>
       <c r="I40" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="L40" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="M40" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="K40" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="N40" s="0" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>35</v>
@@ -4303,52 +4350,52 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="M41" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q41" s="0" t="s">
         <v>35</v>
@@ -4362,52 +4409,52 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="M42" s="0" t="s">
         <v>67</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q42" s="0" t="s">
         <v>35</v>
@@ -4421,40 +4468,40 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>32</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>67</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M43" s="0" t="s">
         <v>28</v>
@@ -4463,10 +4510,10 @@
         <v>25</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>35</v>
@@ -4480,52 +4527,52 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>197</v>
-      </c>
       <c r="F44" s="0" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H44" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="P44" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="M44" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="N44" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="O44" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="P44" s="0" t="s">
-        <v>240</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>35</v>
@@ -4539,52 +4586,52 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>35</v>
@@ -4598,28 +4645,28 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>64</v>
@@ -4628,22 +4675,22 @@
         <v>28</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M46" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q46" s="0" t="s">
         <v>35</v>
@@ -4657,52 +4704,52 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="Q47" s="0" t="s">
         <v>35</v>
@@ -4716,52 +4763,52 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="Q48" s="0" t="s">
         <v>35</v>
@@ -4775,28 +4822,28 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>43</v>
@@ -4805,22 +4852,22 @@
         <v>28</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N49" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="P49" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="O49" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P49" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="Q49" s="0" t="s">
         <v>35</v>
@@ -4834,28 +4881,28 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E50" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>43</v>
@@ -4864,22 +4911,22 @@
         <v>28</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N50" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="P50" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="P50" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="Q50" s="0" t="s">
         <v>35</v>
@@ -4893,52 +4940,52 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="Q51" s="0" t="s">
         <v>35</v>
@@ -4952,52 +4999,52 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="Q52" s="0" t="s">
         <v>35</v>
@@ -5011,52 +5058,52 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="E53" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="F53" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="G53" s="0" t="s">
+      <c r="L53" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N53" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="H53" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K53" s="0" t="s">
+      <c r="O53" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="P53" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N53" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="P53" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="Q53" s="0" t="s">
         <v>35</v>
@@ -5070,52 +5117,52 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>210</v>
-      </c>
       <c r="F54" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>52</v>
       </c>
       <c r="I54" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="L54" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="J54" s="0" t="s">
+      <c r="M54" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="K54" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M54" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="N54" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q54" s="0" t="s">
         <v>35</v>
@@ -5129,28 +5176,28 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>66</v>
@@ -5174,7 +5221,7 @@
         <v>272</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q55" s="0" t="s">
         <v>35</v>
@@ -5188,28 +5235,28 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>210</v>
-      </c>
       <c r="F56" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>66</v>
@@ -5218,7 +5265,7 @@
         <v>67</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L56" s="0" t="s">
         <v>64</v>
@@ -5230,10 +5277,10 @@
         <v>44</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q56" s="0" t="s">
         <v>35</v>
@@ -5247,28 +5294,28 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>66</v>
@@ -5280,19 +5327,19 @@
         <v>278</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N57" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="O57" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="O57" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="P57" s="0" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q57" s="0" t="s">
         <v>35</v>
@@ -5306,28 +5353,28 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>210</v>
-      </c>
       <c r="F58" s="0" t="s">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>66</v>
@@ -5336,22 +5383,22 @@
         <v>67</v>
       </c>
       <c r="K58" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="O58" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="L58" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M58" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N58" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="O58" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="P58" s="0" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q58" s="0" t="s">
         <v>35</v>
@@ -5371,28 +5418,28 @@
         <v>60</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>284</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>285</v>
@@ -5410,7 +5457,7 @@
         <v>26</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q59" s="0" t="s">
         <v>35</v>
@@ -5424,37 +5471,37 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>210</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>284</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L60" s="0" t="s">
         <v>66</v>
@@ -5466,10 +5513,10 @@
         <v>286</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q60" s="0" t="s">
         <v>35</v>
@@ -5483,52 +5530,52 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E61" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="G61" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K61" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>294</v>
       </c>
       <c r="L61" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M61" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N61" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="N61" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="O61" s="0" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q61" s="0" t="s">
         <v>35</v>
@@ -5542,55 +5589,55 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E62" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="F62" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="F62" s="0" t="s">
-        <v>297</v>
-      </c>
       <c r="G62" s="0" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="I62" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="L62" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="J62" s="0" t="s">
+      <c r="M62" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N62" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="K62" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="L62" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M62" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N62" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="O62" s="0" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="R62" s="0" t="s">
         <v>36</v>
@@ -5601,55 +5648,55 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>298</v>
+        <v>89</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R63" s="0" t="s">
         <v>36</v>
@@ -5660,55 +5707,55 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K64" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>308</v>
       </c>
       <c r="L64" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N64" s="0" t="s">
         <v>93</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R64" s="0" t="s">
         <v>36</v>
@@ -5719,52 +5766,52 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>312</v>
       </c>
       <c r="L65" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q65" s="0" t="s">
         <v>35</v>
@@ -5778,52 +5825,52 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K66" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="L66" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>298</v>
+        <v>124</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>35</v>
@@ -5837,52 +5884,52 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K67" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>322</v>
       </c>
       <c r="L67" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>125</v>
+        <v>305</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="Q67" s="0" t="s">
         <v>35</v>
@@ -5896,55 +5943,55 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>321</v>
-      </c>
       <c r="F68" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K68" s="0" t="s">
         <v>324</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>325</v>
       </c>
       <c r="L68" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>298</v>
+        <v>124</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="R68" s="0" t="s">
         <v>36</v>
@@ -5955,43 +6002,43 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I69" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L69" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N69" s="0" t="s">
         <v>93</v>
@@ -6000,10 +6047,10 @@
         <v>26</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R69" s="0" t="s">
         <v>36</v>
@@ -6014,28 +6061,28 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>64</v>
@@ -6044,25 +6091,25 @@
         <v>28</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L70" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N70" s="0" t="s">
         <v>93</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R70" s="0" t="s">
         <v>36</v>
@@ -6073,25 +6120,25 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>52</v>
@@ -6100,25 +6147,25 @@
         <v>66</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L71" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O71" s="0" t="s">
         <v>74</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q71" s="0" t="s">
         <v>35</v>
@@ -6132,52 +6179,52 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>39</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L72" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q72" s="0" t="s">
         <v>35</v>
@@ -6191,19 +6238,19 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>72</v>
@@ -6221,7 +6268,7 @@
         <v>67</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L73" s="0" t="s">
         <v>66</v>
@@ -6233,7 +6280,7 @@
         <v>73</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P73" s="0" t="s">
         <v>70</v>
@@ -6250,52 +6297,52 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>74</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J74" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M74" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O74" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q74" s="0" t="s">
         <v>35</v>
@@ -6309,37 +6356,37 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E75" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" s="0" t="s">
         <v>341</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>342</v>
       </c>
       <c r="L75" s="0" t="s">
         <v>43</v>
@@ -6351,7 +6398,7 @@
         <v>44</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P75" s="0" t="s">
         <v>224</v>
@@ -6368,52 +6415,52 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="Q76" s="0" t="s">
         <v>35</v>
@@ -6427,52 +6474,52 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>348</v>
-      </c>
       <c r="L77" s="0" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>350</v>
+        <v>31</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="Q77" s="0" t="s">
         <v>35</v>
@@ -6486,52 +6533,52 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I78" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="J78" s="0" t="s">
+      <c r="L78" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="K78" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="L78" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="M78" s="0" t="s">
-        <v>28</v>
+        <v>351</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>354</v>
+        <v>120</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q78" s="0" t="s">
         <v>35</v>
@@ -6545,52 +6592,52 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L79" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N79" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M79" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N79" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O79" s="0" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q79" s="0" t="s">
         <v>35</v>
@@ -6604,52 +6651,52 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L80" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N80" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M80" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N80" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O80" s="0" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q80" s="0" t="s">
         <v>35</v>
@@ -6663,52 +6710,52 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L81" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N81" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M81" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N81" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O81" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q81" s="0" t="s">
         <v>35</v>
@@ -6722,52 +6769,52 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L82" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N82" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M82" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N82" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O82" s="0" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q82" s="0" t="s">
         <v>35</v>
@@ -6781,55 +6828,55 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>66</v>
+        <v>350</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L83" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N83" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M83" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N83" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="O83" s="0" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R83" s="0" t="s">
         <v>36</v>
@@ -6840,55 +6887,55 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K84" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K84" s="0" t="s">
-        <v>374</v>
-      </c>
       <c r="L84" s="0" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>375</v>
+        <v>127</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>376</v>
+        <v>96</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>377</v>
+        <v>35</v>
       </c>
       <c r="R84" s="0" t="s">
         <v>36</v>
@@ -6899,25 +6946,25 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>26</v>
@@ -6929,7 +6976,7 @@
         <v>28</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L85" s="0" t="s">
         <v>28</v>
@@ -6938,16 +6985,16 @@
         <v>28</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O85" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="R85" s="0" t="s">
         <v>36</v>
@@ -6958,25 +7005,25 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>26</v>
@@ -6988,7 +7035,7 @@
         <v>28</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L86" s="0" t="s">
         <v>28</v>
@@ -6997,16 +7044,16 @@
         <v>28</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O86" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="R86" s="0" t="s">
         <v>36</v>
@@ -7017,25 +7064,25 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>26</v>
@@ -7047,7 +7094,7 @@
         <v>28</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L87" s="0" t="s">
         <v>28</v>
@@ -7056,16 +7103,16 @@
         <v>28</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O87" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Q87" s="0" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="R87" s="0" t="s">
         <v>36</v>
@@ -7076,25 +7123,25 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>26</v>
@@ -7106,7 +7153,7 @@
         <v>28</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L88" s="0" t="s">
         <v>28</v>
@@ -7115,16 +7162,16 @@
         <v>28</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O88" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Q88" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="R88" s="0" t="s">
         <v>36</v>
@@ -7135,25 +7182,25 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>26</v>
@@ -7165,7 +7212,7 @@
         <v>28</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L89" s="0" t="s">
         <v>28</v>
@@ -7174,16 +7221,16 @@
         <v>28</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O89" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="Q89" s="0" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="R89" s="0" t="s">
         <v>36</v>
@@ -7194,25 +7241,25 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>26</v>
@@ -7224,7 +7271,7 @@
         <v>28</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L90" s="0" t="s">
         <v>28</v>
@@ -7233,16 +7280,16 @@
         <v>28</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O90" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q90" s="0" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="R90" s="0" t="s">
         <v>36</v>
@@ -7253,55 +7300,55 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>147</v>
+        <v>370</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>291</v>
+        <v>410</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>125</v>
+        <v>411</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="Q91" s="0" t="s">
-        <v>35</v>
+        <v>414</v>
       </c>
       <c r="R91" s="0" t="s">
         <v>36</v>
@@ -7312,55 +7359,55 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>417</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>125</v>
+        <v>376</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="P92" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q92" s="0" t="s">
-        <v>35</v>
+        <v>420</v>
       </c>
       <c r="R92" s="0" t="s">
         <v>36</v>
@@ -7371,52 +7418,52 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>424</v>
+        <v>298</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I93" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M93" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="P93" s="0" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="Q93" s="0" t="s">
         <v>35</v>
@@ -7433,52 +7480,52 @@
         <v>426</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>427</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>428</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>93</v>
+        <v>424</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>293</v>
+        <v>84</v>
       </c>
       <c r="K94" s="0" t="s">
         <v>429</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="N94" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="O94" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="O94" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="P94" s="0" t="s">
-        <v>96</v>
+        <v>425</v>
       </c>
       <c r="Q94" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R94" s="0" t="s">
         <v>36</v>
@@ -7492,49 +7539,49 @@
         <v>430</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C95" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>432</v>
-      </c>
       <c r="F95" s="0" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="O95" s="0" t="s">
-        <v>435</v>
+        <v>160</v>
       </c>
       <c r="P95" s="0" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="Q95" s="0" t="s">
         <v>35</v>
@@ -7548,52 +7595,52 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>320</v>
+        <v>434</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>321</v>
+        <v>435</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="M96" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>439</v>
+        <v>153</v>
       </c>
       <c r="P96" s="0" t="s">
-        <v>436</v>
+        <v>96</v>
       </c>
       <c r="Q96" s="0" t="s">
         <v>35</v>
@@ -7607,34 +7654,34 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="F97" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="G97" s="0" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>154</v>
+        <v>272</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="K97" s="0" t="s">
         <v>441</v>
@@ -7649,10 +7696,10 @@
         <v>44</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>102</v>
+        <v>442</v>
       </c>
       <c r="P97" s="0" t="s">
-        <v>90</v>
+        <v>443</v>
       </c>
       <c r="Q97" s="0" t="s">
         <v>35</v>
@@ -7666,52 +7713,52 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="E98" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="L98" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N98" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="O98" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="P98" s="0" t="s">
         <v>443</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G98" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H98" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J98" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="K98" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="L98" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="M98" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="N98" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="O98" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="P98" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="Q98" s="0" t="s">
         <v>35</v>
@@ -7725,28 +7772,28 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>369</v>
+        <v>195</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>447</v>
+        <v>119</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>66</v>
@@ -7758,19 +7805,19 @@
         <v>448</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="O99" s="0" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="P99" s="0" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="Q99" s="0" t="s">
         <v>35</v>
@@ -7790,46 +7837,46 @@
         <v>20</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="O100" s="0" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="P100" s="0" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="Q100" s="0" t="s">
         <v>35</v>
@@ -7843,52 +7890,52 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>236</v>
+        <v>454</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>354</v>
+        <v>156</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="Q101" s="0" t="s">
         <v>35</v>
@@ -7902,52 +7949,52 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>455</v>
+        <v>213</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>457</v>
+        <v>41</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>458</v>
+        <v>215</v>
       </c>
       <c r="O102" s="0" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>459</v>
+        <v>216</v>
       </c>
       <c r="Q102" s="0" t="s">
         <v>35</v>
@@ -7961,52 +8008,52 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>69</v>
+        <v>355</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L103" s="0" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c r="O103" s="0" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="P103" s="0" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="Q103" s="0" t="s">
         <v>35</v>
@@ -8020,52 +8067,52 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="F104" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>221</v>
-      </c>
       <c r="G104" s="0" t="s">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="K104" s="0" t="s">
         <v>463</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>43</v>
+        <v>464</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>44</v>
+        <v>465</v>
       </c>
       <c r="O104" s="0" t="s">
-        <v>464</v>
+        <v>33</v>
       </c>
       <c r="P104" s="0" t="s">
-        <v>224</v>
+        <v>466</v>
       </c>
       <c r="Q104" s="0" t="s">
         <v>35</v>
@@ -8079,52 +8126,52 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D105" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="F105" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="E105" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="F105" s="0" t="s">
+      <c r="G105" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O105" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="G105" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H105" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J105" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K105" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="L105" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="M105" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N105" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="O105" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="P105" s="0" t="s">
-        <v>257</v>
+        <v>105</v>
       </c>
       <c r="Q105" s="0" t="s">
         <v>35</v>
@@ -8138,52 +8185,52 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>468</v>
+        <v>220</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L106" s="0" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="M106" s="0" t="s">
         <v>28</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="O106" s="0" t="s">
-        <v>95</v>
+        <v>471</v>
       </c>
       <c r="P106" s="0" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="Q106" s="0" t="s">
         <v>35</v>
@@ -8197,52 +8244,52 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L107" s="0" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="O107" s="0" t="s">
         <v>26</v>
       </c>
       <c r="P107" s="0" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="Q107" s="0" t="s">
         <v>35</v>
@@ -8256,52 +8303,52 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>415</v>
+        <v>119</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="N108" s="0" t="s">
-        <v>417</v>
+        <v>89</v>
       </c>
       <c r="O108" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="P108" s="0" t="s">
-        <v>418</v>
+        <v>264</v>
       </c>
       <c r="Q108" s="0" t="s">
         <v>35</v>
@@ -8315,55 +8362,55 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>92</v>
+        <v>477</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N109" s="0" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="O109" s="0" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="Q109" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R109" s="0" t="s">
         <v>36</v>
@@ -8374,55 +8421,55 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>365</v>
+        <v>87</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="I110" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>293</v>
+        <v>67</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L110" s="0" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="O110" s="0" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="P110" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q110" s="0" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="R110" s="0" t="s">
         <v>36</v>
@@ -8433,52 +8480,52 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>60</v>
+        <v>297</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I111" s="0" t="s">
         <v>66</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L111" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M111" s="0" t="s">
         <v>84</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>204</v>
+        <v>424</v>
       </c>
       <c r="O111" s="0" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="P111" s="0" t="s">
-        <v>70</v>
+        <v>425</v>
       </c>
       <c r="Q111" s="0" t="s">
         <v>35</v>
@@ -8492,52 +8539,52 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>482</v>
+        <v>60</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>484</v>
+        <v>92</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="I112" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K112" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="J112" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K112" s="0" t="s">
-        <v>486</v>
-      </c>
       <c r="L112" s="0" t="s">
-        <v>487</v>
+        <v>66</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="N112" s="0" t="s">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="O112" s="0" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="P112" s="0" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="Q112" s="0" t="s">
         <v>35</v>
@@ -8551,52 +8598,52 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>482</v>
+        <v>297</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>484</v>
+        <v>366</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>485</v>
+        <v>66</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>487</v>
+        <v>126</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="N113" s="0" t="s">
-        <v>488</v>
+        <v>127</v>
       </c>
       <c r="O113" s="0" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="P113" s="0" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="Q113" s="0" t="s">
         <v>35</v>
@@ -8610,52 +8657,52 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>492</v>
+        <v>199</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="K114" s="0" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L114" s="0" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="N114" s="0" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="O114" s="0" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="P114" s="0" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="Q114" s="0" t="s">
         <v>35</v>
@@ -8669,52 +8716,52 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>60</v>
+        <v>491</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="F115" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K115" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="G115" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H115" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J115" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K115" s="0" t="s">
+      <c r="L115" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="L115" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="M115" s="0" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N115" s="0" t="s">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="O115" s="0" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="P115" s="0" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="Q115" s="0" t="s">
         <v>35</v>
@@ -8728,52 +8775,52 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>60</v>
+        <v>491</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>174</v>
+        <v>494</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="K116" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L116" s="0" t="s">
-        <v>66</v>
+        <v>496</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="O116" s="0" t="s">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="P116" s="0" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="Q116" s="0" t="s">
         <v>35</v>
@@ -8787,52 +8834,52 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>501</v>
+        <v>173</v>
       </c>
       <c r="J117" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="K117" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="K117" s="0" t="s">
-        <v>503</v>
-      </c>
       <c r="L117" s="0" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N117" s="0" t="s">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="O117" s="0" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="P117" s="0" t="s">
-        <v>504</v>
+        <v>176</v>
       </c>
       <c r="Q117" s="0" t="s">
         <v>35</v>
@@ -8846,52 +8893,52 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K118" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N118" s="0" t="s">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="O118" s="0" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="P118" s="0" t="s">
-        <v>508</v>
+        <v>193</v>
       </c>
       <c r="Q118" s="0" t="s">
         <v>35</v>
@@ -8905,52 +8952,52 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="O119" s="0" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
       <c r="P119" s="0" t="s">
-        <v>508</v>
+        <v>176</v>
       </c>
       <c r="Q119" s="0" t="s">
         <v>35</v>
@@ -8964,52 +9011,52 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>51</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>53</v>
+        <v>510</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>54</v>
+        <v>511</v>
       </c>
       <c r="K120" s="0" t="s">
         <v>512</v>
       </c>
       <c r="L120" s="0" t="s">
-        <v>457</v>
+        <v>135</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="O120" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P120" s="0" t="s">
-        <v>152</v>
+        <v>513</v>
       </c>
       <c r="Q120" s="0" t="s">
         <v>35</v>
@@ -9023,55 +9070,55 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>514</v>
+        <v>20</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>209</v>
+        <v>370</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>370</v>
+        <v>22</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>372</v>
+        <v>515</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>373</v>
+        <v>100</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="K121" s="0" t="s">
         <v>516</v>
       </c>
       <c r="L121" s="0" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>375</v>
+        <v>465</v>
       </c>
       <c r="O121" s="0" t="s">
-        <v>515</v>
+        <v>160</v>
       </c>
       <c r="P121" s="0" t="s">
-        <v>376</v>
+        <v>517</v>
       </c>
       <c r="Q121" s="0" t="s">
-        <v>377</v>
+        <v>35</v>
       </c>
       <c r="R121" s="0" t="s">
         <v>36</v>
@@ -9082,55 +9129,55 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="L122" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M122" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N122" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="O122" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="P122" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="H122" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K122" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="L122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N122" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O122" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="P122" s="0" t="s">
-        <v>382</v>
-      </c>
       <c r="Q122" s="0" t="s">
-        <v>383</v>
+        <v>35</v>
       </c>
       <c r="R122" s="0" t="s">
         <v>36</v>
@@ -9141,55 +9188,55 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>514</v>
+        <v>48</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>370</v>
+        <v>22</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>209</v>
+        <v>461</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>372</v>
+        <v>462</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>386</v>
+        <v>51</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>515</v>
+        <v>128</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="K123" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L123" s="0" t="s">
-        <v>28</v>
+        <v>464</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>375</v>
+        <v>465</v>
       </c>
       <c r="O123" s="0" t="s">
-        <v>515</v>
+        <v>120</v>
       </c>
       <c r="P123" s="0" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
       <c r="Q123" s="0" t="s">
-        <v>389</v>
+        <v>35</v>
       </c>
       <c r="R123" s="0" t="s">
         <v>36</v>
@@ -9200,28 +9247,28 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="I124" s="0" t="s">
         <v>28</v>
@@ -9230,7 +9277,7 @@
         <v>28</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L124" s="0" t="s">
         <v>28</v>
@@ -9239,16 +9286,16 @@
         <v>28</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O124" s="0" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="P124" s="0" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="Q124" s="0" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="R124" s="0" t="s">
         <v>36</v>
@@ -9259,28 +9306,28 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B125" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>514</v>
-      </c>
       <c r="C125" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>28</v>
@@ -9289,25 +9336,25 @@
         <v>28</v>
       </c>
       <c r="K125" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="L125" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M125" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N125" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O125" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="L125" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M125" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N125" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O125" s="0" t="s">
-        <v>515</v>
-      </c>
       <c r="P125" s="0" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="Q125" s="0" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="R125" s="0" t="s">
         <v>36</v>
@@ -9318,28 +9365,28 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="I126" s="0" t="s">
         <v>28</v>
@@ -9348,7 +9395,7 @@
         <v>28</v>
       </c>
       <c r="K126" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L126" s="0" t="s">
         <v>28</v>
@@ -9357,16 +9404,16 @@
         <v>28</v>
       </c>
       <c r="N126" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O126" s="0" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="P126" s="0" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="Q126" s="0" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="R126" s="0" t="s">
         <v>36</v>
@@ -9377,65 +9424,301 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>409</v>
+        <v>208</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G127" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="L127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N127" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O127" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="P127" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q127" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="R127" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S127" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J128" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="L128" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M128" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N128" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O128" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="P128" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q128" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="R128" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S128" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="L129" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M129" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N129" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O129" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="P129" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q129" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="R129" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S129" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E130" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="H127" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="I127" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J127" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K127" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="L127" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M127" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N127" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O127" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="P127" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q127" s="0" t="s">
+      <c r="F130" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="I130" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J130" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="L130" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M130" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N130" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O130" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="P130" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="R127" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S127" s="0" t="s">
+      <c r="Q130" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="R130" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S130" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="L131" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M131" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N131" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O131" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="P131" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q131" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="R131" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S131" s="0" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S127"/>
+  <autoFilter ref="A1:S131"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -9443,11 +9726,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" state="frozen" activePane="topRight"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J2" state="frozen" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9457,24 +9742,24 @@
     <col min="3" max="3" width="16.497610092163086" customWidth="1"/>
     <col min="4" max="4" width="10.230311393737793" customWidth="1"/>
     <col min="5" max="5" width="364.38580322265625" customWidth="1"/>
-    <col min="6" max="6" width="358.5287780761719" customWidth="1"/>
+    <col min="6" max="6" width="228.23118591308594" customWidth="1"/>
     <col min="7" max="7" width="10.727521896362305" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.947011947631836" customWidth="1"/>
+    <col min="9" max="9" width="23.295879364013672" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>15</v>
@@ -9483,13 +9768,13 @@
         <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2">
@@ -9497,7 +9782,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>28</v>
@@ -9506,7 +9791,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>35</v>
@@ -9518,15 +9803,15 @@
         <v>28</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>28</v>
@@ -9535,7 +9820,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>35</v>
@@ -9547,7 +9832,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4">
@@ -9555,7 +9840,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>28</v>
@@ -9564,7 +9849,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>35</v>
@@ -9576,7 +9861,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5">
@@ -9584,7 +9869,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>28</v>
@@ -9593,7 +9878,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>35</v>
@@ -9605,15 +9890,15 @@
         <v>28</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>28</v>
@@ -9622,7 +9907,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>35</v>
@@ -9634,15 +9919,15 @@
         <v>28</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>28</v>
@@ -9651,7 +9936,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>35</v>
@@ -9663,24 +9948,24 @@
         <v>28</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>35</v>
@@ -9692,15 +9977,15 @@
         <v>28</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>28</v>
@@ -9709,7 +9994,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>35</v>
@@ -9721,7 +10006,7 @@
         <v>28</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10">
@@ -9729,7 +10014,7 @@
         <v>57</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>28</v>
@@ -9738,7 +10023,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>35</v>
@@ -9750,7 +10035,7 @@
         <v>28</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11">
@@ -9758,7 +10043,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>28</v>
@@ -9767,7 +10052,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>35</v>
@@ -9779,7 +10064,7 @@
         <v>28</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12">
@@ -9787,7 +10072,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>28</v>
@@ -9796,7 +10081,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>35</v>
@@ -9808,24 +10093,24 @@
         <v>28</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>35</v>
@@ -9837,15 +10122,15 @@
         <v>28</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>28</v>
@@ -9854,7 +10139,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>35</v>
@@ -9866,15 +10151,15 @@
         <v>28</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>28</v>
@@ -9883,7 +10168,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>35</v>
@@ -9895,15 +10180,15 @@
         <v>28</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>28</v>
@@ -9912,7 +10197,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>35</v>
@@ -9924,15 +10209,15 @@
         <v>28</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>28</v>
@@ -9941,7 +10226,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>35</v>
@@ -9953,15 +10238,15 @@
         <v>28</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>28</v>
@@ -9970,7 +10255,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>35</v>
@@ -9982,15 +10267,15 @@
         <v>28</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>28</v>
@@ -9999,7 +10284,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>35</v>
@@ -10011,15 +10296,15 @@
         <v>28</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>28</v>
@@ -10028,7 +10313,7 @@
         <v>28</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>35</v>
@@ -10040,27 +10325,27 @@
         <v>28</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>386</v>
+        <v>246</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>552</v>
+        <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>388</v>
+        <v>596</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>389</v>
+        <v>35</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>28</v>
@@ -10069,27 +10354,27 @@
         <v>28</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>392</v>
+        <v>305</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>552</v>
+        <v>28</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>394</v>
+        <v>599</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>395</v>
+        <v>35</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>28</v>
@@ -10098,27 +10383,27 @@
         <v>28</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>28</v>
@@ -10127,27 +10412,27 @@
         <v>28</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>28</v>
@@ -10156,27 +10441,27 @@
         <v>28</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>28</v>
@@ -10185,27 +10470,27 @@
         <v>28</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>28</v>
@@ -10214,27 +10499,27 @@
         <v>28</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>28</v>
@@ -10243,27 +10528,27 @@
         <v>28</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>192</v>
+        <v>374</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>28</v>
+        <v>563</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>194</v>
+        <v>377</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>28</v>
@@ -10272,27 +10557,27 @@
         <v>28</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>548</v>
+        <v>608</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>28</v>
+        <v>563</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>35</v>
+        <v>384</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>28</v>
@@ -10301,27 +10586,27 @@
         <v>28</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>28</v>
+        <v>563</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>70</v>
+        <v>389</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>35</v>
+        <v>390</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>28</v>
@@ -10330,15 +10615,15 @@
         <v>28</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>28</v>
@@ -10347,7 +10632,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>600</v>
+        <v>193</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>35</v>
@@ -10359,15 +10644,15 @@
         <v>28</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>201</v>
+        <v>424</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>601</v>
+        <v>559</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>28</v>
@@ -10376,7 +10661,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>602</v>
+        <v>425</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>35</v>
@@ -10388,15 +10673,15 @@
         <v>28</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>28</v>
@@ -10405,7 +10690,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>604</v>
+        <v>70</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>35</v>
@@ -10417,15 +10702,15 @@
         <v>28</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>28</v>
@@ -10434,7 +10719,7 @@
         <v>28</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>35</v>
@@ -10446,15 +10731,15 @@
         <v>28</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>458</v>
+        <v>200</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>28</v>
@@ -10463,7 +10748,7 @@
         <v>28</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>35</v>
@@ -10475,15 +10760,15 @@
         <v>28</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>488</v>
+        <v>68</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>28</v>
@@ -10492,7 +10777,7 @@
         <v>28</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>70</v>
+        <v>619</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>35</v>
@@ -10504,15 +10789,15 @@
         <v>28</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>28</v>
@@ -10521,7 +10806,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>35</v>
@@ -10533,40 +10818,127 @@
         <v>28</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>615</v>
+      <c r="B41" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I38"/>
+  <autoFilter ref="A1:I41"/>
   <headerFooter/>
 </worksheet>
 </file>